--- a/AfDD_2022_List_of_indicators.xlsx
+++ b/AfDD_2022_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_List_of_indicators.xlsx
+++ b/AfDD_2022_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -4177,7 +4177,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="10" t="s">
         <v>2</v>
@@ -13843,7 +13843,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="182" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
       <c r="B182" s="20" t="s">
         <v>543</v>

--- a/AfDD_2022_List_of_indicators.xlsx
+++ b/AfDD_2022_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -91,8 +91,7 @@
   </si>
   <si>
     <t>From the 2019 Revision of World Population Prospects, UN Department of Economic and Social Affairs.
-Population in a country, area or region as of 1 July of the year indicated. Figures up to 2015 are estimates. Figures from 2016 onwards are projections under the medium fertility variant scenario. For more information, see:
-https://population.un.org/wpp/</t>
+Population in a country, area or region as of 1 July of the year indicated. Figures up to 2015 are estimates. Figures from 2016 onwards are projections under the medium fertility variant scenario. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Persons</t>
@@ -122,8 +121,7 @@
     <t>Nominal gross domestic product in purchasing-power-parity dollars (millions)</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. The purchasing power parity (PPP) valuation refers to the adjustment of GDP estimates to eliminate the effect of differences in consumer price levels between countries on the differences in GDP estimates. This creates a theoretical value of GDP in US dollars in each country in the case where a US dollar has the same purchasing power in every country. These figures are used to compare different countries, but are not valid for comparisons between different years since they do not reflect real economic growth. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information:
-https://www.imf.org/en/publications/weo</t>
+    <t>From the World Economic Outlook. The purchasing power parity (PPP) valuation refers to the adjustment of GDP estimates to eliminate the effect of differences in consumer price levels between countries on the differences in GDP estimates. This creates a theoretical value of GDP in US dollars in each country in the case where a US dollar has the same purchasing power in every country. These figures are used to compare different countries, but are not valid for comparisons between different years since they do not reflect real economic growth. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>PPP dollars</t>
@@ -141,8 +139,7 @@
     <t>Gross domestic product in U.S. dollars (millions)</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information:
-https://www.imf.org/en/publications/weo</t>
+    <t>From the World Economic Outlook. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>US dollars</t>
@@ -157,8 +154,7 @@
     <t>Real GDP growth (%)</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. Growth in constant-dollar GDP. See the Statistical Appendix to the latest World Economic Outlook for more information:
-https://www.imf.org/en/publications/weo</t>
+    <t>From the World Economic Outlook. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. Growth in constant-dollar GDP. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>Percentage</t>
@@ -176,8 +172,7 @@
     <t>GDP in purchasing power parity (PPP) dollars per capita</t>
   </si>
   <si>
-    <t>Persons in employment or the employed population comprise all those of working age who, in a short reference period, were engaged in any activity to produce goods or provide services for pay or profit. For more information, see:
-https://www.ilo.org/global/statistics-and-databases/statistics-overview-and-topics/WCMS_470295/lang--en/index.htm</t>
+    <t>Persons in employment or the employed population comprise all those of working age who, in a short reference period, were engaged in any activity to produce goods or provide services for pay or profit. For more information, see: https://www.ilo.org/global/statistics-and-databases/statistics-overview-and-topics/WCMS_470295/lang--en/index.htm</t>
   </si>
   <si>
     <t>Units</t>
@@ -192,8 +187,7 @@
     <t>Employment as a % of population 15+</t>
   </si>
   <si>
-    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. For more information, see:
-https://www.ilo.org/ilostat-files/Documents/TEM.pdf</t>
+    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. For more information, see: https://www.ilo.org/ilostat-files/Documents/TEM.pdf</t>
   </si>
   <si>
     <t>2000-2020</t>
@@ -211,8 +205,7 @@
     <t>Gini coefficient (World Bank estimate)</t>
   </si>
   <si>
-    <t>From the World Bank. As stated in their documentation: "The World Bank’s internationally comparable poverty monitoring database now draws on income or detailed consumption data from more than one thousand six hundred household surveys across 164 countries in six regions and 25 other high income countries (industrialized economies). While income distribution data are published for all countries with data available, poverty data are published for low- and middle-income countries and countries eligible to receive loans from the World Bank (such as Chile) and recently graduated countries (such as Estonia) only. See PovcalNet for definitions of geographical regions and industrialized countries. World Bank, Development Research Group. Data are based on primary household survey data obtained from government statistical agencies and World Bank country departments. For more information and methodology, please see PovcalNet:
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>From the World Bank. As stated in their documentation: "The World Bank’s internationally comparable poverty monitoring database now draws on income or detailed consumption data from more than one thousand six hundred household surveys across 164 countries in six regions and 25 other high income countries (industrialized economies). While income distribution data are published for all countries with data available, poverty data are published for low- and middle-income countries and countries eligible to receive loans from the World Bank (such as Chile) and recently graduated countries (such as Estonia) only. See PovcalNet for definitions of geographical regions and industrialized countries. World Bank, Development Research Group. Data are based on primary household survey data obtained from government statistical agencies and World Bank country departments. For more information and methodology, please see PovcalNet: http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>Index</t>
@@ -233,8 +226,7 @@
     <t>% of population in extreme poverty ($1.90 a day)</t>
   </si>
   <si>
-    <t>From the World Bank World Development Indicators. According to World Bank documentation: "Poverty headcount ratio at $1.90 a day is the percentage of the population living on less than $1.90 a day at 2011 international prices. As a result of revisions in PPP exchange rates, poverty rates for individual countries cannot be compared with poverty rates reported in earlier editions. World Bank, Development Research Group. For more information and methodology, please see PovcalNet:
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>From the World Bank World Development Indicators. According to World Bank documentation: "Poverty headcount ratio at $1.90 a day is the percentage of the population living on less than $1.90 a day at 2011 international prices. As a result of revisions in PPP exchange rates, poverty rates for individual countries cannot be compared with poverty rates reported in earlier editions. World Bank, Development Research Group. For more information and methodology, please see PovcalNet: http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>HDI</t>
@@ -246,8 +238,7 @@
     <t>Human development index (HDI)</t>
   </si>
   <si>
-    <t>From the United Nations Development Programme. From their documentation: "The Human Development Index (HDI) is a summary measure of average achievement in key dimensions of human development: a long and healthy life, being knowledgeable and have a decent standard of living. The HDI is the geometric mean of normalized indices for each of the three dimensions." For more information, see:
-http://hdr.undp.org/en/content/human-development-index-hdi</t>
+    <t>From the United Nations Development Programme. From their documentation: "The Human Development Index (HDI) is a summary measure of average achievement in key dimensions of human development: a long and healthy life, being knowledgeable and have a decent standard of living. The HDI is the geometric mean of normalized indices for each of the three dimensions." For more information, see: http://hdr.undp.org/en/content/human-development-index-hdi</t>
   </si>
   <si>
     <t>United Nations Development Programme Human Development Data Online (2020 edition)</t>
@@ -259,8 +250,7 @@
     <t>Inequality-adjusted HDI (IHDI)</t>
   </si>
   <si>
-    <t>From the United Nations Development Programme. From their documentation: "The IHDI combines a country’s average achievements in health, education and income with how those achievements are distributed among country’s population by 'discounting' each dimension’s average value according to its level of inequality."
-http://hdr.undp.org/en/content/inequality-adjusted-human-development-index-ihdi</t>
+    <t>From the United Nations Development Programme. From their documentation: "The IHDI combines a country’s average achievements in health, education and income with how those achievements are distributed among country’s population by 'discounting' each dimension’s average value according to its level of inequality." http://hdr.undp.org/en/content/inequality-adjusted-human-development-index-ihdi</t>
   </si>
   <si>
     <t>2010-2019</t>
@@ -275,8 +265,7 @@
     <t>Population growth (%)</t>
   </si>
   <si>
-    <t>Population in a country, area or region as of 1 July of the year indicated. Figures up to 2015 are estimates, figures for years after 2016 are projections under the medium fertility variant scenario. For more information, see:
-http://www.un.org/en/development/desa/population/</t>
+    <t>Population in a country, area or region as of 1 July of the year indicated. Figures up to 2015 are estimates, figures for years after 2016 are projections under the medium fertility variant scenario. For more information, see: http://www.un.org/en/development/desa/population/</t>
   </si>
   <si>
     <t>RlGDPPrCpGr</t>
@@ -288,8 +277,7 @@
     <t>Real GDP Growth Per Capita (%)</t>
   </si>
   <si>
-    <t>Author's calculations based on Real GDP Growth estimates from the World Economic Outlook, and population growth estimates from World Population Prospects. Figures up to 2015 are estimates, figures for years after 2016 are projections under the medium fertility variant scenario. See notes on population growth and Real GDP growth form more information.
-https://population.un.org/wup/</t>
+    <t>Author's calculations based on Real GDP Growth estimates from the World Economic Outlook, and population growth estimates from World Population Prospects. Figures up to 2015 are estimates, figures for years after 2016 are projections under the medium fertility variant scenario. See notes on population growth and Real GDP growth form more information. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>Population and GDP(PPP)</t>
@@ -307,8 +295,7 @@
     <t>Urban Population (thousands)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Urban populations are as of 1 July of the year indicated. Figures up to 2015 are estimates, figures for years after 2015 are projections under the medium fertility variant scenario. Annual figures are interpolations of World Urbanization Prospects estimates produced on a five-year basis. For more information, see:
-https://population.un.org/wup/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Urban populations are as of 1 July of the year indicated. Figures up to 2015 are estimates, figures for years after 2015 are projections under the medium fertility variant scenario. Annual figures are interpolations of World Urbanization Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wup/</t>
   </si>
   <si>
     <t>World Urbanization Prospects: The 2018 Revision, UN</t>
@@ -320,8 +307,7 @@
     <t>Rural Population (thousands)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Rural populations are as of 1 July of the year indicated. Figures up to 2015 are estimates, figures for years after 2015 are projections under the medium fertility variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see:
-https://population.un.org/wup/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Rural populations are as of 1 July of the year indicated. Figures up to 2015 are estimates, figures for years after 2015 are projections under the medium fertility variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wup/</t>
   </si>
   <si>
     <t>IntermCitPop</t>
@@ -331,8 +317,7 @@
   </si>
   <si>
     <t>Author's calculations based on the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA). 
-Sum of population estimates for individual cities with populations reported between 300,000 and 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures.
-https://population.un.org/wup/</t>
+Sum of population estimates for individual cities with populations reported between 300,000 and 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>2000-2030</t>
@@ -344,8 +329,7 @@
     <t>Number of urban agglomerations of 300,000 to 1 million inhabitants</t>
   </si>
   <si>
-    <t>Count of cities in the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA), reported as containing at between 300,000 and 1 million inhabitants.
-https://population.un.org/wup/</t>
+    <t>Count of cities in the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA), reported as containing at between 300,000 and 1 million inhabitants. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>Number</t>
@@ -358,8 +342,7 @@
   </si>
   <si>
     <t>Author's calculations based on the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA). 
-Sum of population estimates for individual cities with populations reported over 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures.
-https://population.un.org/wup/</t>
+Sum of population estimates for individual cities with populations reported over 1 million. Populations are as of 1 July of the year indicated. Figures are reported by the UNDESA on a five-year-basis, so interpolation is used to produce annual figures. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>PrimCitNum</t>
@@ -368,8 +351,7 @@
     <t>Number of urban agglomerations of over 1 million inhabitants</t>
   </si>
   <si>
-    <t>Count of cities in the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA), reported as containing at least 1 million inhabitants.
-https://population.un.org/wup/</t>
+    <t>Count of cities in the World Urbanization Prospects: The 2019 Revision, from UN Department of Economic and Social Affairs (UNDESA), reported as containing at least 1 million inhabitants. https://population.un.org/wup/</t>
   </si>
   <si>
     <t>OldDepRatio</t>
@@ -378,8 +360,7 @@
     <t>Old-age dependency ratio 65+/(15-64)*100</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Ratio of estimated population aged 65 years and over to the estimated population aged between 15 and 64 years inclusive, multiplied by 100. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2020 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Ratio of estimated population aged 65 years and over to the estimated population aged between 15 and 64 years inclusive, multiplied by 100. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2020 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -397,8 +378,7 @@
     <t>Child dependency ratio &lt;15/(15-64)*100</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Ratio of estimated population aged 65 years and over to the estimated population aged between 15 and 64 years inclusive, multiplied by 100. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Ratio of estimated population aged 65 years and over to the estimated population aged between 15 and 64 years inclusive, multiplied by 100. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>TotDepRatio</t>
@@ -407,8 +387,7 @@
     <t>Total dependency ratio (Child dependency ratio + Old-age dependency ratio)</t>
   </si>
   <si>
-    <t>Author's calculations based on United Nations Department of Economic and Social Affairs Population Division estimates. Sum of child dependency ratios and old-age dependency ratios. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>Author's calculations based on United Nations Department of Economic and Social Affairs Population Division estimates. Sum of child dependency ratios and old-age dependency ratios. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>LitRt15T24</t>
@@ -420,8 +399,7 @@
     <t>Youth literacy rate, population 15-24 years, both sexes (%)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the youth literacy rate is defined by the percentage of the population aged 15 to 24 years that can read and write. It is typically measured according to the ability to comprehend a short simple statement on everyday life. Generally, literacy also encompasses numeracy, and measurement may incorporate a simple assessment of arithmetic ability. The literacy rate and number of literates should be distinguished from functional literacy, a more comprehensive measure of literacy assessed on a continuum in which multiple proficiency levels can be determined. For more information, see:
-http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the youth literacy rate is defined by the percentage of the population aged 15 to 24 years that can read and write. It is typically measured according to the ability to comprehend a short simple statement on everyday life. Generally, literacy also encompasses numeracy, and measurement may incorporate a simple assessment of arithmetic ability. The literacy rate and number of literates should be distinguished from functional literacy, a more comprehensive measure of literacy assessed on a continuum in which multiple proficiency levels can be determined. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>UNESCO Institute for Statistics (UIS) Database (retrieved 17/11/2021)</t>
@@ -433,8 +411,7 @@
     <t>Youth literacy rate, population 15-24 years, female (%)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the female youth literacy rate is the percentage of females aged 15 to 24 years who can both read and write with understanding a short simple statement on her everyday life. Generally, ‘literacy’ also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. The youth literacy rate reflects the outcomes of the primary education system over the previous 10 years, and is often seen as a proxy measure of social progress and economic achievement. Based on National population census; household and/or labour force surveys. For more information, see:
-http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the female youth literacy rate is the percentage of females aged 15 to 24 years who can both read and write with understanding a short simple statement on her everyday life. Generally, ‘literacy’ also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. The youth literacy rate reflects the outcomes of the primary education system over the previous 10 years, and is often seen as a proxy measure of social progress and economic achievement. Based on National population census; household and/or labour force surveys. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T24M</t>
@@ -443,8 +420,7 @@
     <t>Youth literacy rate, population 15-24 years, male (%)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the male youth literacy rate is the percentage of males aged 15 to 24 years who can both read and write with understanding a short simple statement on their everyday life. Generally, ‘literacy’ also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. The youth literacy rate reflects the outcomes of the primary education system over the previous 10 years, and is often seen as a proxy measure of social progress and economic achievement. Based on National population census; household and/or labour force surveys. For more information, see:
-http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the male youth literacy rate is the percentage of males aged 15 to 24 years who can both read and write with understanding a short simple statement on their everyday life. Generally, ‘literacy’ also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. The youth literacy rate reflects the outcomes of the primary education system over the previous 10 years, and is often seen as a proxy measure of social progress and economic achievement. Based on National population census; household and/or labour force surveys. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T24GPIA</t>
@@ -453,8 +429,7 @@
     <t>Youth literacy rate, population 15-24 years, adjusted gender parity index (GPIA)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate The adjusted ratio of female to male values of for youth literacy in the population 15-24 years old. A Gender Parity Index (GPI) equal to 1 indicates parity between females and males. In general, a value less than 1 indicates a disparity in favour of boys and a value greater than 1 indicates a disparity in favour of girls. However, the interpretation should be in the other way round for indicators that should ideally approach 0% (e.g. repetition, dropout, illiteracy rates, etc). In these cases, a GPI of less than 1 indicates a disparity in favour of girls and a value greater than 1 indicates a disparity in favour of boys. Starting in September 2020, all parity indices are calculated with the formula for adjusted gender parity indices (GPIA). The unadjusted parity index does not indicate whether improvement or regression is due to the performance of one of the groups. The default calculation method for the parity index yields an indicator that is not symmetrical around 1 and that has no upper limit. This limitation can be overcome with a simple transformation, by inverting ratios that exceed 1 and subtracting them from 2. This adjusted parity index is symmetrical around 1 and lies in the range 0-2, which makes interpretation easier. For more information, see:
-http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate The adjusted ratio of female to male values of for youth literacy in the population 15-24 years old. A Gender Parity Index (GPI) equal to 1 indicates parity between females and males. In general, a value less than 1 indicates a disparity in favour of boys and a value greater than 1 indicates a disparity in favour of girls. However, the interpretation should be in the other way round for indicators that should ideally approach 0% (e.g. repetition, dropout, illiteracy rates, etc). In these cases, a GPI of less than 1 indicates a disparity in favour of girls and a value greater than 1 indicates a disparity in favour of boys. Starting in September 2020, all parity indices are calculated with the formula for adjusted gender parity indices (GPIA). The unadjusted parity index does not indicate whether improvement or regression is due to the performance of one of the groups. The default calculation method for the parity index yields an indicator that is not symmetrical around 1 and that has no upper limit. This limitation can be overcome with a simple transformation, by inverting ratios that exceed 1 and subtracting them from 2. This adjusted parity index is symmetrical around 1 and lies in the range 0-2, which makes interpretation easier. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T99</t>
@@ -463,8 +438,7 @@
     <t>Adult literacy rate, population 15+ years, both sexes (%)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the adult literacy rate is the percentage of the population (counting both sexes) aged 15 years and over who can both read and write with understanding a short simple statement on his/her everyday life. Generally, ‘literacy also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. Adult illiteracy is defined as the percentage of the population aged 15 years and over who cannot both read and write with understanding a short simple statement on his/her everyday life. High literacy rate (or low illiteracy rate) suggests the existence of an effective primary education system and/or literacy programmes that have enabled a large proportion of the population to acquire the ability of using the written word (and making simple arithmetic calculations) in daily life and to continue learning. It is common practice to present and analyse literacy rates together with the absolute number of adult illiterates as improvements in literacy rates may sometimes be accompanied by increases in the illiterate population due to the changing demographic structure. Based on National population census; household and/or labour force surveys. For more information, see:
-http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the adult literacy rate is the percentage of the population (counting both sexes) aged 15 years and over who can both read and write with understanding a short simple statement on his/her everyday life. Generally, ‘literacy also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. Adult illiteracy is defined as the percentage of the population aged 15 years and over who cannot both read and write with understanding a short simple statement on his/her everyday life. High literacy rate (or low illiteracy rate) suggests the existence of an effective primary education system and/or literacy programmes that have enabled a large proportion of the population to acquire the ability of using the written word (and making simple arithmetic calculations) in daily life and to continue learning. It is common practice to present and analyse literacy rates together with the absolute number of adult illiterates as improvements in literacy rates may sometimes be accompanied by increases in the illiterate population due to the changing demographic structure. Based on National population census; household and/or labour force surveys. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T99F</t>
@@ -473,8 +447,7 @@
     <t>Adult literacy rate, population 15+ years, female (%)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the female adult literacy rate is the percentage of females aged 15 years and over who can both read and write with understanding a short simple statement on her everyday life. Generally, ‘literacy’ also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. Adult illiteracy is defined as the percentage of the population aged 15 years and over who cannot both read and write with understanding a short simple statement on his/her everyday life. High literacy rate (or low illiteracy rate) suggests the existence of an effective primary education system and/or literacy programmes that have enabled a large proportion of the population to acquire the ability of using the written word (and making simple arithmetic calculations) in daily life and to continue learning. It is common practice to present and analyse literacy rates together with the absolute number of adult illiterates as improvements in literacy rates may sometimes be accompanied by increases in the illiterate population due to the changing demographic structure. Based on National population census; household and/or labour force surveys. For more information, see:
-http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the female adult literacy rate is the percentage of females aged 15 years and over who can both read and write with understanding a short simple statement on her everyday life. Generally, ‘literacy’ also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. Adult illiteracy is defined as the percentage of the population aged 15 years and over who cannot both read and write with understanding a short simple statement on his/her everyday life. High literacy rate (or low illiteracy rate) suggests the existence of an effective primary education system and/or literacy programmes that have enabled a large proportion of the population to acquire the ability of using the written word (and making simple arithmetic calculations) in daily life and to continue learning. It is common practice to present and analyse literacy rates together with the absolute number of adult illiterates as improvements in literacy rates may sometimes be accompanied by increases in the illiterate population due to the changing demographic structure. Based on National population census; household and/or labour force surveys. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T99M</t>
@@ -483,8 +456,7 @@
     <t>Adult literacy rate, population 15+ years, male (%)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the adult literacy rate is the percentage of males aged 15 years and over who can both read and write with understanding a short simple statement on his everyday life. Generally, ‘literacy’ also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. Adult illiteracy is defined as the percentage of the population aged 15 years and over who cannot both read and write with understanding a short simple statement on his/her everyday life. High literacy rate (or low illiteracy rate) suggests the existence of an effective primary education system and/or literacy programmes that have enabled a large proportion of the population to acquire the ability of using the written word (and making simple arithmetic calculations) in daily life and to continue learning. It is common practice to present and analyse literacy rates together with the absolute number of adult illiterates as improvements in literacy rates may sometimes be accompanied by increases in the illiterate population due to the changing demographic structure. Based on National population census; household and/or labour force surveys. For more information, see:
-http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate According to the UNESCO Institute for Statistics website, the adult literacy rate is the percentage of males aged 15 years and over who can both read and write with understanding a short simple statement on his everyday life. Generally, ‘literacy’ also encompasses ‘numeracy’, the ability to make simple arithmetic calculations. Adult illiteracy is defined as the percentage of the population aged 15 years and over who cannot both read and write with understanding a short simple statement on his/her everyday life. High literacy rate (or low illiteracy rate) suggests the existence of an effective primary education system and/or literacy programmes that have enabled a large proportion of the population to acquire the ability of using the written word (and making simple arithmetic calculations) in daily life and to continue learning. It is common practice to present and analyse literacy rates together with the absolute number of adult illiterates as improvements in literacy rates may sometimes be accompanied by increases in the illiterate population due to the changing demographic structure. Based on National population census; household and/or labour force surveys. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>LitRt15T99GPIA</t>
@@ -493,8 +465,7 @@
     <t>Adult literacy rate, population 15+ years, adjusted gender parity index (GPIA)</t>
   </si>
   <si>
-    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate The adjusted ratio of female to male values of the adult literacy rate. Gender parity index (GPI): A GPI equal to 1 indicates parity between females and males. In general, a value less than 1 indicates a disparity in favour of males and a value greater than 1 indicates a disparity in favour of females. However, the interpretation should be in the other way round for indicators that should ideally approach 0% (e.g. repetition, dropout, illiteracy rates, etc). In these cases, a GPI of less than 1 indicates a disparity in favour of females and a value greater than 1 indicates a disparity in favour of males. Starting in September 2020, all parity indices are calculated with the formula for adjusted gender parity indices (GPIA). The unadjusted parity index does not indicate whether improvement or regression is due to the performance of one of the groups. The default calculation method for the parity index yields an indicator that is not symmetrical around 1 and that has no upper limit. This limitation can be overcome with a simple transformation, by inverting ratios that exceed 1 and subtracting them from 2. This adjusted parity index is symmetrical around 1 and lies in the range 0-2, which makes interpretation easier. For more information, see:
-http://data.uis.unesco.org/</t>
+    <t>From UNESCO Institute for Statistics, Sustainable Development Goals 1 and 4: 4.6.2 Youth/adult literacy rate The adjusted ratio of female to male values of the adult literacy rate. Gender parity index (GPI): A GPI equal to 1 indicates parity between females and males. In general, a value less than 1 indicates a disparity in favour of males and a value greater than 1 indicates a disparity in favour of females. However, the interpretation should be in the other way round for indicators that should ideally approach 0% (e.g. repetition, dropout, illiteracy rates, etc). In these cases, a GPI of less than 1 indicates a disparity in favour of females and a value greater than 1 indicates a disparity in favour of males. Starting in September 2020, all parity indices are calculated with the formula for adjusted gender parity indices (GPIA). The unadjusted parity index does not indicate whether improvement or regression is due to the performance of one of the groups. The default calculation method for the parity index yields an indicator that is not symmetrical around 1 and that has no upper limit. This limitation can be overcome with a simple transformation, by inverting ratios that exceed 1 and subtracting them from 2. This adjusted parity index is symmetrical around 1 and lies in the range 0-2, which makes interpretation easier. For more information, see: http://data.uis.unesco.org/</t>
   </si>
   <si>
     <t>WittMedLowEd15PL</t>
@@ -506,8 +477,7 @@
     <t>Percentage of population 15+ with less than primary education (medium scenario)</t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having no education, or incomplete primary education. The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having no education, or incomplete primary education. The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>Ratio of sums</t>
@@ -528,8 +498,7 @@
     <t xml:space="preserve">Percentage of population 15+ with primary but not secondary education (medium scenario) </t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having a primary education or lower secondar, but not higher secondary education. The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having a primary education or lower secondar, but not higher secondary education. The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittMedScndPL15PL</t>
@@ -538,8 +507,7 @@
     <t>Percentage of population 15+ with at least secondary education (medium scenario)</t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having attained secondary education or higher (including upper secondary, post secondary, short post secondary, bachelor, or master and higher). The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having attained secondary education or higher (including upper secondary, post secondary, short post secondary, bachelor, or master and higher). The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclLowEd15PL</t>
@@ -548,8 +516,7 @@
     <t>Percentage of population 15+ with less than primary education (accelerated scenario)</t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having no education, or incomplete primary education. The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having no education, or incomplete primary education. The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclPrim15PL</t>
@@ -558,8 +525,7 @@
     <t xml:space="preserve">Percentage of population 15+ with primary but not secondary education (accelerated scenario) </t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having a primary education or lower secondar, but not higher secondary education. The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having a primary education or lower secondar, but not higher secondary education. The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclScndPL15PL</t>
@@ -568,8 +534,7 @@
     <t>Percentage of population 15+ with at least secondary education (accelerated scenario)</t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having attained secondary education or higher (including upper secondary, post secondary, short post secondary, bachelor, or master and higher). The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15+ identified as having attained secondary education or higher (including upper secondary, post secondary, short post secondary, bachelor, or master and higher). The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittMedLowEd1529</t>
@@ -581,8 +546,7 @@
     <t xml:space="preserve">Percentage of population aged 15-29 with less than primary education (medium scenario) </t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having no education, or incomplete primary education. The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having no education, or incomplete primary education. The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittMedPrim1529</t>
@@ -591,8 +555,7 @@
     <t>Percentage of population aged 15-29 with primary but not secondary education (medium scenario)</t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having a primary education or lower secondar, but not higher secondary education. The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having a primary education or lower secondar, but not higher secondary education. The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittMedScndPL1529</t>
@@ -601,8 +564,7 @@
     <t xml:space="preserve">Percentage of population aged 15-29 with at least secondary education (medium scenario) </t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having attained secondary education or higher (including upper secondary, post secondary, short post secondary, bachelor, or master and higher). The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having attained secondary education or higher (including upper secondary, post secondary, short post secondary, bachelor, or master and higher). The Wittgenstein Centre applies a medium scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The medium scenario assumes medium fertility, medium mortality, medium migration, and the Global Education Trend (GET) education scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclLowEd1529</t>
@@ -611,8 +573,7 @@
     <t xml:space="preserve">Percentage of population aged 15-29 with less than primary education (accelerated scenario) </t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having no education, or incomplete primary education. The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having no education, or incomplete primary education. The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclPrim1529</t>
@@ -621,8 +582,7 @@
     <t>Percentage of population aged 15-29 with primary but not secondary education (accelerated scenario)</t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having a primary education or lower secondar, but not higher secondary education. The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having a primary education or lower secondar, but not higher secondary education. The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>WittAcclScndPL1529</t>
@@ -631,8 +591,7 @@
     <t xml:space="preserve">Percentage of population aged 15-29 with at least secondary education (accelerated scenario) </t>
   </si>
   <si>
-    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having attained secondary education or higher (including upper secondary, post secondary, short post secondary, bachelor, or master and higher). The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at:
-http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
+    <t>From Wittgenstein Centre Human Capital Data Explorer. The projected percentage of total population 15-29 identified as having attained secondary education or higher (including upper secondary, post secondary, short post secondary, bachelor, or master and higher). The Wittgenstein Centre applies a rapid development scenario model of population growth and education attainment to population estimates from World Population Prospects 2017, to produce projected national populations broken down by level of education over five-year intervals. The assumes a future that is moving toward a more sustainable path, with educational and health investments accelerating the demographic transition, leading to a relatively low world population. The emphasis is on strengthening human wellbeing. This is associated with high education, low mortality and low fertility. Migration levels are assumed to be medium for all countries under this scenario. The figures from the Wittgenstein Centre are converted from five-year intervals to annual figures using linear interpolation. More details about the methodology behind these figures can be found at: http://dataexplorer.wittgensteincentre.org/wcde-v2/</t>
   </si>
   <si>
     <t>EmpRateFemale</t>
@@ -656,8 +615,7 @@
     <t>Percentage of workers in vulnerable employment</t>
   </si>
   <si>
-    <t>Calculated as the sum of the own-account workers and contributing family workers as a percent of all workers.
-https://www.ilo.org/ilostat-files/Documents/description_STE_EN.pdf</t>
+    <t>Calculated as the sum of the own-account workers and contributing family workers as a percent of all workers. https://www.ilo.org/ilostat-files/Documents/description_STE_EN.pdf</t>
   </si>
   <si>
     <t>Employees</t>
@@ -667,8 +625,7 @@
   </si>
   <si>
     <t>ILO modelled estimates, November 2019
-Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to impute missing observations and to make projections for the indicators. Calculated as the sum of the own-account workers and contributing family workers as a percent of all workers. Employees are all those workers who hold the type of jobs defined as “paid employment jobs”, where the incumbents hold explicit (written or oral) or implicit employment contracts that give them a basic remuneration that is not directly dependent upon the revenue of the unit for which they work. Employers are those workers who, working on their own account or with one or a few partners, hold the type of jobs defined as a “self- employment jobs” (i.e. jobs where the remuneration is directly dependent upon the profits derived from the goods and engaged, on a continuous basis, one or more persons to work for them as employee(s). Own-account workers are those workers who, working on their own account or with one or more partners, hold the type of jobs defined as a “self employment jobs”, and have not engaged on a continuous basis any employees to work for them. Members of producers’ cooperatives are workers who hold “self-employment jobs” in a cooperative producing goods and services. Contributing family workers are those workers who hold “self- employment jobs” as own-account workers in a market- oriented establishment operated by a related person living in the same household. For more information, see:
-https://www.ilo.org/ilostat-files/Documents/description_STE_EN.pdf</t>
+Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to impute missing observations and to make projections for the indicators. Calculated as the sum of the own-account workers and contributing family workers as a percent of all workers. Employees are all those workers who hold the type of jobs defined as “paid employment jobs”, where the incumbents hold explicit (written or oral) or implicit employment contracts that give them a basic remuneration that is not directly dependent upon the revenue of the unit for which they work. Employers are those workers who, working on their own account or with one or a few partners, hold the type of jobs defined as a “self- employment jobs” (i.e. jobs where the remuneration is directly dependent upon the profits derived from the goods and engaged, on a continuous basis, one or more persons to work for them as employee(s). Own-account workers are those workers who, working on their own account or with one or more partners, hold the type of jobs defined as a “self employment jobs”, and have not engaged on a continuous basis any employees to work for them. Members of producers’ cooperatives are workers who hold “self-employment jobs” in a cooperative producing goods and services. Contributing family workers are those workers who hold “self- employment jobs” as own-account workers in a market- oriented establishment operated by a related person living in the same household. For more information, see: https://www.ilo.org/ilostat-files/Documents/description_STE_EN.pdf</t>
   </si>
   <si>
     <t>Employers</t>
@@ -698,8 +655,7 @@
     <t>Oil rents (% of GDP)</t>
   </si>
   <si>
-    <t>From World Bank documentation: "Oil rents are the difference between the value of crude oil production at regional prices and total costs of production. The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP). World Bank staff estimates are based on sources and methods described in 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019)."
-https://data.worldbank.org</t>
+    <t>From World Bank documentation: "Oil rents are the difference between the value of crude oil production at regional prices and total costs of production. The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP). World Bank staff estimates are based on sources and methods described in 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019)." https://data.worldbank.org</t>
   </si>
   <si>
     <t>MinRent</t>
@@ -708,8 +664,7 @@
     <t>Mineral rents (% of GDP)</t>
   </si>
   <si>
-    <t>From World Bank documentation: "Mineral rents are the difference between the value of production for a stock of minerals at world prices and their total costs of production. Minerals included in the calculation are tin, gold, lead, zinc, iron, copper, nickel, silver, bauxite, and phosphate. World Bank staff estimates based on sources and methods described in 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019). The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP)."
-https://data.worldbank.org</t>
+    <t>From World Bank documentation: "Mineral rents are the difference between the value of production for a stock of minerals at world prices and their total costs of production. Minerals included in the calculation are tin, gold, lead, zinc, iron, copper, nickel, silver, bauxite, and phosphate. World Bank staff estimates based on sources and methods described in 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019). The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP)." https://data.worldbank.org</t>
   </si>
   <si>
     <t>TotNRRent</t>
@@ -718,8 +673,7 @@
     <t>Total natural resources rents (% of GDP)</t>
   </si>
   <si>
-    <t>From World Bank documentation: "Total natural resources rents are the sum of oil rents, natural gas rents, coal rents (hard and soft), mineral rents, and forest rents. The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP). World Bank staff estimates based on sources and methods described in 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019)"
-https://data.worldbank.org</t>
+    <t>From World Bank documentation: "Total natural resources rents are the sum of oil rents, natural gas rents, coal rents (hard and soft), mineral rents, and forest rents. The estimates of natural resources rents are calculated as the difference between the price of a commodity and the average cost of producing it. This is done by estimating the price of units of specific commodities and subtracting estimates of average unit costs of extraction or harvesting costs (including a normal return on capital). These unit rents are then multiplied by the physical quantities countries extract or harvest to determine the rents for each commodity as a share of gross domestic product (GDP). World Bank staff estimates based on sources and methods described in 'The Changing Wealth of Nations 2019: Building a Sustainable Future' (Lange et al 2019)" https://data.worldbank.org</t>
   </si>
   <si>
     <t>AgrFrPerGDP</t>
@@ -728,8 +682,7 @@
     <t>Agriculture, hunting, forestry, fishing: value added (% of GDP)</t>
   </si>
   <si>
-    <t>Agriculture, hunting, forestry, fishing value added as a % of GDP (International Standard Industrial Classification categories A-B). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Agriculture, hunting, forestry, fishing value added as a % of GDP (International Standard Industrial Classification categories A-B). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>GDP in US dollars</t>
@@ -744,8 +697,7 @@
     <t>Mining, Manufacturing, Utilities: value added (% of GDP)</t>
   </si>
   <si>
-    <t>Mining, manufacturing, utilities value added as a % of GDP (International Standard Industrial Classification categories C-E). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Mining, manufacturing, utilities value added as a % of GDP (International Standard Industrial Classification categories C-E). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>CnstrPerGDP</t>
@@ -754,8 +706,7 @@
     <t>Construction: value added (% of GDP)</t>
   </si>
   <si>
-    <t>Construction as a % of GDP (International Standard Industrial Classification categories F). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Construction as a % of GDP (International Standard Industrial Classification categories F). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>TrdHsPerGDP</t>
@@ -764,8 +715,7 @@
     <t>Wholesale, retail trade, restaurants and hotels: value added (% of GDP)</t>
   </si>
   <si>
-    <t>Wholesale, retail trade, restaurants and hotels value added as a % of GDP (International Standard Industrial Classification categories G-H). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Wholesale, retail trade, restaurants and hotels value added as a % of GDP (International Standard Industrial Classification categories G-H). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>TnsCmPerGDP</t>
@@ -780,8 +730,7 @@
     <t>Other activities: value added (% of GDP)</t>
   </si>
   <si>
-    <t>Other activities value added as a % of GDP (International Standard Industrial Classification categories J-P). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Other activities value added as a % of GDP (International Standard Industrial Classification categories J-P). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>ManufPerGDP</t>
@@ -790,8 +739,7 @@
     <t>Manufacturing (included in industry): value added (% of GDP)</t>
   </si>
   <si>
-    <t>Manufacturing value added as a % of GDP (International Standard Industrial Classification categories D). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see:
-https://unstats.un.org/unsd/snaama</t>
+    <t>Manufacturing value added as a % of GDP (International Standard Industrial Classification categories D). From UN National Accounts - Analysis of Main Aggregates (AMA), Department of Economic and Social Affairs, United Nations. For more information, see: https://unstats.un.org/unsd/snaama</t>
   </si>
   <si>
     <t>AgrEmpPerTot</t>
@@ -800,8 +748,7 @@
     <t>Employment in agriculture as a % of total</t>
   </si>
   <si>
-    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. The agriculture sector consists of activities in agriculture, hunting, forestry and fishing, in accordance with division 1 (ISIC 2) or categories A-B (ISIC 3) or category A (ISIC 4). From ILOSTAT, see:
-https://www.ilo.org/ilostat-files/Documents/description_ECO_EN.pdf</t>
+    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. The agriculture sector consists of activities in agriculture, hunting, forestry and fishing, in accordance with division 1 (ISIC 2) or categories A-B (ISIC 3) or category A (ISIC 4). From ILOSTAT, see: https://www.ilo.org/ilostat-files/Documents/description_ECO_EN.pdf</t>
   </si>
   <si>
     <t>IndEmpPerTot</t>
@@ -810,8 +757,7 @@
     <t>Employment in industry as a % of total</t>
   </si>
   <si>
-    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. The industry sector consists of mining and quarrying, manufacturing, construction, and public utilities (electricity, gas, and water), in accordance with divisions 2-5 (ISIC 2) or categories C-F (ISIC 3) or categories B-F (ISIC 4). From ILOSTAT, see:
-https://www.ilo.org/ilostat-files/Documents/description_ECO_EN.pdf</t>
+    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. The industry sector consists of mining and quarrying, manufacturing, construction, and public utilities (electricity, gas, and water), in accordance with divisions 2-5 (ISIC 2) or categories C-F (ISIC 3) or categories B-F (ISIC 4). From ILOSTAT, see: https://www.ilo.org/ilostat-files/Documents/description_ECO_EN.pdf</t>
   </si>
   <si>
     <t>SrvEmpPerTot</t>
@@ -820,8 +766,7 @@
     <t>Employment in services as a % of total</t>
   </si>
   <si>
-    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. The services sector consists of wholesale and retail trade, repair of motor vehicles and motorcycles, transport, storage and communication, accomodoation and food services activities, financial and resource activities, real estate, business and administrative acitvities, and other services, in accordance with categories G, H, I, J, K, L, M, N, R, S, T, U (ISIC 4). For more information, see:
-https://www.ilo.org/ilostat-files/Documents/description_ECO_EN.pdf</t>
+    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. The services sector consists of wholesale and retail trade, repair of motor vehicles and motorcycles, transport, storage and communication, accomodoation and food services activities, financial and resource activities, real estate, business and administrative acitvities, and other services, in accordance with categories G, H, I, J, K, L, M, N, R, S, T, U (ISIC 4). For more information, see: https://www.ilo.org/ilostat-files/Documents/description_ECO_EN.pdf</t>
   </si>
   <si>
     <t>ManfEmpPerTot</t>
@@ -830,8 +775,7 @@
     <t>Employment in manufacturing (incl. in industry) as a % of total</t>
   </si>
   <si>
-    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. The manufacturing sector is in accordance with category C (ISIC 4). For more information, see:
-https://www.ilo.org/ilostat-files/Documents/description_ECO_EN.pdf</t>
+    <t>ILO modelled estimates, November 2019 Labour market indicators are estimated using a series of models, which establish statistical relationships between observed labour market indicators and explanatory variables. These relationships are used to imputemissing observations and to make projections for the indicators. Employment is defined as persons of working age who were engaged in any activity to produce goods or provide services for pay or profit, whether at work during the reference period or not at work due to temporary absence from a job, or to working-time arrangement. The manufacturing sector is in accordance with category C (ISIC 4). For more information, see: https://www.ilo.org/ilostat-files/Documents/description_ECO_EN.pdf</t>
   </si>
   <si>
     <t>PovHC320</t>
@@ -843,8 +787,7 @@
     <t>% of population below LMIC poverty rates ($3.20 a day)</t>
   </si>
   <si>
-    <t>From World Bank documentation: "Poverty gap at $3.20 a day (2011 PPP) is the mean shortfall in income or consumption from the poverty line $3.20 a day (counting the nonpoor as having zero shortfall), expressed as a percentage of the poverty line. This measure reflects the depth of poverty as well as its incidence. World Bank, Development Research Group. Data are based on primary household survey data obtained from government statistical agencies and World Bank country departments. For more information and methodology, please see PovcalNet: (iresearch.worldbank.org/PovcalNet/WhatIsNew.aspx).
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>From World Bank documentation: "Poverty gap at $3.20 a day (2011 PPP) is the mean shortfall in income or consumption from the poverty line $3.20 a day (counting the nonpoor as having zero shortfall), expressed as a percentage of the poverty line. This measure reflects the depth of poverty as well as its incidence. World Bank, Development Research Group. Data are based on primary household survey data obtained from government statistical agencies and World Bank country departments. For more information and methodology, please see PovcalNet: (iresearch.worldbank.org/PovcalNet/WhatIsNew.aspx). http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>PovHC550</t>
@@ -853,8 +796,7 @@
     <t>% of population below UMIC poverty rates ($5.50 a day)</t>
   </si>
   <si>
-    <t>From World Bank documentation: "Poverty gap at $5.50 a day (2011 PPP) is the mean shortfall in income or consumption from the poverty line $5.50 a day (counting the nonpoor as having zero shortfall), expressed as a percentage of the poverty line. This measure reflects the depth of poverty as well as its incidence. World Bank, Development Research Group. Data are based on primary household survey data obtained from government statistical agencies and World Bank country departments. For more information and methodology, please see PovcalNet (iresearch.worldbank.org/PovcalNet/WhatIsNew.aspx)."
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>From World Bank documentation: "Poverty gap at $5.50 a day (2011 PPP) is the mean shortfall in income or consumption from the poverty line $5.50 a day (counting the nonpoor as having zero shortfall), expressed as a percentage of the poverty line. This measure reflects the depth of poverty as well as its incidence. World Bank, Development Research Group. Data are based on primary household survey data obtained from government statistical agencies and World Bank country departments. For more information and methodology, please see PovcalNet (iresearch.worldbank.org/PovcalNet/WhatIsNew.aspx)." http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>ShareTop20</t>
@@ -863,8 +805,7 @@
     <t>Income share held by the 20% of the population with highest incomes</t>
   </si>
   <si>
-    <t>From the World Bank Development Indicators. Total income attributed to the 20% of the population with the highest incomes. As stated in their documentation: "The World Bank’s internationally comparable poverty monitoring database now draws on income or detailed consumption data from more than one thousand six hundred household surveys across 164 countries in six regions and 25 other high income countries (industrialized economies). While income distribution data are published for all countries with data available, poverty data are published for low- and middle-income countries and countries eligible to receive loans from the World Bank (such as Chile) and recently graduated countries (such as Estonia) only. See PovcalNet for definitions of geographical regions and industrialized countries. World Bank, Development Research Group. Data are based on primary household survey data obtained from government statistical agencies and World Bank country departments. For more information and methodology, please see PovcalNet:
-http://iresearch.worldbank.org/PovcalNet/index.htm</t>
+    <t>From the World Bank Development Indicators. Total income attributed to the 20% of the population with the highest incomes. As stated in their documentation: "The World Bank’s internationally comparable poverty monitoring database now draws on income or detailed consumption data from more than one thousand six hundred household surveys across 164 countries in six regions and 25 other high income countries (industrialized economies). While income distribution data are published for all countries with data available, poverty data are published for low- and middle-income countries and countries eligible to receive loans from the World Bank (such as Chile) and recently graduated countries (such as Estonia) only. See PovcalNet for definitions of geographical regions and industrialized countries. World Bank, Development Research Group. Data are based on primary household survey data obtained from government statistical agencies and World Bank country departments. For more information and methodology, please see PovcalNet: http://iresearch.worldbank.org/PovcalNet/index.htm</t>
   </si>
   <si>
     <t>WrkPovRate15PL</t>
@@ -873,8 +814,7 @@
     <t>Working poverty rate, both sexes (population 15+)</t>
   </si>
   <si>
-    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population 15+ (both sexes). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see:
-https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
+    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population 15+ (both sexes). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see: https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
   </si>
   <si>
     <t>WrkPovRateFem15PL</t>
@@ -883,8 +823,7 @@
     <t>Working poverty rate, females (population 15+)</t>
   </si>
   <si>
-    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population 15+ (females). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see:
-https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
+    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population 15+ (females). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see: https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
   </si>
   <si>
     <t>WrkPovRateMal15PL</t>
@@ -893,8 +832,7 @@
     <t>Working poverty rate, males (population 15+)</t>
   </si>
   <si>
-    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population 15+ (males). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see:
-https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
+    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population 15+ (males). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see: https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
   </si>
   <si>
     <t>WrkPovRate1529</t>
@@ -903,8 +841,7 @@
     <t>Working poverty rate, both sexes (population 15-29)</t>
   </si>
   <si>
-    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population aged 15-29 (both sexes). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see:
-https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
+    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population aged 15-29 (both sexes). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see: https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
   </si>
   <si>
     <t>WrkPovRateFem1529</t>
@@ -913,8 +850,7 @@
     <t>Working poverty rate, females (population 15-29)</t>
   </si>
   <si>
-    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population aged 15-29 (females). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see:
-https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
+    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population aged 15-29 (females). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see: https://unstats.un.org/sdgs/metadata/files/Metadata-01-01-01b.pdf</t>
   </si>
   <si>
     <t>WrkPovRateMal1529</t>
@@ -923,8 +859,7 @@
     <t>Working poverty rate, males (population 15-29)</t>
   </si>
   <si>
-    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population aged 15-29 (males). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see:
-https://ilostat.ilo.org/resources/concepts-and-definitions/description-labour-productivity/</t>
+    <t>From International Labour Organisation. Working poverty rate (percentage of employed living below $1.90 USD PPP) for population aged 15-29 (males). The working poverty rate conveys the percentage of employed persons living in poverty in spite of being employed. Poverty is defined using the international poverty line of US$1.90 per day in purchasing power parity (PPP). For more information and methodology, please see: https://ilostat.ilo.org/resources/concepts-and-definitions/description-labour-productivity/</t>
   </si>
   <si>
     <t>OutputPerWrkPPP</t>
@@ -933,8 +868,7 @@
     <t>Output per worker (GDP constant 2011 international $ in PPP)</t>
   </si>
   <si>
-    <t>From International Labour Organisation. Labour productivity represents the total volume of output (measured in terms of Gross Domestic Product, GDP) produced per unit of labour (measured in terms of the number of employed persons) during a given time reference period. The indicator allows data users to assess GDP-to-labour input levels and growth rates over time, thus providing general information about the efficiency and quality of human capital in the production process for a given economic and social context. ILOSTAT presents ILO modelled estimates and projections of labour productivity, both in constant 2005 US$ and in constant 2011 international $ in purchasing power parity (PPP). For more information and methodology, please see:
-https://ilostat.ilo.org/resources/concepts-and-definitions/description-labour-productivity/</t>
+    <t>From International Labour Organisation. Labour productivity represents the total volume of output (measured in terms of Gross Domestic Product, GDP) produced per unit of labour (measured in terms of the number of employed persons) during a given time reference period. The indicator allows data users to assess GDP-to-labour input levels and growth rates over time, thus providing general information about the efficiency and quality of human capital in the production process for a given economic and social context. ILOSTAT presents ILO modelled estimates and projections of labour productivity, both in constant 2005 US$ and in constant 2011 international $ in purchasing power parity (PPP). For more information and methodology, please see: https://ilostat.ilo.org/resources/concepts-and-definitions/description-labour-productivity/</t>
   </si>
   <si>
     <t>GDI</t>
@@ -946,8 +880,7 @@
     <t>Gender Development Index (GDI)</t>
   </si>
   <si>
-    <t>This is the ratio of the Human Development Index for females compared to that for males. The higher the index, the lower the difference in Human Development Scores between the genders. The GDI is the ratio of the HDIs calculated separately for females and males using the same methodology as in the HDI. It is a direct measure of gender gap showing the female HDI as a percentage of the male HDI. For more information, see:
-http://hdr.undp.org/en/content/gender-development-index-gdi</t>
+    <t>This is the ratio of the Human Development Index for females compared to that for males. The higher the index, the lower the difference in Human Development Scores between the genders. The GDI is the ratio of the HDIs calculated separately for females and males using the same methodology as in the HDI. It is a direct measure of gender gap showing the female HDI as a percentage of the male HDI. For more information, see: http://hdr.undp.org/en/content/gender-development-index-gdi</t>
   </si>
   <si>
     <t>GII</t>
@@ -956,8 +889,7 @@
     <t>Gender Inequality Index (GII)</t>
   </si>
   <si>
-    <t>From UNDP documentation: The higher the GII value, the more disparities there are between females and males. The GII measures gender inequalities in three important aspects of human development—reproductive health, measured by maternal mortality ratio and adolescent birth rates; empowerment, measured by proportion of parliamentary seats occupied by females and proportion of adult females and males aged 25 years and older with at least some secondary education; and economic status, expressed as labour market participation and measured by labour force participation rate of female and male populations aged 15 years and older. For more information, see:
-http://hdr.undp.org/en/content/gender-inequality-index-gii</t>
+    <t>From UNDP documentation: The higher the GII value, the more disparities there are between females and males. The GII measures gender inequalities in three important aspects of human development—reproductive health, measured by maternal mortality ratio and adolescent birth rates; empowerment, measured by proportion of parliamentary seats occupied by females and proportion of adult females and males aged 25 years and older with at least some secondary education; and economic status, expressed as labour market participation and measured by labour force participation rate of female and male populations aged 15 years and older. For more information, see: http://hdr.undp.org/en/content/gender-inequality-index-gii</t>
   </si>
   <si>
     <t>SIGI</t>
@@ -966,8 +898,7 @@
     <t>Social Institutions and Gender Index (SIGI) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. Discriminatory social institutions are defined as the formal and informal laws, attitudes and practices that restrict women’s and girls’ access to rights, justice and empowerment opportunities. These are captured in a multi-faceted approach by SIGI’s variables that combine qualitative and quantitative data, taking into account both the de jure and de facto discrimination of social institutions, through information on laws, attitudes and practices. The variables span all stages of a woman’s life in order to show how discriminatory social institutions can interlock and bind them into cycles of poverty and disempowerment. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see
-https://www.genderindex.org/ranking/</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. Discriminatory social institutions are defined as the formal and informal laws, attitudes and practices that restrict women’s and girls’ access to rights, justice and empowerment opportunities. These are captured in a multi-faceted approach by SIGI’s variables that combine qualitative and quantitative data, taking into account both the de jure and de facto discrimination of social institutions, through information on laws, attitudes and practices. The variables span all stages of a woman’s life in order to show how discriminatory social institutions can interlock and bind them into cycles of poverty and disempowerment. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see https://www.genderindex.org/ranking/</t>
   </si>
   <si>
     <t>2015-2019</t>
@@ -982,8 +913,7 @@
     <t>Discrimination in the family (SIGI subindex) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "discrimination in the family" sub-index captures social institutions that limit women’s decision-making power and undervalues their status in the household and the family. These formal and informal laws, social norms and practices co-exist in different types of legal systems including civil or common law, customary law, and religious laws and cover areas such as marriage, parental authority, household responsibilities, divorce and inheritance rights. Women’s decision-making power and status in the family determine both their ability to choose their own development pathways and the well-being of their families. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see
-https://www.genderindex.org/ranking/</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "discrimination in the family" sub-index captures social institutions that limit women’s decision-making power and undervalues their status in the household and the family. These formal and informal laws, social norms and practices co-exist in different types of legal systems including civil or common law, customary law, and religious laws and cover areas such as marriage, parental authority, household responsibilities, divorce and inheritance rights. Women’s decision-making power and status in the family determine both their ability to choose their own development pathways and the well-being of their families. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see https://www.genderindex.org/ranking/</t>
   </si>
   <si>
     <t>SIGIPHYS</t>
@@ -992,8 +922,7 @@
     <t>Restricted physical integrity (SIGI subindex) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted physical integrity" sub-index captures social institutions that limit women’s and girls’ control over their bodies, that increase women’s vulnerability, and that normalise attitudes toward gender-based violence. This includes formal and informal laws, norms and practices that fail to protect women’s physical integrity and reproductive autonomy and that allow violence and female genital mutilation. Restricted physical integrity due to gender-based violence and to a lack of reproductive autonomy has serious impacts on health outcomes for women and their children and on economic and social development indicators by increasing women’s vulnerability to poverty. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see
-https://www.genderindex.org/ranking/</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted physical integrity" sub-index captures social institutions that limit women’s and girls’ control over their bodies, that increase women’s vulnerability, and that normalise attitudes toward gender-based violence. This includes formal and informal laws, norms and practices that fail to protect women’s physical integrity and reproductive autonomy and that allow violence and female genital mutilation. Restricted physical integrity due to gender-based violence and to a lack of reproductive autonomy has serious impacts on health outcomes for women and their children and on economic and social development indicators by increasing women’s vulnerability to poverty. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see https://www.genderindex.org/ranking/</t>
   </si>
   <si>
     <t>SIGIRES</t>
@@ -1002,8 +931,7 @@
     <t>Restricted access to productive and financial resources (SIGI subindex) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted access to productive and financial services" sub-index captures women’s restricted access to and control over critical productive and economic resources and assets. This includes discriminatory laws, which deny women’s rights to own, control or use land and non-land assets, to decent work and financial services; discriminatory customary practices in ownership or decision-making over land, household property and other assets; discriminatory practices or attitudes towards women’s formal work; and social norms dictating that women’s property ownership or access to credit should be mediated by men. Insecure or weak rights to land, non-land assets and financial services reduce income-generating opportunities for women, lower decision-making power for women within the household, increase food insecurity for women and their families, and make women and families more vulnerable to poverty. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see
-https://www.genderindex.org/ranking/</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted access to productive and financial services" sub-index captures women’s restricted access to and control over critical productive and economic resources and assets. This includes discriminatory laws, which deny women’s rights to own, control or use land and non-land assets, to decent work and financial services; discriminatory customary practices in ownership or decision-making over land, household property and other assets; discriminatory practices or attitudes towards women’s formal work; and social norms dictating that women’s property ownership or access to credit should be mediated by men. Insecure or weak rights to land, non-land assets and financial services reduce income-generating opportunities for women, lower decision-making power for women within the household, increase food insecurity for women and their families, and make women and families more vulnerable to poverty. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see https://www.genderindex.org/ranking/</t>
   </si>
   <si>
     <t>SIGICIV</t>
@@ -1012,8 +940,7 @@
     <t>Restricted civil liberties (SIGI subindex) 2019</t>
   </si>
   <si>
-    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted civil liberties" sub-index captures discriminatory laws and practices that restrict women’s access to public space, their political voice and their participation in all aspects of public life. This includes a lack of freedom of movement, the inability to vote or run for election, and negative attitudes toward women as public figures or as leaders. This sub-index highlights the importance of women’s participation in community actions and public decision making for a range of development outcomes such as governance, health and education. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see
-https://www.genderindex.org/ranking/</t>
+    <t>The Social Institutions and Gender Index (SIGI) and its sub-indices are between 0 and 100, with 0 indicating very low levels of discrimination and 100 indicating very high levels of discrimination. The "restricted civil liberties" sub-index captures discriminatory laws and practices that restrict women’s access to public space, their political voice and their participation in all aspects of public life. This includes a lack of freedom of movement, the inability to vote or run for election, and negative attitudes toward women as public figures or as leaders. This sub-index highlights the importance of women’s participation in community actions and public decision making for a range of development outcomes such as governance, health and education. The SIGI was first launched in 2009, and then updated in 2012 and 2014. Figures for 2015-19 correspond to the 2019 results of the SIGI which were launched in December 2019. For more information, see https://www.genderindex.org/ranking/</t>
   </si>
   <si>
     <t>IntntSubsPer100</t>
@@ -1025,8 +952,7 @@
     <t>Fixed(wired)-broadband subscriptions per 100 inhabitants</t>
   </si>
   <si>
-    <t>From data presented on the International Telecommunications Union (ITU) statistics data. For more information, see:
-https://www.itu.int/en/ITU-D/Statistics/Pages/definitions/default.aspx</t>
+    <t>From data presented on the International Telecommunications Union (ITU) statistics data. For more information, see: https://www.itu.int/en/ITU-D/Statistics/Pages/definitions/default.aspx</t>
   </si>
   <si>
     <t>International Telecommunication Union - ICT Indicators Online Database (retrieved 19/11/2021)</t>
@@ -1077,8 +1003,7 @@
     <t>Percentage of inhabitants that live within 4G mobile technology coverage</t>
   </si>
   <si>
-    <t>4G coverage refers to the percentage of inhabitants that live within mobile technology 4G, irrespective of whether or not they are subscribers. Taken from GSMA Intelligence
-https://www.gsmaintelligence.com/</t>
+    <t>4G coverage refers to the percentage of inhabitants that live within mobile technology 4G, irrespective of whether or not they are subscribers. Taken from GSMA Intelligence https://www.gsmaintelligence.com/</t>
   </si>
   <si>
     <t>2020-2020</t>
@@ -1093,8 +1018,7 @@
     <t>Access to internet (% of population aged 15+)</t>
   </si>
   <si>
-    <t>Access to internet can be defined as the proportion of individuals aged 15 or more year old who has access to the internet. From Gallup World Poll
-https://www.gallup.com/home.aspx</t>
+    <t>Access to internet can be defined as the proportion of individuals aged 15 or more year old who has access to the internet. From Gallup World Poll https://www.gallup.com/home.aspx</t>
   </si>
   <si>
     <t>2018-2018</t>
@@ -1112,8 +1036,7 @@
     <t>Percentage of large firms using their own website</t>
   </si>
   <si>
-    <t>Percent of firms using their own website. From World Bank enterprise survey. For more information, see:
-https://www.enterprisesurveys.org/en/survey-datasets</t>
+    <t>Percent of firms using their own website. From World Bank enterprise survey. For more information, see: https://www.enterprisesurveys.org/en/survey-datasets</t>
   </si>
   <si>
     <t>2006-2019</t>
@@ -1146,8 +1069,7 @@
     <t>Percentage of large firms using email to interact with clients/suppliers</t>
   </si>
   <si>
-    <t>Percent of firms using email to interact with clients. From World Bank enterprise survey. For more information, see:
-https://www.enterprisesurveys.org/en/survey-datasets</t>
+    <t>Percent of firms using email to interact with clients. From World Bank enterprise survey. For more information, see: https://www.enterprisesurveys.org/en/survey-datasets</t>
   </si>
   <si>
     <t>2006-2018</t>
@@ -1177,8 +1099,7 @@
     <t>Total exports of ICT services, millions of USD</t>
   </si>
   <si>
-    <t>International trade in ICT services From UNCTADStat: "UNCTAD calculations, based on UNCTAD - WTO common data set on international trade in services, compiled in cooperation with ITC and UNSD. ICT services are an aggregation of computer and telecommunications services. ICT services were defined by UNCTAD in a technical note in 2015 as well as in a report of the 47th United Nations Statistical Commission in 2016. The statistics presented correspond to the concepts and definitions of the IMF Balance of Payments and International Investment Position Manual, Sixth Edition (BPM6, 2009). Figures reported according to the fifth edition of the Manual (BPM5) have been adjusted to the BPM6 definitions, provided that such adjustment was possible. When possible, the values missing in principal international sources are estimated by using growth rates derived from the data available in national or other international sources."
-https://unctadstat.unctad.org/EN/Index.html</t>
+    <t>International trade in ICT services From UNCTADStat: "UNCTAD calculations, based on UNCTAD - WTO common data set on international trade in services, compiled in cooperation with ITC and UNSD. ICT services are an aggregation of computer and telecommunications services. ICT services were defined by UNCTAD in a technical note in 2015 as well as in a report of the 47th United Nations Statistical Commission in 2016. The statistics presented correspond to the concepts and definitions of the IMF Balance of Payments and International Investment Position Manual, Sixth Edition (BPM6, 2009). Figures reported according to the fifth edition of the Manual (BPM5) have been adjusted to the BPM6 definitions, provided that such adjustment was possible. When possible, the values missing in principal international sources are estimated by using growth rates derived from the data available in national or other international sources." https://unctadstat.unctad.org/EN/Index.html</t>
   </si>
   <si>
     <t>2005-2020</t>
@@ -1199,8 +1120,7 @@
     <t>Total exports of digital services, millions of USD</t>
   </si>
   <si>
-    <t>International trade in digitally-deliverable services, value, shares and growth From UNCTADStat: "UNCTAD calculations, based on UNCTAD - WTO common data set on international trade in services, compiled in cooperation with ITC and UNSD. Digitally-deliverable services are an aggregation of insurance and pension services, financial services, charges for the use of intellectual property, telecommunications, computer and information services, other business services and audiovisual and related services. The digitally-deliverable services series is based on the concept of potentially ICT-enabled services as developed by UNCTAD in a technical note in 2015 as well as in a report of the 47th United Nations Statistical Commission in 2016. The statistics presented correspond to the concepts and definitions of the IMF Balance of Payments and International Investment Position Manual, Sixth Edition (BPM6, 2009). Figures reported according to the fifth edition of the Manual (BPM5) have been adjusted to the BPM6 definitions, provided that such adjustment was possible. When possible, the values missing in principal international sources are estimated by using growth rates derived from the data available in national or other international sources."
-https://unctadstat.unctad.org/EN/Index.html</t>
+    <t>International trade in digitally-deliverable services, value, shares and growth From UNCTADStat: "UNCTAD calculations, based on UNCTAD - WTO common data set on international trade in services, compiled in cooperation with ITC and UNSD. Digitally-deliverable services are an aggregation of insurance and pension services, financial services, charges for the use of intellectual property, telecommunications, computer and information services, other business services and audiovisual and related services. The digitally-deliverable services series is based on the concept of potentially ICT-enabled services as developed by UNCTAD in a technical note in 2015 as well as in a report of the 47th United Nations Statistical Commission in 2016. The statistics presented correspond to the concepts and definitions of the IMF Balance of Payments and International Investment Position Manual, Sixth Edition (BPM6, 2009). Figures reported according to the fifth edition of the Manual (BPM5) have been adjusted to the BPM6 definitions, provided that such adjustment was possible. When possible, the values missing in principal international sources are estimated by using growth rates derived from the data available in national or other international sources." https://unctadstat.unctad.org/EN/Index.html</t>
   </si>
   <si>
     <t>ExpDigSrvPrp</t>
@@ -1215,8 +1135,7 @@
     <t>UNCTAD B2C E-commerce Index</t>
   </si>
   <si>
-    <t>B2C development is measured by the UNCTAD B2C E-commerce Index measuring an economy’s preparedness to support online-shopping. The index is composed of four indicators: • Account ownership at a financial institution or with a mobile-money-service provider (% of population ages 15+) • Individuals using the Internet (% of population) • Postal Reliability Index • Secure Internet servers (per 1 million people). Figures are obtained from the following reports 2016, 2017, and 2019 editions of the the report "Unctad B2C E-Commerce Index" and the 2015 Information Economy report.
-https://unctad.org/system/files/official-document/tn_unctad_ict4d09_en.pdf</t>
+    <t>B2C development is measured by the UNCTAD B2C E-commerce Index measuring an economy’s preparedness to support online-shopping. The index is composed of four indicators: • Account ownership at a financial institution or with a mobile-money-service provider (% of population ages 15+) • Individuals using the Internet (% of population) • Postal Reliability Index • Secure Internet servers (per 1 million people). Figures are obtained from the following reports 2016, 2017, and 2019 editions of the the report "Unctad B2C E-Commerce Index" and the 2015 Information Economy report. https://unctad.org/system/files/official-document/tn_unctad_ict4d09_en.pdf</t>
   </si>
   <si>
     <t>2015-2020</t>
@@ -1234,8 +1153,7 @@
     <t>Life expectancy at birth (years)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for life expectancies at birth are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for life expectancies at birth are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Years</t>
@@ -1247,8 +1165,7 @@
     <t>Male life expectancy at birth (years)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for male life expectancy at birth are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for male life expectancy at birth are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>LifeExpFem</t>
@@ -1257,8 +1174,7 @@
     <t>Female life expectancy at birth (years)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for female life expectancy at birth are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for female life expectancy at birth are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>TotFert</t>
@@ -1267,8 +1183,7 @@
     <t>Total fertility (live births per woman)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for total fertility are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for total fertility are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Births</t>
@@ -1280,8 +1195,7 @@
     <t>Infant mortality rate (infant deaths per 1,000 live births)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for infant mortality rates are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for infant mortality rates are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Per 1000</t>
@@ -1293,8 +1207,7 @@
     <t>Under-five mortality (deaths under age five per 1,000 live births)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for under-five mortality rates are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for under-five mortality rates are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>Mort40</t>
@@ -1303,8 +1216,7 @@
     <t>Probability of dying before age 40 (deaths under age 40 per 1,000 live births)</t>
   </si>
   <si>
-    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for probabilities of dying between birth and age of 40 years (represented as number of deaths before age 40 for every 1000 live births). These figures are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see:
-https://population.un.org/wpp/</t>
+    <t>United Nations Department of Economic and Social Affairs Population Division estimates. Annual figures for probabilities of dying between birth and age of 40 years (represented as number of deaths before age 40 for every 1000 live births). These figures are interpolations of World Population Prospects estimates produced on a five-year basis. Figures up to 2015 are estimates. Figures after 2015 are projections using the medium variant scenario. Annual figures are interpolations of World Population Prospects estimates produced on a five-year basis. For more information, see: https://population.un.org/wpp/</t>
   </si>
   <si>
     <t>GHI</t>
@@ -1328,8 +1240,7 @@
     <t>Cantril life ladder</t>
   </si>
   <si>
-    <t>From World Happiness Report. Calculated from the Dec 22, 2017 release of the Gallup World Poll (GWP), which covers the years from 2005 to 2017. Generally the national average response to the question of life evaluations. The English wording of the question is “Please imagine a ladder, with steps numbered from 0 at the bottom to 10 at the top. The top of the ladder represents the best possible life for you and the bottom of the ladder represents the worst possible life for you. On which step of the ladder would you say you personally feel you stand at this time?” This measure is also referred to as Cantril life ladder, or just life ladder. For more information, see:
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>From World Happiness Report. Calculated from the Dec 22, 2017 release of the Gallup World Poll (GWP), which covers the years from 2005 to 2017. Generally the national average response to the question of life evaluations. The English wording of the question is “Please imagine a ladder, with steps numbered from 0 at the bottom to 10 at the top. The top of the ladder represents the best possible life for you and the bottom of the ladder represents the worst possible life for you. On which step of the ladder would you say you personally feel you stand at this time?” This measure is also referred to as Cantril life ladder, or just life ladder. For more information, see: https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>World Happiness Report Online Dataset 2021</t>
@@ -1341,8 +1252,7 @@
     <t>Negative affect</t>
   </si>
   <si>
-    <t>From World Happiness Report. Negative affect is defined as the average of three negative affect measures in GWP. They are worry, sadness and anger, respectively the responses to “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Worry?”, “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Sadness?”, and “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Anger?” See For more information, see:
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>From World Happiness Report. Negative affect is defined as the average of three negative affect measures in GWP. They are worry, sadness and anger, respectively the responses to “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Worry?”, “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Sadness?”, and “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Anger?” See For more information, see: https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>PositiveAffect</t>
@@ -1351,8 +1261,7 @@
     <t>Positive affect</t>
   </si>
   <si>
-    <t>From World Happiness Report. Positive affect is defined as the average of three positive affect measures in GWP: happiness, laugh and enjoyment in the Gallup World Poll waves 3-7. These measures are the responses to the following three questions, respectively: “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Happiness?”, “Did you smile or laugh a lot yesterday?”, and “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Enjoyment?” Waves 3-7 cover years 2008 to 2012 and a small number of countries in 2013. For waves 1-2 and those from wave 8 on, positive affect is defined as the average of laugh and enjoyment only, due to the limited availability of happiness. For more information, see:
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>From World Happiness Report. Positive affect is defined as the average of three positive affect measures in GWP: happiness, laugh and enjoyment in the Gallup World Poll waves 3-7. These measures are the responses to the following three questions, respectively: “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Happiness?”, “Did you smile or laugh a lot yesterday?”, and “Did you experience the following feelings during A LOT OF THE DAY yesterday? How about Enjoyment?” Waves 3-7 cover years 2008 to 2012 and a small number of countries in 2013. For waves 1-2 and those from wave 8 on, positive affect is defined as the average of laugh and enjoyment only, due to the limited availability of happiness. For more information, see: https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>FreedomLife</t>
@@ -1361,15 +1270,13 @@
     <t>Freedom to make life choices</t>
   </si>
   <si>
-    <t>From World Happiness Report. Freedom to make life choices is the national average of responses to the GWP question “Are you satisfied or dissatisfied with your freedom to choose what you do with your life?”
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>From World Happiness Report. Freedom to make life choices is the national average of responses to the GWP question “Are you satisfied or dissatisfied with your freedom to choose what you do with your life?” https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>Generosity</t>
   </si>
   <si>
-    <t>From World Happiness Report. Social support (or having someone to count on in times of trouble) is the national average of the binary responses (either 0 or 1) to the GWP question “If you were in trouble, do you have relatives or friends you can count on to help you whenever you need them, or not?”
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>From World Happiness Report. Social support (or having someone to count on in times of trouble) is the national average of the binary responses (either 0 or 1) to the GWP question “If you were in trouble, do you have relatives or friends you can count on to help you whenever you need them, or not?” https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>SocialSupp</t>
@@ -1378,8 +1285,7 @@
     <t>Social support</t>
   </si>
   <si>
-    <t>From World Happiness Report. Generosity is the residual of regressing the national average of GWP responses to the question, “Have you donated money to a charity in the past month?” on GDP per capita.
-https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
+    <t>From World Happiness Report. Generosity is the residual of regressing the national average of GWP responses to the question, “Have you donated money to a charity in the past month?” on GDP per capita. https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
     <t>GrthDCmpNCP</t>
@@ -1391,8 +1297,7 @@
     <t>Consumption, private (% of GDP growth)</t>
   </si>
   <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in total private consumption divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage.
-https://www.imf.org/en/publications/weo</t>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in total private consumption divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>National currency</t>
@@ -1407,8 +1312,7 @@
     <t>Consumption, public (% of GDP growth)</t>
   </si>
   <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in total public consumption divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage.
-https://www.imf.org/en/publications/weo</t>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in total public consumption divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>GrthDCmpNFIP</t>
@@ -1417,8 +1321,7 @@
     <t>Gross fixed capital formation, private (% of GDP growth)</t>
   </si>
   <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in private gross fixed capital formation divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage.
-https://www.imf.org/en/publications/weo</t>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in private gross fixed capital formation divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>GrthDCmpNFIG</t>
@@ -1427,8 +1330,7 @@
     <t>Gross fixed capital formation, public (% of GDP growth)</t>
   </si>
   <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in public gross fixed capital formation divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage.
-https://www.imf.org/en/publications/weo</t>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in public gross fixed capital formation divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>GrthDCmpNX</t>
@@ -1437,8 +1339,7 @@
     <t>Exports of goods and services, current prices (% of GDP growth)</t>
   </si>
   <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in exports of goods and services divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage.
-https://www.imf.org/en/publications/weo</t>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in exports of goods and services divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>GrthDCmpNM</t>
@@ -1447,8 +1348,7 @@
     <t>Imports of goods and services, current prices (% of GDP growth)</t>
   </si>
   <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in imports of goods and services divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage.
-https://www.imf.org/en/publications/weo</t>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in imports of goods and services divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>GrthDCmpNFB</t>
@@ -1457,8 +1357,7 @@
     <t>Foreign balance, current prices (% of GDP growth)</t>
   </si>
   <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in balance of trade divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage.
-https://www.imf.org/en/publications/weo</t>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in balance of trade divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>GovRevPerGDP</t>
@@ -1470,8 +1369,7 @@
     <t>General government revenue as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Revenue is an increase in net worth resulting from a transaction. The major types of revenue are taxes, social contributions, grants, and other revenue." Figures up to 2020 are estimates. Figures from 2021 onwards are projections. For more information, see:
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Revenue is an increase in net worth resulting from a transaction. The major types of revenue are taxes, social contributions, grants, and other revenue." Figures up to 2020 are estimates. Figures from 2021 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>TaxPerGDP</t>
@@ -1480,8 +1378,7 @@
     <t>General government taxes as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Taxes are compulsory, unrequited amounts receivable by government units from institutional units. Taxes can be receivable in cash or in kind. By its nature, only a government unit can receive revenue in the form of taxes." Figures up to 2020 are estimates. Figures from 2021 onwards are projections. For more information, see:
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Taxes are compulsory, unrequited amounts receivable by government units from institutional units. Taxes can be receivable in cash or in kind. By its nature, only a government unit can receive revenue in the form of taxes." Figures up to 2020 are estimates. Figures from 2021 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>GrantsPerGDP</t>
@@ -1490,8 +1387,7 @@
     <t>General government revenue, grants as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Grants (13) are transfers receivable by government units from other resident or nonresident government units or international organizations, and that do not meet the defi nition of a tax, subsidy, or social contribution." Figures up to 2020 are estimates. Figures from 2021 onwards are projections. For more information, see:
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Grants (13) are transfers receivable by government units from other resident or nonresident government units or international organizations, and that do not meet the defi nition of a tax, subsidy, or social contribution." Figures up to 2020 are estimates. Figures from 2021 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>CommodityPerGDP</t>
@@ -1500,8 +1396,7 @@
     <t>General government commodity-related revenues as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2018 are estimates. Figures from 2019 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information:
-https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
+    <t>From the World Economic Outlook. Figures up to 2018 are estimates. Figures from 2019 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
   </si>
   <si>
     <t>1990-2024</t>
@@ -1516,8 +1411,7 @@
     <t>General government taxes on income, profits, and capital gains as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Grants (13) are transfers receivable by government units from other resident or nonresident government units or international organizations, and that do not meet the defi nition of a tax, subsidy, or social contribution." Figures up to 2018 are estimates. Figures from 2019 onwards are projections. For more information, see:
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. According to the IMF's Government Finance Statistics Manual 2014, "Grants (13) are transfers receivable by government units from other resident or nonresident government units or international organizations, and that do not meet the defi nition of a tax, subsidy, or social contribution." Figures up to 2018 are estimates. Figures from 2019 onwards are projections. For more information, see: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>TaxGdsSrvPerGDP</t>
@@ -1538,8 +1432,7 @@
     <t>General government expenditure as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information:
-https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
+    <t>From the World Economic Outlook. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
   </si>
   <si>
     <t>GrossDebtPerGDP</t>
@@ -1548,8 +1441,7 @@
     <t>General government gross debt as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information:
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. Figures up to 2020 are estimates. Figures from 2021 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>GrossDebtDPerGDP</t>
@@ -1558,8 +1450,7 @@
     <t>General government domestic currency gross debt as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Figures up to 2018 are estimates. Figures from 2019 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information:
-https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
+    <t>From the World Economic Outlook. Figures up to 2018 are estimates. Figures from 2019 onwards are projections. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/external/Pubs/FT/GFS/Manual/2014/gfsfinal.pdf</t>
   </si>
   <si>
     <t>GrossDebtFPerGDP</t>
@@ -1578,8 +1469,7 @@
   </si>
   <si>
     <t>Author's calculations based on data on international trade by commodity reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
-Total US dollar value of export goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "unprocessed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris:
-https://doi.org/10.1787/5jrs8sq91p9x-en</t>
+Total US dollar value of export goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "unprocessed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris: https://doi.org/10.1787/5jrs8sq91p9x-en</t>
   </si>
   <si>
     <t>Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated February 19, 2021)</t>
@@ -1592,8 +1482,7 @@
   </si>
   <si>
     <t>Author's calculations based on data on international trade by commodity reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
-Total US dollar value of export goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "semi-processed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris:
-https://doi.org/10.1787/5jrs8sq91p9x-en</t>
+Total US dollar value of export goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "semi-processed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris: https://doi.org/10.1787/5jrs8sq91p9x-en</t>
   </si>
   <si>
     <t>ExpFullyProc</t>
@@ -1603,8 +1492,7 @@
   </si>
   <si>
     <t>Author's calculations based on data on international trade by commodity reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
-Total US dollar value of export goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "fully processed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris:
-https://doi.org/10.1787/5jrs8sq91p9x-en</t>
+Total US dollar value of export goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "fully processed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris: https://doi.org/10.1787/5jrs8sq91p9x-en</t>
   </si>
   <si>
     <t>ExpAllProc</t>
@@ -1615,8 +1503,7 @@
   <si>
     <t>Author's calculations based on data on international trade reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-Total exports of processed and unprecessed goods in millions of US dollars.
-https://doi.org/10.1787/5jrs8sq91p9x-en</t>
+Total exports of processed and unprecessed goods in millions of US dollars. https://doi.org/10.1787/5jrs8sq91p9x-en</t>
   </si>
   <si>
     <t>ImpUnproc</t>
@@ -1625,8 +1512,7 @@
     <t>Total imports of unprocessed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Total US dollar value of import goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "unprocessed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris:
-https://doi.org/10.1787/5jrs8sq91p9x-en</t>
+    <t>Total US dollar value of import goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "unprocessed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris: https://doi.org/10.1787/5jrs8sq91p9x-en</t>
   </si>
   <si>
     <t>ImpSemiProc</t>
@@ -1635,8 +1521,7 @@
     <t>Total imports of semi-processed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Total US dollar value of import goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "semi-processed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris:
-https://doi.org/10.1787/5jrs8sq91p9x-en</t>
+    <t>Total US dollar value of import goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "semi-processed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris: https://doi.org/10.1787/5jrs8sq91p9x-en</t>
   </si>
   <si>
     <t>ImpFullyProc</t>
@@ -1645,8 +1530,7 @@
     <t>Total imports of fully processed goods (millions of USD)</t>
   </si>
   <si>
-    <t>Total US dollar value of export goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "fully processed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris:
-https://doi.org/10.1787/5jrs8sq91p9x-en</t>
+    <t>Total US dollar value of export goods that fall within categories within the international trade nomenclatures (HS or SITC) that can be mapped onto product categories classified as "fully processed" within the WTO Multilateral Trade Negotiations (MTN). Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. For more details, see Rieländer, J. and B. Traoré (2015), "Explaining Diversification in Exports Across Higher Manufacturing Content: What is the role of commodities?", OECD Development Centre Working Papers, No. 327, OECD Publishing, Paris: https://doi.org/10.1787/5jrs8sq91p9x-en</t>
   </si>
   <si>
     <t>ImpAllProc</t>
@@ -1657,8 +1541,7 @@
   <si>
     <t>Author's calculations based on data on international trade reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-Total imports of processed and unprecessed goods in millions of US dollars.
-https://doi.org/10.1787/5jrs8sq91p9x-en</t>
+Total imports of processed and unprecessed goods in millions of US dollars. https://doi.org/10.1787/5jrs8sq91p9x-en</t>
   </si>
   <si>
     <t>ExpProd1</t>
@@ -1672,8 +1555,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The category of products accounting for the largest share of a country's total exports is defined using the 4-digit HS1996 classification in COMTRADE. There are over 1200 product categories at the 4-digit level. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The category of products accounting for the largest share of a country's total exports is defined using the 4-digit HS1996 classification in COMTRADE. There are over 1200 product categories at the 4-digit level. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>Pooled data</t>
@@ -1690,8 +1572,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The category of products accounting for the largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The category of products accounting for the largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProd2</t>
@@ -1702,8 +1583,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The category of products accounting for the second largest share of a country's total exports is defined using the 4-digit HS1996 classification in COMTRADE. There are over 1200 product categories at the 4-digit level. Unclassified export goods are labelled "UN Special Code" in the COMTRADE dataset and are not considered in the determination of the most exported products for each country. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The category of products accounting for the second largest share of a country's total exports is defined using the 4-digit HS1996 classification in COMTRADE. There are over 1200 product categories at the 4-digit level. Unclassified export goods are labelled "UN Special Code" in the COMTRADE dataset and are not considered in the determination of the most exported products for each country. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProdPct2</t>
@@ -1714,8 +1594,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The category of products accounting for the second largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The category of products accounting for the second largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProd3</t>
@@ -1726,8 +1605,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The category of products accounting for the third largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The category of products accounting for the third largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProdPct3</t>
@@ -1738,8 +1616,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
- The category of products accounting for the third largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+ The category of products accounting for the third largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProd4</t>
@@ -1750,8 +1627,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The category of products accounting for the fourth largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The category of products accounting for the fourth largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProdPct4</t>
@@ -1768,8 +1644,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The category of products accounting for the fifth largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The category of products accounting for the fifth largest share of a country's total exports is defined using the 4-digit HS1996 classification. There are over 1200 product categories at the 4-digit level. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ExpProdPct5</t>
@@ -1786,8 +1661,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-Minimum number of 4-digit product categories in the HS1996 classification required to account for 75% of total exports. There are over 1200 product categories at the 4-digit level. Country exports are obtained by taking reported imports in partner countries. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+Minimum number of 4-digit product categories in the HS1996 classification required to account for 75% of total exports. There are over 1200 product categories at the 4-digit level. Country exports are obtained by taking reported imports in partner countries. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>NumPrdU90</t>
@@ -1798,8 +1672,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-Minimum number of 4-digit product categories in the HS1996 classification required to account for 90% of total exports. There are over 1200 product categories at the 4-digit level. Country exports are obtained by taking reported imports in partner countries. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+Minimum number of 4-digit product categories in the HS1996 classification required to account for 90% of total exports. There are over 1200 product categories at the 4-digit level. Country exports are obtained by taking reported imports in partner countries. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>TotExpPerGDP</t>
@@ -1811,8 +1684,7 @@
     <t>Value of total exports of goods and services as a % of GDP</t>
   </si>
   <si>
-    <t>From the World Economic Outlook. Total exports as a % of GDP. See the Statistical Appendix to the latest World Economic Outlook for more information:
-https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
+    <t>From the World Economic Outlook. Total exports as a % of GDP. See the Statistical Appendix to the latest World Economic Outlook for more information: https://www.imf.org/en/Publications/WEO/Issues/2019/10/01/world-economic-outlook-october-2019</t>
   </si>
   <si>
     <t>RECExpPct</t>
@@ -1826,8 +1698,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The share of total exports from a given country that go to other countries within its own Regional Economic Community (REC). The REC considered for these calculations include the 8 REC's recognised by the AUC: CEN-SAD (Community of Sahel-Saharan States), COMESA (Common Market for Eastern and Southern Africa), EAC (East African Community), ECCAS (Economic Community of Central African States), ECOWAS (Economic Community of West African States), IGAD (Intergovernmental Authority on Development), SADC (Southern African Development Community), and UMA = "Arab Maghreb Union. For comparison, for other countries in the world, the ASEAN (Association of Southeast Asian Nations), MERCOSUR (Mercado Común del Sur"), and European Union were used. For a complete listing of the countries belonging to each REC, please consult the table of country groupings provided with the AfDD Statistical Annex.
-https://comtrade.un.org/</t>
+The share of total exports from a given country that go to other countries within its own Regional Economic Community (REC). The REC considered for these calculations include the 8 REC's recognised by the AUC: CEN-SAD (Community of Sahel-Saharan States), COMESA (Common Market for Eastern and Southern Africa), EAC (East African Community), ECCAS (Economic Community of Central African States), ECOWAS (Economic Community of West African States), IGAD (Intergovernmental Authority on Development), SADC (Southern African Development Community), and UMA = "Arab Maghreb Union. For comparison, for other countries in the world, the ASEAN (Association of Southeast Asian Nations), MERCOSUR (Mercado Común del Sur"), and European Union were used. For a complete listing of the countries belonging to each REC, please consult the table of country groupings provided with the AfDD Statistical Annex. https://comtrade.un.org/</t>
   </si>
   <si>
     <t>AUCRegExpPct</t>
@@ -1838,8 +1709,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The share of total exports from a given country that go to other countries within the same region of Africa as defined by the African Union Commission.There are five regions of Africa defined by the Abuja Treaty establishing the African Union. To see which countries belong to these regions, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex.
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The share of total exports from a given country that go to other countries within the same region of Africa as defined by the African Union Commission.There are five regions of Africa defined by the Abuja Treaty establishing the African Union. To see which countries belong to these regions, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex. http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>ContExpPct</t>
@@ -1850,8 +1720,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The share of total exports from a given country that go to other countries within the same continent. To see which countries belong to each continent, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex.
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The share of total exports from a given country that go to other countries within the same continent. To see which countries belong to each continent, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex. http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>CHNExpPct</t>
@@ -1862,8 +1731,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The share of total exports from a given country that go to China. To see which countries belong to each continent, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex.
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The share of total exports from a given country that go to China. To see which countries belong to each continent, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex. http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>EUExpPct</t>
@@ -1874,8 +1742,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The share of total exports from a given country that go to the European Union (now excluding the United Kingdom). To see which countries belong to each continent, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex.
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The share of total exports from a given country that go to the European Union (now excluding the United Kingdom). To see which countries belong to each continent, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex. http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>USAExpPct</t>
@@ -1886,8 +1753,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The share of total exports from a given country that go to USA. To see which countries belong to each continent, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex.
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The share of total exports from a given country that go to USA. To see which countries belong to each continent, as well as other country groupings used in the calculation of statistics in the AfDD Statistical Annex, please consult the table of country groupings provided with the AfDD Statistical Annex. http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>IntraCont</t>
@@ -1898,8 +1764,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The total dollar value of trade belonging to product categories generally considered intermediate goods in millions of USD traded with countries in the same continent (Africa, Asia, Europe, North America/Central America/Caribbean, Oceania, and South America). Intermediate goods are identified by taking products within the Broad Economic Categories (BEC) 4, 21, 22, 31, 42, 53, 111, 121, and 322. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The total dollar value of trade belonging to product categories generally considered intermediate goods in millions of USD traded with countries in the same continent (Africa, Asia, Europe, North America/Central America/Caribbean, Oceania, and South America). Intermediate goods are identified by taking products within the Broad Economic Categories (BEC) 4, 21, 22, 31, 42, 53, 111, 121, and 322. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>US Dollars</t>
@@ -1913,8 +1778,7 @@
   <si>
     <t>Author's calculations based on data on international trade data reported by Centre d'études prospectives et d'informations internationales (CEPII) BACI (International Trade Database at the Product-Level).
 Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency. Data on trade for Eritrea and Ethiopia are grouped together and reported as Ethiopian imports and exports.
-The total dollar value of trade belonging to product categories generally considered intermediate goods in millions of USD traded the rest of the world. Intermediate goods are identified by taking products within the Broad Economic Categories (BEC) 4, 21, 22, 31, 42, 53, 111, 121, and 322. For more information, see:
-http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
+The total dollar value of trade belonging to product categories generally considered intermediate goods in millions of USD traded the rest of the world. Intermediate goods are identified by taking products within the Broad Economic Categories (BEC) 4, 21, 22, 31, 42, 53, 111, 121, and 322. For more information, see: http://www.cepii.fr/cepii/en/bdd_modele/presentation.asp?id=37</t>
   </si>
   <si>
     <t>PercIntra</t>
@@ -1932,8 +1796,7 @@
     <t>Portfolio investment inflows as a % of GDP</t>
   </si>
   <si>
-    <t>As reported by the World Economic Outlook. The IMF defines portfolio investments as follows: "Portfolio investment is defined as crossborder transactions and positions involving debt or equity securities, other than those included in direct investment or reserve assets... Portfolio investment covers, but is not limited to, securities traded on organized or other financial markets. Portfolio investment usually involves financial infrastructure, such as a suitable legal, regulatory, and settlement framework, along with market-making dealers, and a sufficient volume of buyers and sellers. However, acquisition of shares in hedge funds, private equity funds, and venture capital are examples of portfolio investment that occurs in less public and more lightly regulated markets. (However, shares in these funds are included in direct investment when the holdings reach the 10 percent threshold, and in other equity in other investment when investment is not in the form of a security and not included in direct investment or reserve assets.) Portfolio investment is distinctive because of the nature of the funds raised, the largely anonymous relationship between the issuers and holders, and the degree of trading liquidity in the instruments." See the IMF's Balance of Payments and International Investment Position Manual (BPM6) for more information:
-https://www.imf.org/external/pubs/ft/bop/2007/bopman6.htm</t>
+    <t>As reported by the World Economic Outlook. The IMF defines portfolio investments as follows: "Portfolio investment is defined as crossborder transactions and positions involving debt or equity securities, other than those included in direct investment or reserve assets... Portfolio investment covers, but is not limited to, securities traded on organized or other financial markets. Portfolio investment usually involves financial infrastructure, such as a suitable legal, regulatory, and settlement framework, along with market-making dealers, and a sufficient volume of buyers and sellers. However, acquisition of shares in hedge funds, private equity funds, and venture capital are examples of portfolio investment that occurs in less public and more lightly regulated markets. (However, shares in these funds are included in direct investment when the holdings reach the 10 percent threshold, and in other equity in other investment when investment is not in the form of a security and not included in direct investment or reserve assets.) Portfolio investment is distinctive because of the nature of the funds raised, the largely anonymous relationship between the issuers and holders, and the degree of trading liquidity in the instruments." See the IMF's Balance of Payments and International Investment Position Manual (BPM6) for more information: https://www.imf.org/external/pubs/ft/bop/2007/bopman6.htm</t>
   </si>
   <si>
     <t>ODAPGD</t>
@@ -1942,8 +1805,7 @@
     <t>Net Official Development Assistance (ODA) inflows as a % of GDP</t>
   </si>
   <si>
-    <t>Net ODA reported by the OECD Development Assessment Committtee, from all donors, in US dollars at current prices as a % of US dollar GDP according to the World Economic Outlook.
-https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
+    <t>Net ODA reported by the OECD Development Assessment Committtee, from all donors, in US dollars at current prices as a % of US dollar GDP according to the World Economic Outlook. https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
   </si>
   <si>
     <t>Official Development Assistance (ODA) reported by OECD Development Assistance Committee (retrieved 14/09/2021)</t>
@@ -1955,8 +1817,7 @@
     <t>Foreign Direct Investment (FDI) inflows as a % of GDP</t>
   </si>
   <si>
-    <t>Inward flows of foreign direct investment (FDI) in millions of dollars. These figures correspond to the definition of FDI are contained in the Balance of Payments Manual: Fifth Edition (BPM5) (Washington, D.C., International Monetary Fund, 1993) and the Detailed Benchmark Definition of Foreign Direct Investment: Third Edition (BD3) (Paris, Organisation for Economic Co-operation and Development, 1996). "FDI refers to an investment made to acquire lasting interest in enterprises operating outside of the economy of the investor. Further, in cases of FDI, the investor´s purpose is to gain an effective voice in the management of the enterprise. The foreign entity or group of associated entities that makes the investment is termed the 'direct investor'. The unincorporated or incorporated enterprise-a branch or subsidiary, respectively, in which direct investment is made-is referred to as a 'direct investment enterprise'. Some degree of equity ownership is almost always considered to be associated with an effective voice in the management of an enterprise; the BPM5 suggests a threshold of 10 per cent of equity ownership to qualify an investor as a foreign direct investor." For more information, see:
-https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
+    <t>Inward flows of foreign direct investment (FDI) in millions of dollars. These figures correspond to the definition of FDI are contained in the Balance of Payments Manual: Fifth Edition (BPM5) (Washington, D.C., International Monetary Fund, 1993) and the Detailed Benchmark Definition of Foreign Direct Investment: Third Edition (BD3) (Paris, Organisation for Economic Co-operation and Development, 1996). "FDI refers to an investment made to acquire lasting interest in enterprises operating outside of the economy of the investor. Further, in cases of FDI, the investor´s purpose is to gain an effective voice in the management of the enterprise. The foreign entity or group of associated entities that makes the investment is termed the 'direct investor'. The unincorporated or incorporated enterprise-a branch or subsidiary, respectively, in which direct investment is made-is referred to as a 'direct investment enterprise'. Some degree of equity ownership is almost always considered to be associated with an effective voice in the management of an enterprise; the BPM5 suggests a threshold of 10 per cent of equity ownership to qualify an investor as a foreign direct investor." For more information, see: https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx</t>
   </si>
   <si>
     <t>UNCTADStat Online Data Centre, FDI Online Database (retrieved 17/11/2021)</t>
@@ -1968,8 +1829,7 @@
     <t>Remittances inflows as a % of GDP</t>
   </si>
   <si>
-    <t>World Bank staff calculation based on data from IMF Balance of Payments Statistics database and data releases from central banks, national statistical agencies, and World Bank country desks. See Migration and Development Brief 28, Appendix A for details. All numbers are in current (nominal) US $. For a discussion of the definition of remittances, see Dilip Ratha, 2003, "Workers' Remittances: An Important and Stable Source of External Development Finance", Global Development Finance 2003, World Bank. Data since 2005 are based on IMF BOP Statistics that use the definitions of IMF BPM6. GDP data is from WDI. For latest data and analysis on migration and remittances, please visit:
-http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data</t>
+    <t>World Bank staff calculation based on data from IMF Balance of Payments Statistics database and data releases from central banks, national statistical agencies, and World Bank country desks. See Migration and Development Brief 28, Appendix A for details. All numbers are in current (nominal) US $. For a discussion of the definition of remittances, see Dilip Ratha, 2003, "Workers' Remittances: An Important and Stable Source of External Development Finance", Global Development Finance 2003, World Bank. Data since 2005 are based on IMF BOP Statistics that use the definitions of IMF BPM6. GDP data is from WDI. For latest data and analysis on migration and remittances, please visit: http://www.worldbank.org/en/topic/migrationremittancesdiasporaissues/brief/migration-remittances-data</t>
   </si>
   <si>
     <t>World Bank Migration and Remittances Data (May 2021)</t>
@@ -1981,8 +1841,7 @@
     <t>Total financial inflows as a % of GDP</t>
   </si>
   <si>
-    <t xml:space="preserve">Sum of portfolio investment inflows, net official development assistance inflows, foreign direct investment inflows, and remittance inflows as a % of GDP as calculated by the authors.
-</t>
+    <t xml:space="preserve">Sum of portfolio investment inflows, net official development assistance inflows, foreign direct investment inflows, and remittance inflows as a % of GDP as calculated by the authors. </t>
   </si>
   <si>
     <t>Author's calculations based on financial flows data from IMF, OECD Development Assistance Committee, UNCTAD, and the World Bank</t>
@@ -2006,8 +1865,7 @@
     <t>Net Official Development Assistance (ODA) inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Net ODA reported by the OECD Development Assessment Committtee, from all donors, in US dollars at current prices as a % of US dollar GDP according to the World Economic Outlook.
-https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
+    <t>Net ODA reported by the OECD Development Assessment Committtee, from all donors, in US dollars at current prices as a % of US dollar GDP according to the World Economic Outlook. https://stats-1.oecd.org/Index.aspx?DataSetCode=TABLE2A</t>
   </si>
   <si>
     <t>UNCTADFDI</t>
@@ -2016,8 +1874,7 @@
     <t>Foreign Direct Investment (FDI) inflows (millions of USD)</t>
   </si>
   <si>
-    <t>Inward flows of foreign direct investment (FDI) in millions of dollars. These figures correspond to the definition of FDI are contained in the Balance of Payments Manual: Fifth Edition (BPM5) (Washington, D.C., International Monetary Fund, 1993) and the Detailed Benchmark Definition of Foreign Direct Investment: Third Edition (BD3) (Paris, Organisation for Economic Co-operation and Development, 1996). "FDI refers to an investment made to acquire lasting interest in enterprises operating outside of the economy of the investor. Further, in cases of FDI, the investor´s purpose is to gain an effective voice in the management of the enterprise. The foreign entity or group of associated entities that makes the investment is termed the 'direct investor'. The unincorporated or incorporated enterprise-a branch or subsidiary, respectively, in which direct investment is made-is referred to as a 'direct investment enterprise'. Some degree of equity ownership is almost always considered to be associated with an effective voice in the management of an enterprise; the BPM5 suggests a threshold of 10 per cent of equity ownership to qualify an investor as a foreign direct investor." For more information, see:
-https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx&lt;br&gt;&lt;br&gt;</t>
+    <t>Inward flows of foreign direct investment (FDI) in millions of dollars. These figures correspond to the definition of FDI are contained in the Balance of Payments Manual: Fifth Edition (BPM5) (Washington, D.C., International Monetary Fund, 1993) and the Detailed Benchmark Definition of Foreign Direct Investment: Third Edition (BD3) (Paris, Organisation for Economic Co-operation and Development, 1996). "FDI refers to an investment made to acquire lasting interest in enterprises operating outside of the economy of the investor. Further, in cases of FDI, the investor´s purpose is to gain an effective voice in the management of the enterprise. The foreign entity or group of associated entities that makes the investment is termed the 'direct investor'. The unincorporated or incorporated enterprise-a branch or subsidiary, respectively, in which direct investment is made-is referred to as a 'direct investment enterprise'. Some degree of equity ownership is almost always considered to be associated with an effective voice in the management of an enterprise; the BPM5 suggests a threshold of 10 per cent of equity ownership to qualify an investor as a foreign direct investor." For more information, see: https://unctad.org/en/Pages/DIAE/Foreign-Direct-Investment-(FDI).aspx&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
     <t>Remit</t>
@@ -2047,8 +1904,7 @@
     <t>Country Area (thousands of ha)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see: http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
   </si>
   <si>
     <t>ha</t>
@@ -2063,8 +1919,7 @@
     <t>Agricultural land (thousands of ha)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): Agricultural land is defined as land used for cultivation of crops and animal husbandry. The total of areas under ''Cropland'' and ''Permanent meadows and pastures.'' "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): Agricultural land is defined as land used for cultivation of crops and animal husbandry. The total of areas under ''Cropland'' and ''Permanent meadows and pastures.'' "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see: http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
   </si>
   <si>
     <t>CropLand</t>
@@ -2073,8 +1928,7 @@
     <t>Cropland (thousands of ha)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): Cropland is defined as land used for cultivation of crops. The total of areas under ''Arable land'' and ''Permanent crops''. "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): Cropland is defined as land used for cultivation of crops. The total of areas under ''Arable land'' and ''Permanent crops''. "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see: http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
   </si>
   <si>
     <t>ForestLand</t>
@@ -2083,8 +1937,7 @@
     <t>Forest land (thousands of ha)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): Forest land is defined as land spanning more than 0.5 hectares with trees higher than 5 metres and a canopy cover of more than 10 per cent, or trees able to reach these thresholds in situ. Excludes land that is predominantly under agricultural or urban land use, and land that is predominantly used for maintenance and restoration of environmental function. "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): Forest land is defined as land spanning more than 0.5 hectares with trees higher than 5 metres and a canopy cover of more than 10 per cent, or trees able to reach these thresholds in situ. Excludes land that is predominantly under agricultural or urban land use, and land that is predominantly used for maintenance and restoration of environmental function. "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see: http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
   </si>
   <si>
     <t>InlndWtrs</t>
@@ -2093,8 +1946,7 @@
     <t>Inland waters (thousands of ha)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): Inland waters are defined as areas corresponding to natural or artificial water courses, serving to drain natural or artificial bodies of water, including lakes, reservoirs, rivers, brooks, streams, ponds, inland canals, dams, and other land-locked waters. The banks constitute limits whether the water is present or not. "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): Inland waters are defined as areas corresponding to natural or artificial water courses, serving to drain natural or artificial bodies of water, including lakes, reservoirs, rivers, brooks, streams, ponds, inland canals, dams, and other land-locked waters. The banks constitute limits whether the water is present or not. "Data are collected from FAO members through the annual FAO Questionnaire on Land Use, Irrigation and Agricultural Practices. Missing data may be sourced from national statistical yearbooks and other official government data portals. Supplemental information for further gap filling may be derived from national and international sectoral studies and reports, as well as from land cover statistical information compiled by FAO and disseminated in FAOSTAT." For more information, please see: http://fenixservices.fao.org/faostat/static/documents/RL/RL_EN.pdf</t>
   </si>
   <si>
     <t>AgricProd</t>
@@ -2103,8 +1955,7 @@
     <t>Agricultural Production (millions of USD)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for agricultural production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for agricultural production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>2000-2018</t>
@@ -2116,8 +1967,7 @@
     <t>Cereal Production (millions of USD)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for cereal production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for cereal production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>CropProd</t>
@@ -2126,8 +1976,7 @@
     <t>Crops Production (millions of USD)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for crop production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for crop production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>FoodProd</t>
@@ -2136,8 +1985,7 @@
     <t>Food Production (millions of USD)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for food production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for food production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>LivStkProd</t>
@@ -2146,8 +1994,7 @@
     <t>Livestock Production (millions of USD)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for livestock production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for livestock production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>NFoodProd</t>
@@ -2156,8 +2003,7 @@
     <t>Non Food Agricultural Production (millions of USD)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for non-food agricultural production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO): "Value of gross production has been compiled by multiplying gross production in physical terms by output prices at farm gate. Thus, value of production measures production in monetary terms at the farm gate level. Since intermediate uses within the agricultural sector (seed and feed) have not been subtracted from production data, this value of production aggregate refers to the notion of ""gross production""... The current value of production measures value in the prices relating to the period being measured. Thus, it represents the market value of food and agricultural products at the time they were produced." The figures for non-food agricultural production are aggregations produced by FAO of their estimates of the value of the production of commodities they report by country in current USD. There are 236 agricultural commodities (both plant and animal) reported by FAO classified according to the FAOSTAT commodity list (FCL) and the Harmonized System Codes (HS). For more information, please see: http://fenixservices.fao.org/faostat/static/documents/QV/QV_e.pdf</t>
   </si>
   <si>
     <t>FoodSupp</t>
@@ -2178,8 +2024,7 @@
     <t>Agricultural use of nutrient nitrogen (tonnes)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO). The main data source for production and agricultural use is the FAOSTAT Fertilizers questionnaire, complemented with national publications when available. Agricultural use of fertilizers refers to the use for crops, livestock, forestry, fisheries and aquaculture,excluding use for animal feed. Tonnes of nutrient nitrogen are calculated using conversion factors applied to volumes of nitrogenous fertilizers. For more information, please see:
-http://fenixservices.fao.org/faostat/static/documents/RFN/RFN_EN_README.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO). The main data source for production and agricultural use is the FAOSTAT Fertilizers questionnaire, complemented with national publications when available. Agricultural use of fertilizers refers to the use for crops, livestock, forestry, fisheries and aquaculture,excluding use for animal feed. Tonnes of nutrient nitrogen are calculated using conversion factors applied to volumes of nitrogenous fertilizers. For more information, please see: http://fenixservices.fao.org/faostat/static/documents/RFN/RFN_EN_README.pdf</t>
   </si>
   <si>
     <t>tonnes</t>
@@ -2200,8 +2045,7 @@
     <t>Carbon stock in living biomass (forests, millions of tonnes)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO). The carbon stock in living biomass (above ground and below ground) only refers to forest biomass. To learn about the methodology behind the calculation of carbon stock, please see:
-http://www.fao.org/3/ap862e/ap862e00.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO). The carbon stock in living biomass (above ground and below ground) only refers to forest biomass. To learn about the methodology behind the calculation of carbon stock, please see: http://www.fao.org/3/ap862e/ap862e00.pdf</t>
   </si>
   <si>
     <t>TotAgGHG</t>
@@ -2210,8 +2054,7 @@
     <t>Total GHG emissions from agriculture (CO2-equivalent gigagrams)</t>
   </si>
   <si>
-    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO). Agriculture Total contains all the emissions produced in the different agricultural emissions sub-domains (enteric fermentation, manure management, rice cultivation, synthetic fertilizers, manure applied to soils, manure left on pastures, crop residues, cultivation of organic soils, burning of crop residues, burning of savanna, energy use), providing a picture of the contribution to the total amount of GHG emissions from agriculture. GHG emissions from agriculture consist of non-CO2 gases, namely methane (CH4) and nitrous oxide (N2O), produced by crop and livestock production and management activities. To learn about the methodology behind the calculation of carbon stock, please see:
-http://fenixservices.fao.org/faostat/static/documents/GT/GT_e_2019.pdf</t>
+    <t>From the online data portal FAOSTAT maintained by the Statistics Division of the Food and Agriculture Organization of the United Nations (FAO). Agriculture Total contains all the emissions produced in the different agricultural emissions sub-domains (enteric fermentation, manure management, rice cultivation, synthetic fertilizers, manure applied to soils, manure left on pastures, crop residues, cultivation of organic soils, burning of crop residues, burning of savanna, energy use), providing a picture of the contribution to the total amount of GHG emissions from agriculture. GHG emissions from agriculture consist of non-CO2 gases, namely methane (CH4) and nitrous oxide (N2O), produced by crop and livestock production and management activities. To learn about the methodology behind the calculation of carbon stock, please see: http://fenixservices.fao.org/faostat/static/documents/GT/GT_e_2019.pdf</t>
   </si>
   <si>
     <t>gigagrams</t>
@@ -2230,8 +2073,7 @@
 This dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade”, written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data. Only the data that is based on input-output tables from the EORA26v199.82 are considered here.
 Gross exports is expressed in millions of US dollars and refers to the value of the goods and services produced for export. This is reported here since GVCs are often expressed as a percentage of gross exports.
 The value of gross exports can be decomposed into its domestic content (DC) and foreign content (FC). Domestic content is the proportion of the export value that originates domestically, and foreign content is the proportion that comes from the value of the imported intermediate goods that serve as inputs into the production of these exports. Both domestic content and foreign content includes domestic and foreign value added, respectively, but also double counting coming from production processes that entail multiple back-and-forth border crossings. Domestic value added also includes "reflection", which is the domestic value added that is exported, re-imported, and absorbed in the domestic economy. 
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>2000-2015</t>
@@ -2249,8 +2091,7 @@
     <t>From the GVC Database released along with the World Bank's World Development Report of 2020.
 This dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade”, written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data. Only the data that is based on input-output tables from the EORA26v199.82 are considered here.
 Total GVC exports refers to the total value in millions of US dollars of national production crossing more than one border. This includes both backward participation (foreign and domestic value in imported inputs that are re-exported) and forward participation (value of domestic production re-exported by the bilateral partners).
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb</t>
@@ -2262,8 +2103,7 @@
     <t>From the GVC Database released along with the World Bank's World Development Report of 2020.
 This dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade”, written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data. Only the GVC data that is based on input-output tables from the EORA26v199.82 are considered here.
 GVC backward participation refers to foreign and domestic value in imported inputs that are re-exported.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf</t>
@@ -2275,8 +2115,7 @@
     <t>From the GVC Database released along with the World Bank's World Development Report of 2020.
 This dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade”, written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data. Only the GVC data that is based on input-output tables in the EORA26v199.82 are considered here.
 GVC forward participation refers to the value of domestic productions that are re-exported by the bilateral partners.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb01</t>
@@ -2292,8 +2131,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Agriculture" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Agriculture sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb02</t>
@@ -2306,8 +2144,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Fishing" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Fishing sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb03</t>
@@ -2320,8 +2157,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Mining and Quarrying" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Mining and Quarrying sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb04</t>
@@ -2334,8 +2170,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Food &amp; Beverages" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Food &amp; Beverages sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb05</t>
@@ -2348,8 +2183,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Textiles and Wearing Apparel" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Textiles and Wearing Apparel sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb06</t>
@@ -2362,8 +2196,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Wood and Paper" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Wood and Paper sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb07</t>
@@ -2376,8 +2209,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Petroleum, Chemical and Non-Metallic Mineral Products" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Petroleum, Chemical and Non-Metallic Mineral Products sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb08</t>
@@ -2390,8 +2222,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Metal Products" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Metal Products sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb09</t>
@@ -2404,8 +2235,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Electrical and Machinery" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Electrical and Machinery sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb10</t>
@@ -2418,8 +2248,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Transport Equipment" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Transport Equipment sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb11</t>
@@ -2432,8 +2261,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Other Manufacturing" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Other Manufacturing sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb12</t>
@@ -2446,8 +2274,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Recycling" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Recycling sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb13</t>
@@ -2460,8 +2287,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Electricity, Gas and Water" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Electricity, Gas and Water sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb14</t>
@@ -2474,8 +2300,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Construction" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Construction sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb15</t>
@@ -2488,8 +2313,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Maintenance and Repair" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Maintenance and Repair sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb16</t>
@@ -2502,8 +2326,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Wholesale Trade" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Wholesale Trade sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb17</t>
@@ -2516,8 +2339,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Retail Trade" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Retail Trade sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb18</t>
@@ -2530,8 +2352,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Hotels and Restaurants" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Hotels and Restaurants sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb19</t>
@@ -2544,8 +2365,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Transport" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Transport sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb20</t>
@@ -2558,8 +2378,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Post and Telecommunications" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Post and Telecommunications sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb21</t>
@@ -2572,8 +2391,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Financial Intermediation and Business Activities" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Financial Intermediation and Business Activities sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb22</t>
@@ -2586,8 +2404,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Public Administration" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Public Administration sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb23</t>
@@ -2600,8 +2417,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Education, Health and Other Services" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Education, Health and Other Services sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb24</t>
@@ -2614,8 +2430,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Private Households" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Private Households sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb25</t>
@@ -2628,8 +2443,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Others" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Others sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcb26</t>
@@ -2645,8 +2459,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC backward participation in the sector "Re-export &amp; Re-import" refers to the value of foreign and domestic inputs imported into the sector that are re-exported. The Re-export &amp; Re-import sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf01</t>
@@ -2659,8 +2472,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Agriculture" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Agriculture sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf02</t>
@@ -2673,8 +2485,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Fishing" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Fishing sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf03</t>
@@ -2687,8 +2498,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Mining and Quarrying" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Mining and Quarrying sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf04</t>
@@ -2701,8 +2511,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Food &amp; Beverages" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Food &amp; Beverages sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf05</t>
@@ -2715,8 +2524,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Textiles and Wearing Apparel" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Textiles and Wearing Apparel sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf06</t>
@@ -2729,8 +2537,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Wood and Paper" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Wood and Paper sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf07</t>
@@ -2743,8 +2550,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Petroleum, Chemical and Non-Metallic Mineral Products" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Petroleum, Chemical and Non-Metallic Mineral Products sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf08</t>
@@ -2757,8 +2563,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Metal Products" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Metal Products sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf09</t>
@@ -2771,8 +2576,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Electrical and Machinery" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Electrical and Machinery sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf10</t>
@@ -2785,8 +2589,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Transport Equipment" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Transport Equipment sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf11</t>
@@ -2799,8 +2602,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Other Manufacturing" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Other Manufacturing sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf12</t>
@@ -2813,8 +2615,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Recycling" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Recycling sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf13</t>
@@ -2827,8 +2628,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Electricity, Gas and Water" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Electricity, Gas and Water sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf14</t>
@@ -2841,8 +2641,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Construction" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Construction sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf15</t>
@@ -2855,8 +2654,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Maintenance and Repair" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Maintenance and Repair sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf16</t>
@@ -2869,8 +2667,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Wholesale Trade" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Wholesale Trade sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf17</t>
@@ -2883,8 +2680,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Retail Trade" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Retail Trade sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf18</t>
@@ -2897,8 +2693,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Hotels and Restaurants" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Hotels and Restaurants sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf19</t>
@@ -2911,8 +2706,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Transport" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Transport sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf20</t>
@@ -2925,8 +2719,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Post and Telecommunications" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Post and Telecommunications sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf21</t>
@@ -2939,8 +2732,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Financial Intermediation and Business Activities" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Financial Intermediation and Business Activities sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf22</t>
@@ -2953,8 +2745,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Public Administration" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Public Administration sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf23</t>
@@ -2967,8 +2758,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Education, Health and Other Services" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Education, Health and Other Services sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf24</t>
@@ -2981,8 +2771,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Private Households" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Private Households sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf25</t>
@@ -2995,8 +2784,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Others" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Others sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>gvcf26</t>
@@ -3009,8 +2797,7 @@
 This GVC dataset contains value-added and global value chains measures based on Inter-Country Input-output (ICIO) tables. The background paper to the World Bank Report, "Measuring What Matters in Global Value Chains and Value-Added Trade", written by A. Borin, and M. Mancini in 2019, outlines the methodology used to generate this data.
 GVC forward participation in the sector "Re-export &amp; Re-import" refers to the value of domestic production within the sector that is re-exported by bilateral partners. The Re-export &amp; Re-import sector used here is taken from the 26 sectors within the input-output tables from the Eora v99.
 GVCs are often expressed as a percentage of gross exports.
-For more information, please see:
-https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
+For more information, please see: https://www.worldbank.org/en/publication/wdr2020/brief/world-development-report-2020-data</t>
   </si>
   <si>
     <t>VASameCtry</t>
@@ -3024,7 +2811,7 @@
   <si>
     <t>Total value-added of national exports originating domestically in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>1990-2019</t>
@@ -3041,7 +2828,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the imported inputs used in the production of these goods and services, in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVABordCtry</t>
@@ -3052,7 +2839,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the inputs used in the production of these goods and services that were imported from countries sharing a land border, in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVASameAUCReg</t>
@@ -3063,7 +2850,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the inputs used in the production of these goods and services that were imported from countries within the same African region as defined by the Abuja Treaty in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVASameCont</t>
@@ -3074,7 +2861,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the inputs used in the production of these goods and services that were imported from countries within the same continent, in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVAExtraCont</t>
@@ -3085,7 +2872,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the inputs used in the production of these goods and services that were imported from countries that were in a different continent, in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVA</t>
@@ -3096,7 +2883,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of other countries' exports of goods and services in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVABordCtry</t>
@@ -3107,7 +2894,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of the exports of goods and services of countries sharing a land border, in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVASameAUCReg</t>
@@ -3118,7 +2905,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of the exports of goods and services of countries within the same African region as defined by the Abuja Treaty in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVASameCont</t>
@@ -3129,7 +2916,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of the exports of goods and services of countries within the same continent in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVAExtraCont</t>
@@ -3140,7 +2927,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of the exports of goods and services of countries in a different continent in millions of USD.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>VASameCtryPGD</t>
@@ -3151,7 +2938,7 @@
   <si>
     <t>Total value-added of national exports originating domestically as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVAPGD</t>
@@ -3162,7 +2949,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the imported inputs used in the production of these goods and services, as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVABordCtryPGD</t>
@@ -3173,7 +2960,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the inputs used in the production of these goods and services that were imported from countries sharing a land border, as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVASameAUCRegPGD</t>
@@ -3184,7 +2971,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the inputs used in the production of these goods and services that were imported from countries within the same African region as defined by the Abuja Treaty as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVASameContPGD</t>
@@ -3195,7 +2982,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the inputs used in the production of these goods and services that were imported from countries within the same continent, as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>BkwdVAExtraContPGD</t>
@@ -3206,7 +2993,7 @@
   <si>
     <t>The component of the total value of exported goods and services that can be attributed to the inputs used in the production of these goods and services that were imported from countries that were in a different continent, as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVAPGD</t>
@@ -3217,7 +3004,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of other countries' exports of goods and services as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVABordCtryPGD</t>
@@ -3228,7 +3015,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of the exports of goods and services of countries sharing a land border, as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVASameAUCRegPGD</t>
@@ -3239,7 +3026,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of the exports of goods and services of countries within the same African region as defined by the Abuja Treaty as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVASameContPGD</t>
@@ -3250,7 +3037,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of the exports of goods and services of countries within the same continent as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>FrwdVAExtraContPGD</t>
@@ -3261,7 +3048,7 @@
   <si>
     <t>The contribution of nationally-produced goods and services to the total value of the exports of goods and services of countries in a different continent as a percentage of GDP.
 Calculated from a country-by-country matrix of countries originating added value crossed with the countries exporting that added value that was calculated for each given year from data in the UNCTAD-Eora Global Value Chain Database. The database produces global coverage of value added generated from the Eora Multi-Region Input-Output tables (MRIOs). The methodology is based on the 2019 paper "Improving the analysis of global value chains: the UNCTAD-Eora Database" by Casella, B., R. Bolwign, D. Moran and K. Kanemoto published in Transnational Corporations 26(3). The data are provided under a Creative Commons Attribution-ShareAlike 4.0 International License (see https://creativecommons.org/licenses/by-sa/4.0/).
-https://worldmrio.com/unctadgvc/</t>
+ https://worldmrio.com/unctadgvc/</t>
   </si>
   <si>
     <t>TrdCstDBord</t>
@@ -3275,8 +3062,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in manufactured goods between the given country, or set of countries, and all the countries with which this or these countries share a land border. These are based on estimates of bilateral trade costs for manufactured goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading manufactured goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade with bordering countries is obtained by taking the average of these trade costs reported for countries sharing a land border weighted by the volume of trade reported with these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>Trade volume</t>
@@ -3293,8 +3079,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in manufactured goods between the given country, or set of countries, and all the countries within the same African region, as defined by the Abuja Treaty. These are based on estimates of bilateral trade costs for manufactured goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading manufactured goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade with countries within the same AU region is obtained by taking the average of these trade costs reported for countries that are within the same AU region weighted by the volume of trade reported with these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstDCont</t>
@@ -3305,8 +3090,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in manufactured goods between the given country, or set of countries, and all the countries within the same continent. These are based on estimates of bilateral trade costs for manufactured goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset. 
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading manufactured goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade with countries within the same continent is obtained by taking the average of these trade costs reported for countries that are within the same continent (North America, South America, Africa, Europe, Asia, or Oceania) weighted by the volume of trade reported with these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstDWLD</t>
@@ -3317,8 +3101,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in manufactured goods between the given country, or set of countries, and all other countries in the world. These are based on estimates of bilateral trade costs for manufactured goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading manufactured goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade is obtained by taking the average of these trade costs reported for all trade partners weighted by the volume of trade reported for these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstDInternal</t>
@@ -3329,8 +3112,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in manufactured goods between countries within a given country group. These are based on estimates of bilateral trade costs for manufactured goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset. 
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading manufactured goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade is obtained by taking the average of these trade costs reported for all trade partners within the same group of countries by the volume of trade reported for these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstDExternal</t>
@@ -3341,8 +3123,7 @@
   <si>
     <t>For a given country grouping, the author's calculations of the average estimated cost of trade in manufactured goods between any two countries in the world, where one country is within the country grouping, and one is external to the country grouping. These are based on estimates of bilateral trade costs for manufactured goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading manufactured goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade is obtained by taking the average of these trade costs reported for all trade partners that are not within the given group of countries by the volume of trade reported for these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABBord</t>
@@ -3353,8 +3134,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in primary goods between the given country, or set of countries, and all the countries with which this or these countries share a land border. These are based on estimates of bilateral trade costs for primary goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading primary goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade with bordering countries is obtained by taking the average of these trade costs reported for countries sharing a land border weighted by the volume of trade reported with these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABAUCReg</t>
@@ -3365,8 +3145,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in primary goods between the given country, or set of countries, and all the countries within the same African region, as defined by the Abuja Treaty. These are based on estimates of bilateral trade costs for primary goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading primary goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade with countries within the same AU region is obtained by taking the average of these trade costs reported for countries that are within the same AU region weighted by the volume of trade reported with these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABCont</t>
@@ -3377,8 +3156,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in primary goods between the given country, or set of countries, and all the countries within the same continent. These are based on estimates of bilateral trade costs for primary goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading primary goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade with countries within the same continent is obtained by taking the average of these trade costs reported for countries that are within the same continent (North America, South America, Africa, Europe, Asia, or Oceania) weighted by the volume of trade reported with these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABWLD</t>
@@ -3389,8 +3167,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in primary goods between the given country, or set of countries, and all other countries in the world. These are based on estimates of bilateral trade costs for primary goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading primary goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade is obtained by taking the average of these trade costs reported for all trade partners weighted by the volume of trade reported for these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABInternal</t>
@@ -3401,8 +3178,7 @@
   <si>
     <t>Author's calculations of the average estimated cost of trade in primary goods between countries within a given country group. These are based on estimates of bilateral trade costs for primary goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading primary goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade is obtained by taking the average of these trade costs reported for all trade partners within the same group of countries by the volume of trade reported for these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>TrdCstABExternal</t>
@@ -3413,8 +3189,7 @@
   <si>
     <t>For a given country grouping, the author's calculations of the average estimated cost of trade in primary goods between any two countries in the world, where one country is within the country grouping, and one is external to the country grouping. These are based on estimates of bilateral trade costs for primary goods from the ESCAP-World Bank Trade Cost Database which are then aggregated using averages weighted by the total bilateral trade flows reported in the CEPII BACI dataset.
 The bilateral trade costs are defined in the ESCAP-World Bank database as consisting of the entire cost of trading primary goods between two countries relative to the cost of trading the same goods domestically. These are inferred from a gravity model applied to trade and GDP data that assumes trade costs for any country are the same for both imports and exports. The average cost of trade is obtained by taking the average of these trade costs reported for all trade partners that are not within the given group of countries by the volume of trade reported for these same countries. Where bilateral costs of trade were not reported for a pair of countries within a given year, figures reported within the previous or subsequent 4 years were used to interpolate the missing values. If, after interpolation, missing trade costs still represented over 50% of total reported trade volumes, aggregate values were not reported.
-For more information, please see:
-https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
+For more information, please see: https://www.unescap.org/resources/escap-world-bank-trade-cost-database</t>
   </si>
   <si>
     <t>ISO9001</t>
@@ -3427,8 +3202,7 @@
   </si>
   <si>
     <t>From a survey conducted of the number of valid certificates recorded by ISO management system standards worldwide. This is the number of valid certifications under the ISO 9001 quality management systems standard reported by certification bodies accredited by the members of the International Accreditation Forum.
-For more information, please see:
-https://www.iso.org/the-iso-survey.html</t>
+For more information, please see: https://www.iso.org/the-iso-survey.html</t>
   </si>
   <si>
     <t>Certificates</t>
@@ -3444,8 +3218,7 @@
   </si>
   <si>
     <t>From a survey conducted of the number of valid certificates recorded by ISO management system standards worldwide. This is the number of valid certifications under the ISO 14001 environmental management systems standard reported by certification bodies accredited by the members of the International Accreditation Forum.
-For more information, please see:
-https://www.iso.org/the-iso-survey.html</t>
+For more information, please see: https://www.iso.org/the-iso-survey.html</t>
   </si>
   <si>
     <t>ISO50001</t>
@@ -3455,8 +3228,7 @@
   </si>
   <si>
     <t>From a survey conducted of the number of valid certificates recorded by ISO management system standards worldwide. This is the number of valid certifications under the ISO 50001 energy management systems standard reported by certification bodies accredited by the members of the International Accreditation Forum.
-For more information, please see:
-https://www.iso.org/the-iso-survey.html</t>
+For more information, please see: https://www.iso.org/the-iso-survey.html</t>
   </si>
   <si>
     <t>2011-2020</t>
@@ -4593,7 +4365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="s">
         <v>19</v>
@@ -4647,7 +4419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A5" s="14"/>
       <c r="B5" s="20" t="s">
         <v>29</v>
@@ -4701,7 +4473,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="20" t="s">
         <v>36</v>
@@ -4755,7 +4527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="20" t="s">
         <v>40</v>
@@ -4863,7 +4635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14"/>
       <c r="B9" s="20" t="s">
         <v>51</v>
@@ -4917,7 +4689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="20" t="s">
         <v>57</v>
@@ -4971,7 +4743,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
       <c r="B11" s="20" t="s">
         <v>65</v>
@@ -5079,7 +4851,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="20" t="s">
         <v>73</v>
@@ -5133,7 +4905,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="20" t="s">
         <v>77</v>
@@ -5187,7 +4959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="20" t="s">
         <v>81</v>
@@ -5295,7 +5067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="20" t="s">
         <v>92</v>
@@ -5403,7 +5175,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="14"/>
       <c r="B19" s="20" t="s">
         <v>99</v>
@@ -5457,7 +5229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="20" t="s">
         <v>103</v>
@@ -5511,7 +5283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="14"/>
       <c r="B21" s="20" t="s">
         <v>106</v>
@@ -5727,7 +5499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="20" t="s">
         <v>121</v>
@@ -5781,7 +5553,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="20" t="s">
         <v>126</v>
@@ -5835,7 +5607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="20" t="s">
         <v>129</v>
@@ -5889,7 +5661,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="20" t="s">
         <v>132</v>
@@ -5943,7 +5715,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A29" s="14"/>
       <c r="B29" s="20" t="s">
         <v>135</v>
@@ -5997,7 +5769,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A30" s="14"/>
       <c r="B30" s="20" t="s">
         <v>138</v>
@@ -6051,7 +5823,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A31" s="14"/>
       <c r="B31" s="20" t="s">
         <v>141</v>
@@ -6105,7 +5877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A32" s="14"/>
       <c r="B32" s="20" t="s">
         <v>144</v>
@@ -6159,7 +5931,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
       <c r="B33" s="20" t="s">
         <v>147</v>
@@ -6267,7 +6039,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14"/>
       <c r="B35" s="20" t="s">
         <v>158</v>
@@ -6321,7 +6093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A36" s="14"/>
       <c r="B36" s="20" t="s">
         <v>161</v>
@@ -6429,7 +6201,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A38" s="14"/>
       <c r="B38" s="20" t="s">
         <v>167</v>
@@ -6483,7 +6255,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A39" s="14"/>
       <c r="B39" s="20" t="s">
         <v>170</v>
@@ -6591,7 +6363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A41" s="14"/>
       <c r="B41" s="20" t="s">
         <v>177</v>
@@ -6645,7 +6417,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="20" t="s">
         <v>180</v>
@@ -6753,7 +6525,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A44" s="14"/>
       <c r="B44" s="20" t="s">
         <v>186</v>
@@ -6969,7 +6741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="19" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" s="19" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="20" t="s">
         <v>197</v>
@@ -7023,7 +6795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="19" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" s="19" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
       <c r="B49" s="20" t="s">
         <v>200</v>
@@ -7077,7 +6849,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="19" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" s="19" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
       <c r="B50" s="20" t="s">
         <v>202</v>
@@ -7131,7 +6903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="19" customFormat="1" ht="147" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" s="19" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A51" s="14"/>
       <c r="B51" s="20" t="s">
         <v>204</v>
@@ -7185,7 +6957,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A52" s="14"/>
       <c r="B52" s="20" t="s">
         <v>206</v>
@@ -7239,7 +7011,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A53" s="14"/>
       <c r="B53" s="20" t="s">
         <v>210</v>
@@ -7455,7 +7227,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="14"/>
       <c r="B57" s="20" t="s">
         <v>224</v>
@@ -7509,7 +7281,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A58" s="14"/>
       <c r="B58" s="20" t="s">
         <v>227</v>
@@ -7725,7 +7497,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A62" s="14"/>
       <c r="B62" s="20" t="s">
         <v>238</v>
@@ -7941,7 +7713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A66" s="14"/>
       <c r="B66" s="20" t="s">
         <v>250</v>
@@ -7995,7 +7767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14"/>
       <c r="B67" s="20" t="s">
         <v>254</v>
@@ -8049,7 +7821,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A68" s="14"/>
       <c r="B68" s="20" t="s">
         <v>257</v>
@@ -8265,7 +8037,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
       <c r="B72" s="20" t="s">
         <v>269</v>
@@ -8427,7 +8199,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="20" t="s">
         <v>278</v>
@@ -8481,7 +8253,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="20" t="s">
         <v>281</v>
@@ -8589,7 +8361,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="20" t="s">
         <v>288</v>
@@ -8643,7 +8415,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="20" t="s">
         <v>293</v>
@@ -8697,7 +8469,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A80" s="14"/>
       <c r="B80" s="20" t="s">
         <v>296</v>
@@ -8751,7 +8523,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="20" t="s">
         <v>299</v>
@@ -8805,7 +8577,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="20" t="s">
         <v>302</v>
@@ -9183,7 +8955,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="14"/>
       <c r="B89" s="20" t="s">
         <v>323</v>
@@ -9237,7 +9009,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A90" s="14"/>
       <c r="B90" s="20" t="s">
         <v>328</v>
@@ -9723,7 +9495,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="99" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A99" s="14"/>
       <c r="B99" s="20" t="s">
         <v>355</v>
@@ -9777,7 +9549,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="100" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A100" s="14"/>
       <c r="B100" s="20" t="s">
         <v>360</v>
@@ -9939,7 +9711,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="103" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A103" s="14"/>
       <c r="B103" s="20" t="s">
         <v>367</v>
@@ -9993,7 +9765,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="104" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A104" s="14"/>
       <c r="B104" s="20" t="s">
         <v>372</v>
@@ -10047,7 +9819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A105" s="14"/>
       <c r="B105" s="20" t="s">
         <v>377</v>
@@ -10101,7 +9873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A106" s="14"/>
       <c r="B106" s="20" t="s">
         <v>380</v>
@@ -10155,7 +9927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A107" s="14"/>
       <c r="B107" s="20" t="s">
         <v>383</v>
@@ -10209,7 +9981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A108" s="14"/>
       <c r="B108" s="20" t="s">
         <v>387</v>
@@ -10263,7 +10035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A109" s="14"/>
       <c r="B109" s="20" t="s">
         <v>391</v>
@@ -10317,7 +10089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A110" s="14"/>
       <c r="B110" s="20" t="s">
         <v>394</v>
@@ -10371,7 +10143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A111" s="14"/>
       <c r="B111" s="20" t="s">
         <v>397</v>
@@ -10641,7 +10413,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="116" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A116" s="14"/>
       <c r="B116" s="20" t="s">
         <v>415</v>
@@ -11181,7 +10953,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A126" s="14"/>
       <c r="B126" s="20" t="s">
         <v>448</v>
@@ -11559,7 +11331,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A133" s="14"/>
       <c r="B133" s="20" t="s">
         <v>469</v>
@@ -11613,7 +11385,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A134" s="14"/>
       <c r="B134" s="20" t="s">
         <v>472</v>
@@ -11667,7 +11439,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="135" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
       <c r="B135" s="20" t="s">
         <v>475</v>
@@ -11721,7 +11493,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="136" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
       <c r="B136" s="20" t="s">
         <v>477</v>
@@ -11775,7 +11547,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="137" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A137" s="14"/>
       <c r="B137" s="20" t="s">
         <v>482</v>
@@ -11829,7 +11601,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="138" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
       <c r="B138" s="20" t="s">
         <v>485</v>
@@ -11883,7 +11655,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="139" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A139" s="14"/>
       <c r="B139" s="20" t="s">
         <v>488</v>
@@ -11937,7 +11709,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="140" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A140" s="14"/>
       <c r="B140" s="20" t="s">
         <v>491</v>
@@ -11991,7 +11763,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="141" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A141" s="14"/>
       <c r="B141" s="20" t="s">
         <v>494</v>
@@ -12045,7 +11817,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="142" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A142" s="14"/>
       <c r="B142" s="20" t="s">
         <v>497</v>
@@ -12099,7 +11871,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="143" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
       <c r="B143" s="20" t="s">
         <v>500</v>
@@ -12207,7 +11979,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="145" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
       <c r="B145" s="20" t="s">
         <v>509</v>
@@ -12801,7 +12573,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="156" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
       <c r="B156" s="20" t="s">
         <v>540</v>
@@ -12855,7 +12627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:18" s="19" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:18" s="19" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
       <c r="B157" s="20" t="s">
         <v>544</v>
@@ -12909,7 +12681,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="158" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
       <c r="B158" s="20" t="s">
         <v>548</v>
@@ -12963,7 +12735,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="159" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A159" s="14"/>
       <c r="B159" s="20" t="s">
         <v>551</v>
@@ -13017,7 +12789,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="160" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A160" s="14"/>
       <c r="B160" s="20" t="s">
         <v>554</v>
@@ -13071,7 +12843,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="161" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A161" s="14"/>
       <c r="B161" s="20" t="s">
         <v>557</v>
@@ -13125,7 +12897,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="162" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
       <c r="B162" s="20" t="s">
         <v>560</v>
@@ -13233,7 +13005,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="164" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A164" s="14"/>
       <c r="B164" s="20" t="s">
         <v>567</v>
@@ -13287,7 +13059,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="165" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
       <c r="B165" s="20" t="s">
         <v>570</v>
@@ -13341,7 +13113,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="166" spans="1:18" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
       <c r="B166" s="20" t="s">
         <v>572</v>
@@ -13395,7 +13167,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="167" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
       <c r="B167" s="20" t="s">
         <v>576</v>
@@ -13611,7 +13383,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="171" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
       <c r="B171" s="20" t="s">
         <v>592</v>
@@ -13665,7 +13437,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="172" spans="1:18" s="19" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
       <c r="B172" s="20" t="s">
         <v>594</v>
@@ -13719,7 +13491,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="173" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
       <c r="B173" s="20" t="s">
         <v>596</v>
@@ -13935,7 +13707,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="177" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
       <c r="B177" s="20" t="s">
         <v>606</v>
@@ -13989,7 +13761,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="178" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
       <c r="B178" s="20" t="s">
         <v>608</v>
@@ -14097,7 +13869,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="180" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
       <c r="B180" s="20" t="s">
         <v>617</v>
@@ -14259,7 +14031,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="183" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="20" t="s">
         <v>626</v>
@@ -14313,7 +14085,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="184" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A184" s="14"/>
       <c r="B184" s="20" t="s">
         <v>630</v>
@@ -14367,7 +14139,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="185" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A185" s="14"/>
       <c r="B185" s="20" t="s">
         <v>633</v>
@@ -14421,7 +14193,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="186" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A186" s="14"/>
       <c r="B186" s="20" t="s">
         <v>636</v>
@@ -14475,7 +14247,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="187" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A187" s="14"/>
       <c r="B187" s="20" t="s">
         <v>639</v>
@@ -14529,7 +14301,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="188" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A188" s="14"/>
       <c r="B188" s="20" t="s">
         <v>642</v>
@@ -14583,7 +14355,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="189" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="20" t="s">
         <v>645</v>
@@ -14637,7 +14409,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
       <c r="B190" s="20" t="s">
         <v>649</v>
@@ -14691,7 +14463,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="63" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
       <c r="B191" s="20" t="s">
         <v>653</v>
@@ -14745,7 +14517,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="42" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="20" t="s">
         <v>656</v>
@@ -14853,7 +14625,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="147" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
       <c r="B194" s="20" t="s">
         <v>663</v>
@@ -14907,7 +14679,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
       <c r="B195" s="20" t="s">
         <v>669</v>
@@ -14961,7 +14733,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A196" s="14"/>
       <c r="B196" s="20" t="s">
         <v>672</v>
@@ -15015,7 +14787,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="20" t="s">
         <v>675</v>
@@ -15069,7 +14841,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="20" t="s">
         <v>678</v>
@@ -15123,7 +14895,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
       <c r="B199" s="20" t="s">
         <v>682</v>
@@ -15177,7 +14949,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
       <c r="B200" s="20" t="s">
         <v>685</v>
@@ -15231,7 +15003,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
       <c r="B201" s="20" t="s">
         <v>688</v>
@@ -15285,7 +15057,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A202" s="14"/>
       <c r="B202" s="20" t="s">
         <v>691</v>
@@ -15339,7 +15111,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A203" s="14"/>
       <c r="B203" s="20" t="s">
         <v>694</v>
@@ -15393,7 +15165,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A204" s="14"/>
       <c r="B204" s="20" t="s">
         <v>697</v>
@@ -15447,7 +15219,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A205" s="14"/>
       <c r="B205" s="20" t="s">
         <v>700</v>
@@ -15501,7 +15273,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A206" s="14"/>
       <c r="B206" s="20" t="s">
         <v>703</v>
@@ -15555,7 +15327,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A207" s="14"/>
       <c r="B207" s="20" t="s">
         <v>706</v>
@@ -15609,7 +15381,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A208" s="14"/>
       <c r="B208" s="20" t="s">
         <v>709</v>
@@ -15663,7 +15435,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A209" s="14"/>
       <c r="B209" s="20" t="s">
         <v>712</v>
@@ -15717,7 +15489,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A210" s="14"/>
       <c r="B210" s="20" t="s">
         <v>715</v>
@@ -15771,7 +15543,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A211" s="14"/>
       <c r="B211" s="20" t="s">
         <v>718</v>
@@ -15825,7 +15597,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A212" s="14"/>
       <c r="B212" s="20" t="s">
         <v>721</v>
@@ -15879,7 +15651,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A213" s="14"/>
       <c r="B213" s="20" t="s">
         <v>724</v>
@@ -15933,7 +15705,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A214" s="14"/>
       <c r="B214" s="20" t="s">
         <v>727</v>
@@ -15987,7 +15759,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A215" s="14"/>
       <c r="B215" s="20" t="s">
         <v>730</v>
@@ -16041,7 +15813,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A216" s="14"/>
       <c r="B216" s="20" t="s">
         <v>733</v>
@@ -16095,7 +15867,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A217" s="14"/>
       <c r="B217" s="20" t="s">
         <v>736</v>
@@ -16149,7 +15921,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A218" s="14"/>
       <c r="B218" s="20" t="s">
         <v>739</v>
@@ -16203,7 +15975,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A219" s="14"/>
       <c r="B219" s="20" t="s">
         <v>742</v>
@@ -16257,7 +16029,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A220" s="14"/>
       <c r="B220" s="20" t="s">
         <v>745</v>
@@ -16311,7 +16083,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A221" s="14"/>
       <c r="B221" s="20" t="s">
         <v>748</v>
@@ -16365,7 +16137,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A222" s="14"/>
       <c r="B222" s="20" t="s">
         <v>751</v>
@@ -16419,7 +16191,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A223" s="14"/>
       <c r="B223" s="20" t="s">
         <v>754</v>
@@ -16473,7 +16245,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A224" s="14"/>
       <c r="B224" s="20" t="s">
         <v>758</v>
@@ -16527,7 +16299,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A225" s="14"/>
       <c r="B225" s="20" t="s">
         <v>761</v>
@@ -16581,7 +16353,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A226" s="14"/>
       <c r="B226" s="20" t="s">
         <v>764</v>
@@ -16635,7 +16407,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A227" s="14"/>
       <c r="B227" s="20" t="s">
         <v>767</v>
@@ -16689,7 +16461,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A228" s="14"/>
       <c r="B228" s="20" t="s">
         <v>770</v>
@@ -16743,7 +16515,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A229" s="14"/>
       <c r="B229" s="20" t="s">
         <v>773</v>
@@ -16797,7 +16569,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A230" s="14"/>
       <c r="B230" s="20" t="s">
         <v>776</v>
@@ -16851,7 +16623,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A231" s="14"/>
       <c r="B231" s="20" t="s">
         <v>779</v>
@@ -16905,7 +16677,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A232" s="14"/>
       <c r="B232" s="20" t="s">
         <v>782</v>
@@ -16959,7 +16731,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A233" s="14"/>
       <c r="B233" s="20" t="s">
         <v>785</v>
@@ -17013,7 +16785,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A234" s="14"/>
       <c r="B234" s="20" t="s">
         <v>788</v>
@@ -17067,7 +16839,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A235" s="14"/>
       <c r="B235" s="20" t="s">
         <v>791</v>
@@ -17121,7 +16893,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A236" s="14"/>
       <c r="B236" s="20" t="s">
         <v>794</v>
@@ -17175,7 +16947,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A237" s="14"/>
       <c r="B237" s="20" t="s">
         <v>797</v>
@@ -17229,7 +17001,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A238" s="14"/>
       <c r="B238" s="20" t="s">
         <v>800</v>
@@ -17283,7 +17055,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A239" s="14"/>
       <c r="B239" s="20" t="s">
         <v>803</v>
@@ -17337,7 +17109,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A240" s="14"/>
       <c r="B240" s="20" t="s">
         <v>806</v>
@@ -17391,7 +17163,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A241" s="14"/>
       <c r="B241" s="20" t="s">
         <v>809</v>
@@ -17445,7 +17217,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A242" s="14"/>
       <c r="B242" s="20" t="s">
         <v>812</v>
@@ -17499,7 +17271,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="243" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A243" s="14"/>
       <c r="B243" s="20" t="s">
         <v>815</v>
@@ -17553,7 +17325,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="244" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A244" s="14"/>
       <c r="B244" s="20" t="s">
         <v>818</v>
@@ -17607,7 +17379,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="245" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A245" s="14"/>
       <c r="B245" s="20" t="s">
         <v>821</v>
@@ -17661,7 +17433,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="246" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A246" s="14"/>
       <c r="B246" s="20" t="s">
         <v>824</v>
@@ -17715,7 +17487,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="247" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A247" s="14"/>
       <c r="B247" s="20" t="s">
         <v>827</v>
@@ -17769,7 +17541,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A248" s="14"/>
       <c r="B248" s="20" t="s">
         <v>830</v>
@@ -17823,7 +17595,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A249" s="14"/>
       <c r="B249" s="20" t="s">
         <v>833</v>
@@ -17877,12 +17649,12 @@
         <v>668</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A250" s="14"/>
       <c r="B250" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D250" s="26" t="s">
@@ -17931,12 +17703,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A251" s="27"/>
       <c r="B251" s="20" t="s">
         <v>842</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D251" s="26" t="s">
@@ -17985,12 +17757,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A252" s="27"/>
       <c r="B252" s="20" t="s">
         <v>845</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D252" s="26" t="s">
@@ -18039,12 +17811,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A253" s="27"/>
       <c r="B253" s="20" t="s">
         <v>848</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D253" s="26" t="s">
@@ -18093,12 +17865,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A254" s="27"/>
       <c r="B254" s="20" t="s">
         <v>851</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D254" s="26" t="s">
@@ -18147,12 +17919,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A255" s="27"/>
       <c r="B255" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D255" s="26" t="s">
@@ -18201,12 +17973,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A256" s="27"/>
       <c r="B256" s="20" t="s">
         <v>857</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D256" s="26" t="s">
@@ -18255,12 +18027,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A257" s="27"/>
       <c r="B257" s="20" t="s">
         <v>860</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D257" s="26" t="s">
@@ -18309,12 +18081,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A258" s="27"/>
       <c r="B258" s="20" t="s">
         <v>863</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D258" s="26" t="s">
@@ -18363,12 +18135,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A259" s="27"/>
       <c r="B259" s="20" t="s">
         <v>866</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D259" s="26" t="s">
@@ -18417,12 +18189,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A260" s="27"/>
       <c r="B260" s="20" t="s">
         <v>869</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D260" s="26" t="s">
@@ -18471,12 +18243,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A261" s="27"/>
       <c r="B261" s="20" t="s">
         <v>872</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D261" s="26" t="s">
@@ -18525,12 +18297,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A262" s="27"/>
       <c r="B262" s="20" t="s">
         <v>875</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D262" s="26" t="s">
@@ -18579,12 +18351,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A263" s="27"/>
       <c r="B263" s="20" t="s">
         <v>878</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D263" s="26" t="s">
@@ -18633,12 +18405,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A264" s="27"/>
       <c r="B264" s="20" t="s">
         <v>881</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D264" s="26" t="s">
@@ -18687,12 +18459,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A265" s="27"/>
       <c r="B265" s="20" t="s">
         <v>884</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D265" s="26" t="s">
@@ -18741,12 +18513,12 @@
         <v>841</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A266" s="27"/>
       <c r="B266" s="20" t="s">
         <v>887</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D266" s="26" t="s">
@@ -18795,11 +18567,11 @@
         <v>841</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B267" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D267" s="26" t="s">
@@ -18848,11 +18620,11 @@
         <v>841</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B268" s="20" t="s">
         <v>893</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D268" s="26" t="s">
@@ -18901,11 +18673,11 @@
         <v>841</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B269" s="20" t="s">
         <v>896</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D269" s="26" t="s">
@@ -18954,11 +18726,11 @@
         <v>841</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B270" s="20" t="s">
         <v>899</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D270" s="26" t="s">
@@ -19007,11 +18779,11 @@
         <v>841</v>
       </c>
     </row>
-    <row r="271" spans="1:18" ht="105" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="B271" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="33" t="s">
         <v>837</v>
       </c>
       <c r="D271" s="26" t="s">
@@ -19060,11 +18832,11 @@
         <v>841</v>
       </c>
     </row>
-    <row r="272" spans="1:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B272" s="20" t="s">
         <v>905</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D272" s="26" t="s">
@@ -19113,11 +18885,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="273" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B273" s="20" t="s">
         <v>911</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D273" s="26" t="s">
@@ -19166,11 +18938,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="274" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B274" s="20" t="s">
         <v>914</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D274" s="26" t="s">
@@ -19219,11 +18991,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="275" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B275" s="20" t="s">
         <v>917</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D275" s="26" t="s">
@@ -19272,11 +19044,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="276" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B276" s="20" t="s">
         <v>920</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D276" s="26" t="s">
@@ -19325,11 +19097,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="277" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B277" s="20" t="s">
         <v>923</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D277" s="26" t="s">
@@ -19378,11 +19150,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="278" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B278" s="20" t="s">
         <v>926</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D278" s="26" t="s">
@@ -19431,11 +19203,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="279" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B279" s="20" t="s">
         <v>929</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D279" s="26" t="s">
@@ -19484,11 +19256,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="280" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B280" s="20" t="s">
         <v>932</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D280" s="26" t="s">
@@ -19537,11 +19309,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="281" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B281" s="20" t="s">
         <v>935</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D281" s="26" t="s">
@@ -19590,11 +19362,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="282" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B282" s="20" t="s">
         <v>938</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D282" s="26" t="s">
@@ -19643,11 +19415,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="283" spans="2:18" ht="136.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B283" s="20" t="s">
         <v>941</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="33" t="s">
         <v>906</v>
       </c>
       <c r="D283" s="26" t="s">
@@ -19696,11 +19468,11 @@
         <v>910</v>
       </c>
     </row>
-    <row r="284" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B284" s="20" t="s">
         <v>944</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="33" t="s">
         <v>945</v>
       </c>
       <c r="D284" s="26" t="s">
@@ -19749,11 +19521,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="285" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B285" s="20" t="s">
         <v>950</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="33" t="s">
         <v>945</v>
       </c>
       <c r="D285" s="26" t="s">
@@ -19802,11 +19574,11 @@
         <v>949</v>
       </c>
     </row>
-    <row r="286" spans="2:18" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B286" s="28" t="s">
         <v>953</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="33" t="s">
         <v>945</v>
       </c>
       <c r="D286" s="26" t="s">

--- a/AfDD_2022_List_of_indicators.xlsx
+++ b/AfDD_2022_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="957">
   <si>
     <t>Back to Contents</t>
   </si>
@@ -1288,16 +1288,16 @@
     <t>From World Happiness Report. Generosity is the residual of regressing the national average of GWP responses to the question, “Have you donated money to a charity in the past month?” on GDP per capita. https://s3.amazonaws.com/happiness-report/2019/WHR19_Ch2A_Appendix1.pdf</t>
   </si>
   <si>
-    <t>GrthDCmpNCP</t>
+    <t>GrthDCmpNC</t>
   </si>
   <si>
     <t>Table 17</t>
   </si>
   <si>
-    <t>Consumption, private (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in total private consumption divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
+    <t>Final consumption expenditure (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in total final consumption expenditure divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>National currency</t>
@@ -1306,37 +1306,28 @@
     <t>Growth decomposition calculated by the OECD Development Centre based on World Economic Outlook data (October 2019)</t>
   </si>
   <si>
-    <t>GrthDCmpNCG</t>
-  </si>
-  <si>
-    <t>Consumption, public (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in total public consumption divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
-  </si>
-  <si>
-    <t>GrthDCmpNFIP</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation, private (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in private gross fixed capital formation divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
-  </si>
-  <si>
-    <t>GrthDCmpNFIG</t>
-  </si>
-  <si>
-    <t>Gross fixed capital formation, public (% of GDP growth)</t>
-  </si>
-  <si>
-    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in public gross fixed capital formation divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
+    <t>GrthDCmpNFI</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in gross fixed capital formation divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
+  </si>
+  <si>
+    <t>GrthDCmpNINV</t>
+  </si>
+  <si>
+    <t>Changes in inventories (% of GDP growth)</t>
+  </si>
+  <si>
+    <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in changes in inventories divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
   </si>
   <si>
     <t>GrthDCmpNX</t>
   </si>
   <si>
-    <t>Exports of goods and services, current prices (% of GDP growth)</t>
+    <t>Exports of goods and services (% of GDP growth)</t>
   </si>
   <si>
     <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in exports of goods and services divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
@@ -1345,7 +1336,7 @@
     <t>GrthDCmpNM</t>
   </si>
   <si>
-    <t>Imports of goods and services, current prices (% of GDP growth)</t>
+    <t>Imports of goods and services (% of GDP growth)</t>
   </si>
   <si>
     <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in imports of goods and services divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
@@ -1354,7 +1345,7 @@
     <t>GrthDCmpNFB</t>
   </si>
   <si>
-    <t>Foreign balance, current prices (% of GDP growth)</t>
+    <t>Foreign balance (% of GDP growth)</t>
   </si>
   <si>
     <t>Author’s computation based on data from IMF’s World Economic Outlook. This figure represents the year-over-year increase in balance of trade divided by the increase in gross domestic product over the same year, both in local currency, expressed as a percentage. https://www.imf.org/en/publications/weo</t>
@@ -1561,7 +1552,7 @@
     <t>Pooled data</t>
   </si>
   <si>
-    <t>..</t>
+    <t>.</t>
   </si>
   <si>
     <t>ExpProdPct1</t>
@@ -3978,7 +3969,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table36" displayName="Table36" ref="B3:R286" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table36" displayName="Table36" ref="B3:R285" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
   <tableColumns count="17">
     <tableColumn id="1" name="Indicator Code" dataDxfId="16"/>
     <tableColumn id="2" name="Table" dataDxfId="15" dataCellStyle="Hyperlink"/>
@@ -4265,7 +4256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R296"/>
+  <dimension ref="A1:R295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -10554,22 +10545,22 @@
         <v>2019</v>
       </c>
       <c r="L118" s="23">
-        <v>92.592592592592595</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M118" s="23">
-        <v>96.799927453029497</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N118" s="23">
-        <v>97.7304386302485</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O118" s="23">
-        <v>87.050359712230204</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P118" s="23">
-        <v>98.336792957018602</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q118" s="23">
-        <v>99.680539674038101</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R118" s="24" t="s">
         <v>425</v>
@@ -10608,22 +10599,22 @@
         <v>2019</v>
       </c>
       <c r="L119" s="23">
-        <v>92.592592592592595</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M119" s="23">
-        <v>96.799927453029497</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N119" s="23">
-        <v>97.7304386302485</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O119" s="23">
-        <v>88.489208633093497</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P119" s="23">
-        <v>98.439321338938001</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q119" s="23">
-        <v>99.758591044620402</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R119" s="24" t="s">
         <v>425</v>
@@ -10662,22 +10653,22 @@
         <v>2019</v>
       </c>
       <c r="L120" s="23">
-        <v>88.8888888888889</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M120" s="23">
-        <v>93.176089934531106</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N120" s="23">
-        <v>94.586971944187795</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O120" s="23">
-        <v>71.942446043165504</v>
+        <v>61.151079136690697</v>
       </c>
       <c r="P120" s="23">
-        <v>96.606503431287805</v>
+        <v>56.955083857733598</v>
       </c>
       <c r="Q120" s="23">
-        <v>96.187646035374101</v>
+        <v>71.9027520504157</v>
       </c>
       <c r="R120" s="24" t="s">
         <v>425</v>
@@ -10716,22 +10707,22 @@
         <v>2019</v>
       </c>
       <c r="L121" s="23">
-        <v>88.8888888888889</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M121" s="23">
-        <v>93.176089934531106</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N121" s="23">
-        <v>94.586971944187795</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O121" s="23">
-        <v>74.100719424460394</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P121" s="23">
-        <v>96.730956371673301</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q121" s="23">
-        <v>96.295450044421997</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R121" s="24" t="s">
         <v>425</v>
@@ -10770,22 +10761,22 @@
         <v>2019</v>
       </c>
       <c r="L122" s="23">
-        <v>94.4444444444445</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M122" s="23">
-        <v>97.177887817876297</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N122" s="23">
-        <v>97.840594409437102</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O122" s="23">
-        <v>91.366906474820198</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P122" s="23">
-        <v>97.376148290339202</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q122" s="23">
-        <v>99.113933686605293</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R122" s="24" t="s">
         <v>425</v>
@@ -10824,88 +10815,88 @@
         <v>2019</v>
       </c>
       <c r="L123" s="23">
-        <v>94.4444444444445</v>
+        <v>75.925925925925895</v>
       </c>
       <c r="M123" s="23">
-        <v>97.177887817876297</v>
+        <v>78.637409531662897</v>
       </c>
       <c r="N123" s="23">
-        <v>97.840594409437102</v>
+        <v>86.214559973818396</v>
       </c>
       <c r="O123" s="23">
-        <v>91.366906474820198</v>
+        <v>61.870503597122301</v>
       </c>
       <c r="P123" s="23">
-        <v>97.376148290339202</v>
+        <v>57.572911040431698</v>
       </c>
       <c r="Q123" s="23">
-        <v>99.113933686605293</v>
+        <v>72.273671075460101</v>
       </c>
       <c r="R123" s="24" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="124" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A124" s="14"/>
       <c r="B124" s="20" t="s">
         <v>441</v>
       </c>
       <c r="C124" s="33" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>424</v>
+        <v>44</v>
       </c>
       <c r="G124" s="23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H124" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I124" s="23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J124" s="23" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="K124" s="23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="L124" s="23">
-        <v>94.4444444444445</v>
+        <v>100</v>
       </c>
       <c r="M124" s="23">
-        <v>97.318747499599198</v>
+        <v>100</v>
       </c>
       <c r="N124" s="23">
-        <v>99.158047173935401</v>
+        <v>100</v>
       </c>
       <c r="O124" s="23">
-        <v>92.086330935251794</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P124" s="23">
-        <v>98.8922315342041</v>
+        <v>99.147063872228401</v>
       </c>
       <c r="Q124" s="23">
-        <v>99.9211897714152</v>
+        <v>100</v>
       </c>
       <c r="R124" s="24" t="s">
-        <v>425</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A125" s="14"/>
       <c r="B125" s="20" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C125" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D125" s="22" t="s">
         <v>446</v>
@@ -10932,22 +10923,22 @@
         <v>2020</v>
       </c>
       <c r="L125" s="23">
-        <v>100</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M125" s="23">
-        <v>100</v>
+        <v>99.486767961871195</v>
       </c>
       <c r="N125" s="23">
-        <v>100</v>
+        <v>99.411594330186006</v>
       </c>
       <c r="O125" s="23">
-        <v>96.402877697841802</v>
+        <v>86.330935251798607</v>
       </c>
       <c r="P125" s="23">
-        <v>99.147063872228401</v>
+        <v>89.707783700160604</v>
       </c>
       <c r="Q125" s="23">
-        <v>100</v>
+        <v>75.166183890745998</v>
       </c>
       <c r="R125" s="24" t="s">
         <v>35</v>
@@ -10959,7 +10950,7 @@
         <v>448</v>
       </c>
       <c r="C126" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D126" s="22" t="s">
         <v>449</v>
@@ -10986,34 +10977,34 @@
         <v>2020</v>
       </c>
       <c r="L126" s="23">
-        <v>98.148148148148195</v>
+        <v>100</v>
       </c>
       <c r="M126" s="23">
-        <v>99.486767961871195</v>
+        <v>100</v>
       </c>
       <c r="N126" s="23">
-        <v>99.411594330186006</v>
+        <v>100</v>
       </c>
       <c r="O126" s="23">
-        <v>86.330935251798607</v>
+        <v>82.733812949640296</v>
       </c>
       <c r="P126" s="23">
-        <v>89.707783700160604</v>
+        <v>92.280202165107497</v>
       </c>
       <c r="Q126" s="23">
-        <v>75.166183890745998</v>
+        <v>90.292200551740095</v>
       </c>
       <c r="R126" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A127" s="14"/>
       <c r="B127" s="20" t="s">
         <v>451</v>
       </c>
       <c r="C127" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D127" s="22" t="s">
         <v>452</v>
@@ -11034,46 +11025,46 @@
         <v>26</v>
       </c>
       <c r="J127" s="23" t="s">
-        <v>27</v>
+        <v>454</v>
       </c>
       <c r="K127" s="23">
         <v>2020</v>
       </c>
       <c r="L127" s="23">
-        <v>100</v>
+        <v>51.851851851851897</v>
       </c>
       <c r="M127" s="23">
-        <v>100</v>
+        <v>46.106154236071603</v>
       </c>
       <c r="N127" s="23">
-        <v>100</v>
+        <v>43.782609490336903</v>
       </c>
       <c r="O127" s="23">
-        <v>82.733812949640296</v>
+        <v>20.863309352518002</v>
       </c>
       <c r="P127" s="23">
-        <v>92.280202165107497</v>
+        <v>14.542286530025599</v>
       </c>
       <c r="Q127" s="23">
-        <v>90.292200551740095</v>
+        <v>13.209605476075099</v>
       </c>
       <c r="R127" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A128" s="14"/>
       <c r="B128" s="20" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C128" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F128" s="23" t="s">
         <v>44</v>
@@ -11088,31 +11079,31 @@
         <v>26</v>
       </c>
       <c r="J128" s="23" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K128" s="23">
         <v>2020</v>
       </c>
       <c r="L128" s="23">
-        <v>51.851851851851897</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M128" s="23">
-        <v>46.106154236071603</v>
+        <v>89.613964427152595</v>
       </c>
       <c r="N128" s="23">
-        <v>43.782609490336903</v>
+        <v>78.954370463706795</v>
       </c>
       <c r="O128" s="23">
-        <v>20.863309352518002</v>
+        <v>66.906474820143899</v>
       </c>
       <c r="P128" s="23">
-        <v>14.542286530025599</v>
+        <v>78.8921848692341</v>
       </c>
       <c r="Q128" s="23">
-        <v>13.209605476075099</v>
+        <v>66.434284328155599</v>
       </c>
       <c r="R128" s="24" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="129" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
@@ -11121,13 +11112,13 @@
         <v>459</v>
       </c>
       <c r="C129" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>460</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F129" s="23" t="s">
         <v>44</v>
@@ -11142,7 +11133,7 @@
         <v>26</v>
       </c>
       <c r="J129" s="23" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K129" s="23">
         <v>2020</v>
@@ -11151,37 +11142,37 @@
         <v>90.740740740740804</v>
       </c>
       <c r="M129" s="23">
-        <v>89.613964427152595</v>
+        <v>88.593108470759404</v>
       </c>
       <c r="N129" s="23">
-        <v>78.954370463706795</v>
+        <v>79.248965296304902</v>
       </c>
       <c r="O129" s="23">
-        <v>66.906474820143899</v>
+        <v>64.028776978417298</v>
       </c>
       <c r="P129" s="23">
-        <v>78.8921848692341</v>
+        <v>76.669418708557998</v>
       </c>
       <c r="Q129" s="23">
-        <v>66.434284328155599</v>
+        <v>64.006656915256897</v>
       </c>
       <c r="R129" s="24" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="130" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A130" s="14"/>
       <c r="B130" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="C130" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="D130" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="C130" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="D130" s="22" t="s">
-        <v>463</v>
-      </c>
       <c r="E130" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F130" s="23" t="s">
         <v>44</v>
@@ -11196,46 +11187,46 @@
         <v>26</v>
       </c>
       <c r="J130" s="23" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K130" s="23">
         <v>2020</v>
       </c>
       <c r="L130" s="23">
-        <v>90.740740740740804</v>
+        <v>92.592592592592595</v>
       </c>
       <c r="M130" s="23">
-        <v>88.593108470759404</v>
+        <v>89.780209108499804</v>
       </c>
       <c r="N130" s="23">
-        <v>79.248965296304902</v>
+        <v>79.459711235193097</v>
       </c>
       <c r="O130" s="23">
         <v>64.028776978417298</v>
       </c>
       <c r="P130" s="23">
-        <v>76.669418708557998</v>
+        <v>79.694563779297397</v>
       </c>
       <c r="Q130" s="23">
-        <v>64.006656915256897</v>
+        <v>64.366015199288896</v>
       </c>
       <c r="R130" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" s="19" customFormat="1" ht="42" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A131" s="14"/>
       <c r="B131" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="D131" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="C131" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="D131" s="22" t="s">
+      <c r="E131" s="22" t="s">
         <v>465</v>
-      </c>
-      <c r="E131" s="22" t="s">
-        <v>461</v>
       </c>
       <c r="F131" s="23" t="s">
         <v>44</v>
@@ -11250,40 +11241,40 @@
         <v>26</v>
       </c>
       <c r="J131" s="23" t="s">
-        <v>457</v>
+        <v>27</v>
       </c>
       <c r="K131" s="23">
         <v>2020</v>
       </c>
       <c r="L131" s="23">
-        <v>92.592592592592595</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M131" s="23">
-        <v>89.780209108499804</v>
+        <v>98.8128993622596</v>
       </c>
       <c r="N131" s="23">
-        <v>79.459711235193097</v>
+        <v>99.789254061111905</v>
       </c>
       <c r="O131" s="23">
-        <v>64.028776978417298</v>
+        <v>96.402877697841802</v>
       </c>
       <c r="P131" s="23">
-        <v>79.694563779297397</v>
+        <v>99.147063872228401</v>
       </c>
       <c r="Q131" s="23">
-        <v>64.366015199288896</v>
+        <v>100</v>
       </c>
       <c r="R131" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A132" s="14"/>
       <c r="B132" s="20" t="s">
         <v>466</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D132" s="22" t="s">
         <v>467</v>
@@ -11310,22 +11301,22 @@
         <v>2020</v>
       </c>
       <c r="L132" s="23">
-        <v>98.148148148148195</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M132" s="23">
-        <v>98.8128993622596</v>
+        <v>98.299667324130695</v>
       </c>
       <c r="N132" s="23">
-        <v>99.789254061111905</v>
+        <v>99.200848391297797</v>
       </c>
       <c r="O132" s="23">
-        <v>96.402877697841802</v>
+        <v>95.683453237410106</v>
       </c>
       <c r="P132" s="23">
-        <v>99.147063872228401</v>
+        <v>99.146781678711704</v>
       </c>
       <c r="Q132" s="23">
-        <v>100</v>
+        <v>99.999790372123101</v>
       </c>
       <c r="R132" s="24" t="s">
         <v>35</v>
@@ -11337,7 +11328,7 @@
         <v>469</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D133" s="22" t="s">
         <v>470</v>
@@ -11358,31 +11349,31 @@
         <v>26</v>
       </c>
       <c r="J133" s="23" t="s">
-        <v>27</v>
+        <v>454</v>
       </c>
       <c r="K133" s="23">
         <v>2020</v>
       </c>
       <c r="L133" s="23">
-        <v>96.296296296296305</v>
+        <v>79.629629629629704</v>
       </c>
       <c r="M133" s="23">
-        <v>98.299667324130695</v>
+        <v>63.5521296573949</v>
       </c>
       <c r="N133" s="23">
-        <v>99.200848391297797</v>
+        <v>59.415742272634702</v>
       </c>
       <c r="O133" s="23">
-        <v>95.683453237410106</v>
+        <v>55.395683453237403</v>
       </c>
       <c r="P133" s="23">
-        <v>99.146781678711704</v>
+        <v>78.264811250845298</v>
       </c>
       <c r="Q133" s="23">
-        <v>99.999790372123101</v>
+        <v>59.167092025487797</v>
       </c>
       <c r="R133" s="24" t="s">
-        <v>35</v>
+        <v>455</v>
       </c>
     </row>
     <row r="134" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -11391,13 +11382,13 @@
         <v>472</v>
       </c>
       <c r="C134" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D134" s="22" t="s">
         <v>473</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F134" s="23" t="s">
         <v>44</v>
@@ -11412,100 +11403,100 @@
         <v>26</v>
       </c>
       <c r="J134" s="23" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K134" s="23">
         <v>2020</v>
       </c>
       <c r="L134" s="23">
-        <v>79.629629629629704</v>
+        <v>81.481481481481495</v>
       </c>
       <c r="M134" s="23">
-        <v>63.5521296573949</v>
+        <v>63.328406807838803</v>
       </c>
       <c r="N134" s="23">
-        <v>59.415742272634702</v>
+        <v>59.862884353708601</v>
       </c>
       <c r="O134" s="23">
-        <v>55.395683453237403</v>
+        <v>58.273381294963997</v>
       </c>
       <c r="P134" s="23">
-        <v>78.264811250845298</v>
+        <v>79.175400690149502</v>
       </c>
       <c r="Q134" s="23">
-        <v>59.167092025487797</v>
+        <v>60.295257558950503</v>
       </c>
       <c r="R134" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A135" s="14"/>
       <c r="B135" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="C135" s="33" t="s">
         <v>475</v>
-      </c>
-      <c r="C135" s="33" t="s">
-        <v>445</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>476</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G135" s="23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H135" s="23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I135" s="23" t="s">
         <v>26</v>
       </c>
       <c r="J135" s="23" t="s">
-        <v>457</v>
+        <v>62</v>
       </c>
       <c r="K135" s="23">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="L135" s="23">
-        <v>81.481481481481495</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M135" s="23">
-        <v>63.328406807838803</v>
+        <v>99.732292587672802</v>
       </c>
       <c r="N135" s="23">
-        <v>59.862884353708601</v>
+        <v>99.904575518134195</v>
       </c>
       <c r="O135" s="23">
-        <v>58.273381294963997</v>
+        <v>98.561151079136707</v>
       </c>
       <c r="P135" s="23">
-        <v>79.175400690149502</v>
+        <v>99.998790004664897</v>
       </c>
       <c r="Q135" s="23">
-        <v>60.295257558950503</v>
+        <v>100</v>
       </c>
       <c r="R135" s="24" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
     </row>
     <row r="136" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A136" s="14"/>
       <c r="B136" s="20" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C136" s="33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F136" s="23" t="s">
         <v>39</v>
@@ -11544,7 +11535,7 @@
         <v>100</v>
       </c>
       <c r="R136" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -11553,7 +11544,7 @@
         <v>482</v>
       </c>
       <c r="C137" s="33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D137" s="22" t="s">
         <v>483</v>
@@ -11598,16 +11589,16 @@
         <v>100</v>
       </c>
       <c r="R137" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A138" s="14"/>
       <c r="B138" s="20" t="s">
         <v>485</v>
       </c>
       <c r="C138" s="33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D138" s="22" t="s">
         <v>486</v>
@@ -11652,7 +11643,7 @@
         <v>100</v>
       </c>
       <c r="R138" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
@@ -11661,7 +11652,7 @@
         <v>488</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D139" s="22" t="s">
         <v>489</v>
@@ -11706,7 +11697,7 @@
         <v>100</v>
       </c>
       <c r="R139" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
@@ -11715,7 +11706,7 @@
         <v>491</v>
       </c>
       <c r="C140" s="33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D140" s="22" t="s">
         <v>492</v>
@@ -11760,7 +11751,7 @@
         <v>100</v>
       </c>
       <c r="R140" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
@@ -11769,7 +11760,7 @@
         <v>494</v>
       </c>
       <c r="C141" s="33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>495</v>
@@ -11814,7 +11805,7 @@
         <v>100</v>
       </c>
       <c r="R141" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
@@ -11823,7 +11814,7 @@
         <v>497</v>
       </c>
       <c r="C142" s="33" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D142" s="22" t="s">
         <v>498</v>
@@ -11868,34 +11859,34 @@
         <v>100</v>
       </c>
       <c r="R142" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A143" s="14"/>
       <c r="B143" s="20" t="s">
         <v>500</v>
       </c>
       <c r="C143" s="33" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F143" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G143" s="23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H143" s="23" t="s">
-        <v>25</v>
+        <v>504</v>
       </c>
       <c r="I143" s="23" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="J143" s="23" t="s">
         <v>62</v>
@@ -11903,50 +11894,50 @@
       <c r="K143" s="23">
         <v>2019</v>
       </c>
-      <c r="L143" s="23">
-        <v>98.148148148148195</v>
-      </c>
-      <c r="M143" s="23">
-        <v>99.732292587672802</v>
-      </c>
-      <c r="N143" s="23">
-        <v>99.904575518134195</v>
-      </c>
-      <c r="O143" s="23">
-        <v>98.561151079136707</v>
-      </c>
-      <c r="P143" s="23">
-        <v>99.998790004664897</v>
-      </c>
-      <c r="Q143" s="23">
-        <v>100</v>
+      <c r="L143" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="M143" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="N143" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="O143" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="P143" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q143" s="23" t="s">
+        <v>505</v>
       </c>
       <c r="R143" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A144" s="14"/>
       <c r="B144" s="20" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C144" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="E144" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G144" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" s="23" t="s">
         <v>504</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="E144" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="F144" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G144" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>507</v>
       </c>
       <c r="I144" s="23" t="s">
         <v>152</v>
@@ -11958,34 +11949,34 @@
         <v>2019</v>
       </c>
       <c r="L144" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M144" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N144" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O144" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P144" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q144" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R144" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A145" s="14"/>
       <c r="B145" s="20" t="s">
         <v>509</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D145" s="22" t="s">
         <v>510</v>
@@ -12000,7 +11991,7 @@
         <v>44</v>
       </c>
       <c r="H145" s="23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I145" s="23" t="s">
         <v>152</v>
@@ -12012,34 +12003,34 @@
         <v>2019</v>
       </c>
       <c r="L145" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M145" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N145" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O145" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P145" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q145" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R145" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A146" s="14"/>
       <c r="B146" s="20" t="s">
         <v>512</v>
       </c>
       <c r="C146" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D146" s="22" t="s">
         <v>513</v>
@@ -12054,7 +12045,7 @@
         <v>44</v>
       </c>
       <c r="H146" s="23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I146" s="23" t="s">
         <v>152</v>
@@ -12066,25 +12057,25 @@
         <v>2019</v>
       </c>
       <c r="L146" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M146" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N146" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O146" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P146" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q146" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R146" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -12093,7 +12084,7 @@
         <v>515</v>
       </c>
       <c r="C147" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D147" s="22" t="s">
         <v>516</v>
@@ -12108,7 +12099,7 @@
         <v>44</v>
       </c>
       <c r="H147" s="23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I147" s="23" t="s">
         <v>152</v>
@@ -12120,25 +12111,25 @@
         <v>2019</v>
       </c>
       <c r="L147" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M147" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N147" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O147" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P147" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q147" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R147" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -12147,7 +12138,7 @@
         <v>518</v>
       </c>
       <c r="C148" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D148" s="22" t="s">
         <v>519</v>
@@ -12162,7 +12153,7 @@
         <v>44</v>
       </c>
       <c r="H148" s="23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I148" s="23" t="s">
         <v>152</v>
@@ -12174,25 +12165,25 @@
         <v>2019</v>
       </c>
       <c r="L148" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M148" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N148" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O148" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P148" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q148" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R148" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="149" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -12201,7 +12192,7 @@
         <v>521</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D149" s="22" t="s">
         <v>522</v>
@@ -12216,7 +12207,7 @@
         <v>44</v>
       </c>
       <c r="H149" s="23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I149" s="23" t="s">
         <v>152</v>
@@ -12228,25 +12219,25 @@
         <v>2019</v>
       </c>
       <c r="L149" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M149" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N149" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O149" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P149" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q149" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R149" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -12255,13 +12246,13 @@
         <v>524</v>
       </c>
       <c r="C150" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D150" s="22" t="s">
         <v>525</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F150" s="23" t="s">
         <v>44</v>
@@ -12270,7 +12261,7 @@
         <v>44</v>
       </c>
       <c r="H150" s="23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I150" s="23" t="s">
         <v>152</v>
@@ -12282,49 +12273,49 @@
         <v>2019</v>
       </c>
       <c r="L150" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M150" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N150" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O150" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P150" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q150" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R150" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A151" s="14"/>
       <c r="B151" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="D151" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="C151" s="33" t="s">
+      <c r="E151" s="22" t="s">
+        <v>528</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G151" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H151" s="23" t="s">
         <v>504</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="E151" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="F151" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G151" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H151" s="23" t="s">
-        <v>507</v>
       </c>
       <c r="I151" s="23" t="s">
         <v>152</v>
@@ -12336,25 +12327,25 @@
         <v>2019</v>
       </c>
       <c r="L151" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M151" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N151" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O151" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P151" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q151" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R151" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -12363,13 +12354,13 @@
         <v>529</v>
       </c>
       <c r="C152" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>530</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F152" s="23" t="s">
         <v>44</v>
@@ -12378,7 +12369,7 @@
         <v>44</v>
       </c>
       <c r="H152" s="23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I152" s="23" t="s">
         <v>152</v>
@@ -12390,49 +12381,49 @@
         <v>2019</v>
       </c>
       <c r="L152" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M152" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N152" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O152" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P152" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q152" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R152" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="153" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A153" s="14"/>
       <c r="B153" s="20" t="s">
+        <v>531</v>
+      </c>
+      <c r="C153" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="D153" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="C153" s="33" t="s">
+      <c r="E153" s="22" t="s">
+        <v>533</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G153" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H153" s="23" t="s">
         <v>504</v>
-      </c>
-      <c r="D153" s="22" t="s">
-        <v>533</v>
-      </c>
-      <c r="E153" s="22" t="s">
-        <v>531</v>
-      </c>
-      <c r="F153" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G153" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H153" s="23" t="s">
-        <v>507</v>
       </c>
       <c r="I153" s="23" t="s">
         <v>152</v>
@@ -12444,25 +12435,25 @@
         <v>2019</v>
       </c>
       <c r="L153" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M153" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N153" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O153" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P153" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q153" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R153" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="154" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -12471,7 +12462,7 @@
         <v>534</v>
       </c>
       <c r="C154" s="33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D154" s="22" t="s">
         <v>535</v>
@@ -12486,7 +12477,7 @@
         <v>50</v>
       </c>
       <c r="H154" s="23" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="I154" s="23" t="s">
         <v>152</v>
@@ -12498,94 +12489,94 @@
         <v>2019</v>
       </c>
       <c r="L154" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M154" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N154" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O154" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P154" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q154" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R154" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A155" s="14"/>
       <c r="B155" s="20" t="s">
         <v>537</v>
       </c>
       <c r="C155" s="33" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="G155" s="23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H155" s="23" t="s">
-        <v>507</v>
+        <v>45</v>
       </c>
       <c r="I155" s="23" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="J155" s="23" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="K155" s="23">
         <v>2019</v>
       </c>
-      <c r="L155" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="M155" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="N155" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="O155" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="P155" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q155" s="23" t="s">
-        <v>508</v>
+      <c r="L155" s="23">
+        <v>98.148148148148195</v>
+      </c>
+      <c r="M155" s="23">
+        <v>99.481179953430299</v>
+      </c>
+      <c r="N155" s="23">
+        <v>98.572391456313198</v>
+      </c>
+      <c r="O155" s="23">
+        <v>95.683453237410106</v>
+      </c>
+      <c r="P155" s="23">
+        <v>99.148449692757893</v>
+      </c>
+      <c r="Q155" s="23">
+        <v>99.998298653836997</v>
       </c>
       <c r="R155" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" s="19" customFormat="1" ht="126" x14ac:dyDescent="0.35">
       <c r="A156" s="14"/>
       <c r="B156" s="20" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C156" s="33" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F156" s="23" t="s">
         <v>44</v>
@@ -12594,13 +12585,13 @@
         <v>44</v>
       </c>
       <c r="H156" s="23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I156" s="23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J156" s="23" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="K156" s="23">
         <v>2019</v>
@@ -12609,31 +12600,31 @@
         <v>98.148148148148195</v>
       </c>
       <c r="M156" s="23">
-        <v>99.481179953430299</v>
+        <v>99.732292587672802</v>
       </c>
       <c r="N156" s="23">
-        <v>98.572391456313198</v>
+        <v>99.904575518134195</v>
       </c>
       <c r="O156" s="23">
-        <v>95.683453237410106</v>
+        <v>35.251798561151098</v>
       </c>
       <c r="P156" s="23">
-        <v>99.148449692757893</v>
+        <v>24.087856736699401</v>
       </c>
       <c r="Q156" s="23">
-        <v>99.998298653836997</v>
+        <v>28.6156498039193</v>
       </c>
       <c r="R156" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" s="19" customFormat="1" ht="126" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A157" s="14"/>
       <c r="B157" s="20" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D157" s="22" t="s">
         <v>546</v>
@@ -12668,26 +12659,26 @@
       <c r="N157" s="23">
         <v>99.904575518134195</v>
       </c>
-      <c r="O157" s="23">
-        <v>35.251798561151098</v>
-      </c>
-      <c r="P157" s="23">
-        <v>24.087856736699401</v>
-      </c>
-      <c r="Q157" s="23">
-        <v>28.6156498039193</v>
+      <c r="O157" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="P157" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q157" s="23" t="s">
+        <v>505</v>
       </c>
       <c r="R157" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A158" s="14"/>
       <c r="B158" s="20" t="s">
         <v>548</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D158" s="22" t="s">
         <v>549</v>
@@ -12722,17 +12713,17 @@
       <c r="N158" s="23">
         <v>99.904575518134195</v>
       </c>
-      <c r="O158" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="P158" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q158" s="23" t="s">
-        <v>508</v>
+      <c r="O158" s="23">
+        <v>98.561151079136707</v>
+      </c>
+      <c r="P158" s="23">
+        <v>99.998790004664897</v>
+      </c>
+      <c r="Q158" s="23">
+        <v>100</v>
       </c>
       <c r="R158" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="159" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -12741,7 +12732,7 @@
         <v>551</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D159" s="22" t="s">
         <v>552</v>
@@ -12777,16 +12768,16 @@
         <v>99.904575518134195</v>
       </c>
       <c r="O159" s="23">
-        <v>98.561151079136707</v>
+        <v>97.841726618705096</v>
       </c>
       <c r="P159" s="23">
-        <v>99.998790004664897</v>
+        <v>77.464185735308405</v>
       </c>
       <c r="Q159" s="23">
-        <v>100</v>
+        <v>81.493563572101493</v>
       </c>
       <c r="R159" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -12795,7 +12786,7 @@
         <v>554</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D160" s="22" t="s">
         <v>555</v>
@@ -12831,16 +12822,16 @@
         <v>99.904575518134195</v>
       </c>
       <c r="O160" s="23">
-        <v>97.841726618705096</v>
+        <v>98.561151079136707</v>
       </c>
       <c r="P160" s="23">
-        <v>77.464185735308405</v>
+        <v>99.998790004664897</v>
       </c>
       <c r="Q160" s="23">
-        <v>81.493563572101493</v>
+        <v>100</v>
       </c>
       <c r="R160" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -12849,7 +12840,7 @@
         <v>557</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D161" s="22" t="s">
         <v>558</v>
@@ -12885,25 +12876,25 @@
         <v>99.904575518134195</v>
       </c>
       <c r="O161" s="23">
-        <v>98.561151079136707</v>
+        <v>97.122302158273399</v>
       </c>
       <c r="P161" s="23">
-        <v>99.998790004664897</v>
+        <v>94.423524752472005</v>
       </c>
       <c r="Q161" s="23">
-        <v>100</v>
+        <v>83.0653080158378</v>
       </c>
       <c r="R161" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A162" s="14"/>
       <c r="B162" s="20" t="s">
         <v>560</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D162" s="22" t="s">
         <v>561</v>
@@ -12912,10 +12903,10 @@
         <v>562</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>44</v>
+        <v>563</v>
       </c>
       <c r="G162" s="23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H162" s="23" t="s">
         <v>25</v>
@@ -12939,34 +12930,34 @@
         <v>99.904575518134195</v>
       </c>
       <c r="O162" s="23">
-        <v>97.122302158273399</v>
+        <v>98.561151079136707</v>
       </c>
       <c r="P162" s="23">
-        <v>94.423524752472005</v>
+        <v>99.998790004664897</v>
       </c>
       <c r="Q162" s="23">
-        <v>83.0653080158378</v>
+        <v>100</v>
       </c>
       <c r="R162" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A163" s="14"/>
       <c r="B163" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="C163" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="E163" s="22" t="s">
+        <v>566</v>
+      </c>
+      <c r="F163" s="23" t="s">
         <v>563</v>
-      </c>
-      <c r="C163" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="D163" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="E163" s="22" t="s">
-        <v>565</v>
-      </c>
-      <c r="F163" s="23" t="s">
-        <v>566</v>
       </c>
       <c r="G163" s="23" t="s">
         <v>34</v>
@@ -13002,7 +12993,7 @@
         <v>100</v>
       </c>
       <c r="R163" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="164" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -13011,16 +13002,16 @@
         <v>567</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D164" s="22" t="s">
         <v>568</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G164" s="23" t="s">
         <v>34</v>
@@ -13056,70 +13047,70 @@
         <v>100</v>
       </c>
       <c r="R164" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A165" s="14"/>
       <c r="B165" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C165" s="33" t="s">
         <v>570</v>
-      </c>
-      <c r="C165" s="33" t="s">
-        <v>545</v>
       </c>
       <c r="D165" s="22" t="s">
         <v>571</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>566</v>
+        <v>44</v>
       </c>
       <c r="G165" s="23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H165" s="23" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I165" s="23" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J165" s="23" t="s">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="K165" s="23">
         <v>2019</v>
       </c>
       <c r="L165" s="23">
-        <v>98.148148148148195</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="M165" s="23">
-        <v>99.732292587672802</v>
+        <v>96.164807928937705</v>
       </c>
       <c r="N165" s="23">
-        <v>99.904575518134195</v>
+        <v>97.537435312822197</v>
       </c>
       <c r="O165" s="23">
-        <v>98.561151079136707</v>
+        <v>88.489208633093497</v>
       </c>
       <c r="P165" s="23">
-        <v>99.998790004664897</v>
+        <v>98.865738314873298</v>
       </c>
       <c r="Q165" s="23">
-        <v>100</v>
+        <v>99.905539745937006</v>
       </c>
       <c r="R165" s="24" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A166" s="14"/>
       <c r="B166" s="20" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C166" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>574</v>
@@ -13140,46 +13131,46 @@
         <v>46</v>
       </c>
       <c r="J166" s="23" t="s">
-        <v>457</v>
+        <v>62</v>
       </c>
       <c r="K166" s="23">
         <v>2019</v>
       </c>
       <c r="L166" s="23">
-        <v>88.8888888888889</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M166" s="23">
-        <v>96.164807928937705</v>
+        <v>99.992517839640996</v>
       </c>
       <c r="N166" s="23">
-        <v>97.537435312822197</v>
+        <v>99.958118990839296</v>
       </c>
       <c r="O166" s="23">
-        <v>88.489208633093497</v>
+        <v>56.834532374100696</v>
       </c>
       <c r="P166" s="23">
-        <v>98.865738314873298</v>
+        <v>78.020047379432796</v>
       </c>
       <c r="Q166" s="23">
-        <v>99.905539745937006</v>
+        <v>47.238816657230998</v>
       </c>
       <c r="R166" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A167" s="14"/>
       <c r="B167" s="20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C167" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D167" s="22" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F167" s="23" t="s">
         <v>44</v>
@@ -13194,46 +13185,46 @@
         <v>46</v>
       </c>
       <c r="J167" s="23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K167" s="23">
         <v>2019</v>
       </c>
       <c r="L167" s="23">
-        <v>98.148148148148195</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M167" s="23">
-        <v>99.992517839640996</v>
+        <v>92.837284889669604</v>
       </c>
       <c r="N167" s="23">
-        <v>99.958118990839296</v>
+        <v>97.095910638598099</v>
       </c>
       <c r="O167" s="23">
-        <v>56.834532374100696</v>
+        <v>93.525179856115102</v>
       </c>
       <c r="P167" s="23">
-        <v>78.020047379432796</v>
+        <v>99.145279268283701</v>
       </c>
       <c r="Q167" s="23">
-        <v>47.238816657230998</v>
+        <v>99.994305671226002</v>
       </c>
       <c r="R167" s="24" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A168" s="14"/>
       <c r="B168" s="20" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C168" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F168" s="23" t="s">
         <v>44</v>
@@ -13254,40 +13245,40 @@
         <v>2019</v>
       </c>
       <c r="L168" s="23">
-        <v>96.296296296296305</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M168" s="23">
-        <v>92.837284889669604</v>
+        <v>99.588117640085699</v>
       </c>
       <c r="N168" s="23">
-        <v>97.095910638598099</v>
+        <v>99.681755904264605</v>
       </c>
       <c r="O168" s="23">
-        <v>93.525179856115102</v>
+        <v>90.647482014388501</v>
       </c>
       <c r="P168" s="23">
-        <v>99.145279268283701</v>
+        <v>98.496445921724799</v>
       </c>
       <c r="Q168" s="23">
-        <v>99.994305671226002</v>
+        <v>99.297228970868105</v>
       </c>
       <c r="R168" s="24" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A169" s="14"/>
       <c r="B169" s="20" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C169" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F169" s="23" t="s">
         <v>44</v>
@@ -13302,46 +13293,46 @@
         <v>46</v>
       </c>
       <c r="J169" s="23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K169" s="23">
         <v>2019</v>
       </c>
       <c r="L169" s="23">
-        <v>98.148148148148195</v>
+        <v>85.185185185185205</v>
       </c>
       <c r="M169" s="23">
-        <v>99.588117640085699</v>
+        <v>89.109030505262595</v>
       </c>
       <c r="N169" s="23">
-        <v>99.681755904264605</v>
+        <v>95.742710399371703</v>
       </c>
       <c r="O169" s="23">
-        <v>90.647482014388501</v>
+        <v>84.172661870503603</v>
       </c>
       <c r="P169" s="23">
-        <v>98.496445921724799</v>
+        <v>98.213327460966795</v>
       </c>
       <c r="Q169" s="23">
-        <v>99.297228970868105</v>
+        <v>99.207889184556606</v>
       </c>
       <c r="R169" s="24" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A170" s="14"/>
       <c r="B170" s="20" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C170" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>590</v>
+        <v>471</v>
       </c>
       <c r="F170" s="23" t="s">
         <v>44</v>
@@ -13356,100 +13347,100 @@
         <v>46</v>
       </c>
       <c r="J170" s="23" t="s">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="K170" s="23">
         <v>2019</v>
       </c>
       <c r="L170" s="23">
-        <v>85.185185185185205</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M170" s="23">
-        <v>89.109030505262595</v>
+        <v>96.7254008000113</v>
       </c>
       <c r="N170" s="23">
-        <v>95.742710399371703</v>
+        <v>97.646624634372102</v>
       </c>
       <c r="O170" s="23">
-        <v>84.172661870503603</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P170" s="23">
-        <v>98.213327460966795</v>
+        <v>74.6284133237058</v>
       </c>
       <c r="Q170" s="23">
-        <v>99.207889184556606</v>
+        <v>79.831546936596894</v>
       </c>
       <c r="R170" s="24" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A171" s="14"/>
       <c r="B171" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="D171" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="C171" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="D171" s="22" t="s">
-        <v>593</v>
-      </c>
       <c r="E171" s="22" t="s">
-        <v>474</v>
+        <v>572</v>
       </c>
       <c r="F171" s="23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G171" s="23" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H171" s="23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I171" s="23" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J171" s="23" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K171" s="23">
         <v>2019</v>
       </c>
       <c r="L171" s="23">
-        <v>90.740740740740804</v>
+        <v>88.8888888888889</v>
       </c>
       <c r="M171" s="23">
-        <v>96.7254008000113</v>
+        <v>96.164807928937705</v>
       </c>
       <c r="N171" s="23">
-        <v>97.646624634372102</v>
+        <v>97.537435312822197</v>
       </c>
       <c r="O171" s="23">
-        <v>77.697841726618705</v>
+        <v>88.489208633093497</v>
       </c>
       <c r="P171" s="23">
-        <v>74.6284133237058</v>
+        <v>98.865738314873298</v>
       </c>
       <c r="Q171" s="23">
-        <v>79.831546936596894</v>
+        <v>99.905539745937006</v>
       </c>
       <c r="R171" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A172" s="14"/>
       <c r="B172" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="C172" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="D172" s="22" t="s">
         <v>594</v>
       </c>
-      <c r="C172" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="D172" s="22" t="s">
+      <c r="E172" s="22" t="s">
         <v>595</v>
-      </c>
-      <c r="E172" s="22" t="s">
-        <v>575</v>
       </c>
       <c r="F172" s="23" t="s">
         <v>39</v>
@@ -13464,40 +13455,40 @@
         <v>26</v>
       </c>
       <c r="J172" s="23" t="s">
-        <v>457</v>
+        <v>62</v>
       </c>
       <c r="K172" s="23">
         <v>2019</v>
       </c>
       <c r="L172" s="23">
-        <v>88.8888888888889</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M172" s="23">
-        <v>96.164807928937705</v>
+        <v>99.992517839640996</v>
       </c>
       <c r="N172" s="23">
-        <v>97.537435312822197</v>
+        <v>99.958118990839296</v>
       </c>
       <c r="O172" s="23">
-        <v>88.489208633093497</v>
+        <v>58.9928057553957</v>
       </c>
       <c r="P172" s="23">
-        <v>98.865738314873298</v>
+        <v>78.869855454961893</v>
       </c>
       <c r="Q172" s="23">
-        <v>99.905539745937006</v>
+        <v>47.238816657230998</v>
       </c>
       <c r="R172" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A173" s="14"/>
       <c r="B173" s="20" t="s">
         <v>596</v>
       </c>
       <c r="C173" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D173" s="22" t="s">
         <v>597</v>
@@ -13518,46 +13509,46 @@
         <v>26</v>
       </c>
       <c r="J173" s="23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K173" s="23">
         <v>2019</v>
       </c>
       <c r="L173" s="23">
-        <v>98.148148148148195</v>
+        <v>96.296296296296305</v>
       </c>
       <c r="M173" s="23">
-        <v>99.992517839640996</v>
+        <v>92.837284889669604</v>
       </c>
       <c r="N173" s="23">
-        <v>99.958118990839296</v>
+        <v>97.095910638598099</v>
       </c>
       <c r="O173" s="23">
-        <v>58.9928057553957</v>
+        <v>94.244604316546798</v>
       </c>
       <c r="P173" s="23">
-        <v>78.869855454961893</v>
+        <v>99.548671158477404</v>
       </c>
       <c r="Q173" s="23">
-        <v>47.238816657230998</v>
+        <v>99.994305671226002</v>
       </c>
       <c r="R173" s="24" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="174" spans="1:18" s="19" customFormat="1" ht="105" x14ac:dyDescent="0.35">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A174" s="14"/>
       <c r="B174" s="20" t="s">
         <v>599</v>
       </c>
       <c r="C174" s="33" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D174" s="22" t="s">
         <v>600</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="F174" s="23" t="s">
         <v>39</v>
@@ -13578,43 +13569,43 @@
         <v>2019</v>
       </c>
       <c r="L174" s="23">
-        <v>96.296296296296305</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M174" s="23">
-        <v>92.837284889669604</v>
+        <v>99.588117640085699</v>
       </c>
       <c r="N174" s="23">
-        <v>97.095910638598099</v>
+        <v>99.681755904264605</v>
       </c>
       <c r="O174" s="23">
-        <v>94.244604316546798</v>
+        <v>90.647482014388501</v>
       </c>
       <c r="P174" s="23">
-        <v>99.548671158477404</v>
+        <v>98.496445921724799</v>
       </c>
       <c r="Q174" s="23">
-        <v>99.994305671226002</v>
+        <v>99.297228970868105</v>
       </c>
       <c r="R174" s="24" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="175" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A175" s="14"/>
       <c r="B175" s="20" t="s">
+        <v>601</v>
+      </c>
+      <c r="C175" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="D175" s="22" t="s">
         <v>602</v>
       </c>
-      <c r="C175" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="D175" s="22" t="s">
-        <v>603</v>
-      </c>
       <c r="E175" s="22" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F175" s="23" t="s">
-        <v>39</v>
+        <v>563</v>
       </c>
       <c r="G175" s="23" t="s">
         <v>34</v>
@@ -13626,49 +13617,49 @@
         <v>26</v>
       </c>
       <c r="J175" s="23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K175" s="23">
         <v>2019</v>
       </c>
       <c r="L175" s="23">
-        <v>98.148148148148195</v>
+        <v>85.185185185185205</v>
       </c>
       <c r="M175" s="23">
-        <v>99.588117640085699</v>
+        <v>89.109030505262595</v>
       </c>
       <c r="N175" s="23">
-        <v>99.681755904264605</v>
+        <v>95.742710399371703</v>
       </c>
       <c r="O175" s="23">
-        <v>90.647482014388501</v>
+        <v>84.172661870503603</v>
       </c>
       <c r="P175" s="23">
-        <v>98.496445921724799</v>
+        <v>98.213327460966795</v>
       </c>
       <c r="Q175" s="23">
-        <v>99.297228970868105</v>
+        <v>99.207889184556606</v>
       </c>
       <c r="R175" s="24" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="176" spans="1:18" s="19" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A176" s="14"/>
       <c r="B176" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="C176" s="33" t="s">
+        <v>570</v>
+      </c>
+      <c r="D176" s="22" t="s">
         <v>604</v>
       </c>
-      <c r="C176" s="33" t="s">
-        <v>573</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>605</v>
-      </c>
       <c r="E176" s="22" t="s">
-        <v>590</v>
+        <v>471</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>566</v>
+        <v>39</v>
       </c>
       <c r="G176" s="23" t="s">
         <v>34</v>
@@ -13680,52 +13671,52 @@
         <v>26</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>62</v>
+        <v>454</v>
       </c>
       <c r="K176" s="23">
         <v>2019</v>
       </c>
       <c r="L176" s="23">
-        <v>85.185185185185205</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M176" s="23">
-        <v>89.109030505262595</v>
+        <v>96.7254008000113</v>
       </c>
       <c r="N176" s="23">
-        <v>95.742710399371703</v>
+        <v>97.646624634372102</v>
       </c>
       <c r="O176" s="23">
-        <v>84.172661870503603</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P176" s="23">
-        <v>98.213327460966795</v>
+        <v>74.6284133237058</v>
       </c>
       <c r="Q176" s="23">
-        <v>99.207889184556606</v>
+        <v>79.831546936596894</v>
       </c>
       <c r="R176" s="24" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A177" s="14"/>
       <c r="B177" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="C177" s="33" t="s">
         <v>606</v>
-      </c>
-      <c r="C177" s="33" t="s">
-        <v>573</v>
       </c>
       <c r="D177" s="22" t="s">
         <v>607</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>474</v>
+        <v>608</v>
       </c>
       <c r="F177" s="23" t="s">
-        <v>39</v>
+        <v>609</v>
       </c>
       <c r="G177" s="23" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H177" s="23" t="s">
         <v>25</v>
@@ -13734,49 +13725,49 @@
         <v>26</v>
       </c>
       <c r="J177" s="23" t="s">
-        <v>457</v>
+        <v>62</v>
       </c>
       <c r="K177" s="23">
         <v>2019</v>
       </c>
       <c r="L177" s="23">
-        <v>90.740740740740804</v>
+        <v>100</v>
       </c>
       <c r="M177" s="23">
-        <v>96.7254008000113</v>
+        <v>100</v>
       </c>
       <c r="N177" s="23">
-        <v>97.646624634372102</v>
+        <v>100</v>
       </c>
       <c r="O177" s="23">
-        <v>77.697841726618705</v>
+        <v>100</v>
       </c>
       <c r="P177" s="23">
-        <v>74.6284133237058</v>
+        <v>100</v>
       </c>
       <c r="Q177" s="23">
-        <v>79.831546936596894</v>
+        <v>100</v>
       </c>
       <c r="R177" s="24" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A178" s="14"/>
       <c r="B178" s="20" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="C178" s="33" t="s">
+        <v>606</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="E178" s="22" t="s">
+        <v>613</v>
+      </c>
+      <c r="F178" s="23" t="s">
         <v>609</v>
-      </c>
-      <c r="D178" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="E178" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="F178" s="23" t="s">
-        <v>612</v>
       </c>
       <c r="G178" s="23" t="s">
         <v>24</v>
@@ -13803,25 +13794,25 @@
         <v>100</v>
       </c>
       <c r="O178" s="23">
-        <v>100</v>
+        <v>99.280575539568403</v>
       </c>
       <c r="P178" s="23">
-        <v>100</v>
+        <v>99.999387560390403</v>
       </c>
       <c r="Q178" s="23">
         <v>100</v>
       </c>
       <c r="R178" s="24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" s="19" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A179" s="14"/>
       <c r="B179" s="20" t="s">
         <v>614</v>
       </c>
       <c r="C179" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D179" s="22" t="s">
         <v>615</v>
@@ -13830,7 +13821,7 @@
         <v>616</v>
       </c>
       <c r="F179" s="23" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G179" s="23" t="s">
         <v>24</v>
@@ -13866,16 +13857,16 @@
         <v>100</v>
       </c>
       <c r="R179" s="24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" s="19" customFormat="1" ht="63" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A180" s="14"/>
       <c r="B180" s="20" t="s">
         <v>617</v>
       </c>
       <c r="C180" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D180" s="22" t="s">
         <v>618</v>
@@ -13884,7 +13875,7 @@
         <v>619</v>
       </c>
       <c r="F180" s="23" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G180" s="23" t="s">
         <v>24</v>
@@ -13911,16 +13902,16 @@
         <v>100</v>
       </c>
       <c r="O180" s="23">
-        <v>99.280575539568403</v>
+        <v>100</v>
       </c>
       <c r="P180" s="23">
-        <v>99.999387560390403</v>
+        <v>100</v>
       </c>
       <c r="Q180" s="23">
         <v>100</v>
       </c>
       <c r="R180" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="181" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
@@ -13929,7 +13920,7 @@
         <v>620</v>
       </c>
       <c r="C181" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D181" s="22" t="s">
         <v>621</v>
@@ -13938,7 +13929,7 @@
         <v>622</v>
       </c>
       <c r="F181" s="23" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G181" s="23" t="s">
         <v>24</v>
@@ -13956,34 +13947,34 @@
         <v>2019</v>
       </c>
       <c r="L181" s="23">
-        <v>100</v>
+        <v>79.629629629629704</v>
       </c>
       <c r="M181" s="23">
-        <v>100</v>
+        <v>92.641810129895205</v>
       </c>
       <c r="N181" s="23">
-        <v>100</v>
+        <v>86.532278625992404</v>
       </c>
       <c r="O181" s="23">
-        <v>100</v>
+        <v>79.856115107913695</v>
       </c>
       <c r="P181" s="23">
-        <v>100</v>
+        <v>98.692591215380205</v>
       </c>
       <c r="Q181" s="23">
-        <v>100</v>
+        <v>97.973631904876697</v>
       </c>
       <c r="R181" s="24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" s="19" customFormat="1" ht="84" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A182" s="14"/>
       <c r="B182" s="20" t="s">
         <v>623</v>
       </c>
       <c r="C182" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D182" s="22" t="s">
         <v>624</v>
@@ -13992,10 +13983,10 @@
         <v>625</v>
       </c>
       <c r="F182" s="23" t="s">
-        <v>612</v>
+        <v>39</v>
       </c>
       <c r="G182" s="23" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H182" s="23" t="s">
         <v>25</v>
@@ -14004,46 +13995,46 @@
         <v>26</v>
       </c>
       <c r="J182" s="23" t="s">
-        <v>62</v>
+        <v>626</v>
       </c>
       <c r="K182" s="23">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="L182" s="23">
-        <v>79.629629629629704</v>
+        <v>74.074074074074105</v>
       </c>
       <c r="M182" s="23">
-        <v>92.641810129895205</v>
+        <v>82.903086885225505</v>
       </c>
       <c r="N182" s="23">
-        <v>86.532278625992404</v>
+        <v>91.054379317263695</v>
       </c>
       <c r="O182" s="23">
-        <v>79.856115107913695</v>
+        <v>81.294964028777002</v>
       </c>
       <c r="P182" s="23">
-        <v>98.692591215380205</v>
+        <v>95.959762571618896</v>
       </c>
       <c r="Q182" s="23">
-        <v>97.973631904876697</v>
+        <v>98.525527145877803</v>
       </c>
       <c r="R182" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="183" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="20" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C183" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="F183" s="23" t="s">
         <v>39</v>
@@ -14058,31 +14049,31 @@
         <v>26</v>
       </c>
       <c r="J183" s="23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K183" s="23">
         <v>2018</v>
       </c>
       <c r="L183" s="23">
-        <v>74.074074074074105</v>
+        <v>70.370370370370395</v>
       </c>
       <c r="M183" s="23">
-        <v>82.903086885225505</v>
+        <v>82.7927389095085</v>
       </c>
       <c r="N183" s="23">
-        <v>91.054379317263695</v>
+        <v>90.5850509593336</v>
       </c>
       <c r="O183" s="23">
-        <v>81.294964028777002</v>
+        <v>74.820143884892104</v>
       </c>
       <c r="P183" s="23">
-        <v>95.959762571618896</v>
+        <v>95.807879199103496</v>
       </c>
       <c r="Q183" s="23">
-        <v>98.525527145877803</v>
+        <v>97.952777229149206</v>
       </c>
       <c r="R183" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="184" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -14091,7 +14082,7 @@
         <v>630</v>
       </c>
       <c r="C184" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D184" s="22" t="s">
         <v>631</v>
@@ -14112,31 +14103,31 @@
         <v>26</v>
       </c>
       <c r="J184" s="23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K184" s="23">
         <v>2018</v>
       </c>
       <c r="L184" s="23">
-        <v>70.370370370370395</v>
+        <v>74.074074074074105</v>
       </c>
       <c r="M184" s="23">
-        <v>82.7927389095085</v>
+        <v>82.903086885225505</v>
       </c>
       <c r="N184" s="23">
-        <v>90.5850509593336</v>
+        <v>91.054379317263695</v>
       </c>
       <c r="O184" s="23">
-        <v>74.820143884892104</v>
+        <v>81.294964028777002</v>
       </c>
       <c r="P184" s="23">
-        <v>95.807879199103496</v>
+        <v>95.959762571618896</v>
       </c>
       <c r="Q184" s="23">
-        <v>97.952777229149206</v>
+        <v>98.525527145877803</v>
       </c>
       <c r="R184" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="185" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -14145,7 +14136,7 @@
         <v>633</v>
       </c>
       <c r="C185" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D185" s="22" t="s">
         <v>634</v>
@@ -14166,7 +14157,7 @@
         <v>26</v>
       </c>
       <c r="J185" s="23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K185" s="23">
         <v>2018</v>
@@ -14190,7 +14181,7 @@
         <v>98.525527145877803</v>
       </c>
       <c r="R185" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="186" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -14199,7 +14190,7 @@
         <v>636</v>
       </c>
       <c r="C186" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D186" s="22" t="s">
         <v>637</v>
@@ -14220,31 +14211,31 @@
         <v>26</v>
       </c>
       <c r="J186" s="23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K186" s="23">
         <v>2018</v>
       </c>
       <c r="L186" s="23">
-        <v>74.074074074074105</v>
+        <v>70.370370370370395</v>
       </c>
       <c r="M186" s="23">
-        <v>82.903086885225505</v>
+        <v>81.403706552136597</v>
       </c>
       <c r="N186" s="23">
-        <v>91.054379317263695</v>
+        <v>90.407835994613905</v>
       </c>
       <c r="O186" s="23">
-        <v>81.294964028777002</v>
+        <v>77.697841726618705</v>
       </c>
       <c r="P186" s="23">
-        <v>95.959762571618896</v>
+        <v>95.8235704475603</v>
       </c>
       <c r="Q186" s="23">
-        <v>98.525527145877803</v>
+        <v>98.307975057834398</v>
       </c>
       <c r="R186" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="187" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -14253,7 +14244,7 @@
         <v>639</v>
       </c>
       <c r="C187" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D187" s="22" t="s">
         <v>640</v>
@@ -14274,31 +14265,31 @@
         <v>26</v>
       </c>
       <c r="J187" s="23" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="K187" s="23">
         <v>2018</v>
       </c>
       <c r="L187" s="23">
-        <v>70.370370370370395</v>
+        <v>59.259259259259302</v>
       </c>
       <c r="M187" s="23">
-        <v>81.403706552136597</v>
+        <v>77.311866570297298</v>
       </c>
       <c r="N187" s="23">
-        <v>90.407835994613905</v>
+        <v>87.466665154820802</v>
       </c>
       <c r="O187" s="23">
-        <v>77.697841726618705</v>
+        <v>68.345323741007206</v>
       </c>
       <c r="P187" s="23">
-        <v>95.8235704475603</v>
+        <v>95.013598607277004</v>
       </c>
       <c r="Q187" s="23">
-        <v>98.307975057834398</v>
+        <v>97.171022267627805</v>
       </c>
       <c r="R187" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="188" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
@@ -14307,121 +14298,121 @@
         <v>642</v>
       </c>
       <c r="C188" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D188" s="22" t="s">
         <v>643</v>
       </c>
       <c r="E188" s="22" t="s">
+        <v>641</v>
+      </c>
+      <c r="F188" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="F188" s="23" t="s">
-        <v>39</v>
-      </c>
       <c r="G188" s="23" t="s">
-        <v>34</v>
+        <v>322</v>
       </c>
       <c r="H188" s="23" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I188" s="23" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J188" s="23" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="K188" s="23">
         <v>2018</v>
       </c>
       <c r="L188" s="23">
-        <v>59.259259259259302</v>
+        <v>83.3333333333334</v>
       </c>
       <c r="M188" s="23">
-        <v>77.311866570297298</v>
+        <v>89.515242110212796</v>
       </c>
       <c r="N188" s="23">
-        <v>87.466665154820802</v>
+        <v>96.112476361172199</v>
       </c>
       <c r="O188" s="23">
-        <v>68.345323741007206</v>
+        <v>87.7697841726619</v>
       </c>
       <c r="P188" s="23">
-        <v>95.013598607277004</v>
+        <v>99.408394954209498</v>
       </c>
       <c r="Q188" s="23">
-        <v>97.171022267627805</v>
+        <v>99.191647759672307</v>
       </c>
       <c r="R188" s="24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" s="19" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="189" spans="1:18" s="19" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="20" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C189" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="F189" s="23" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G189" s="23" t="s">
-        <v>322</v>
+        <v>50</v>
       </c>
       <c r="H189" s="23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I189" s="23" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J189" s="23" t="s">
-        <v>648</v>
+        <v>62</v>
       </c>
       <c r="K189" s="23">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="L189" s="23">
-        <v>83.3333333333334</v>
+        <v>74.074074074074105</v>
       </c>
       <c r="M189" s="23">
-        <v>89.515242110212796</v>
+        <v>94.728100171111805</v>
       </c>
       <c r="N189" s="23">
-        <v>96.112476361172199</v>
+        <v>97.648311280527594</v>
       </c>
       <c r="O189" s="23">
-        <v>87.7697841726619</v>
+        <v>86.330935251798607</v>
       </c>
       <c r="P189" s="23">
-        <v>99.408394954209498</v>
+        <v>99.075243835509696</v>
       </c>
       <c r="Q189" s="23">
-        <v>99.191647759672307</v>
+        <v>99.377930460443693</v>
       </c>
       <c r="R189" s="24" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="190" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A190" s="14"/>
       <c r="B190" s="20" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C190" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F190" s="23" t="s">
         <v>652</v>
@@ -14430,7 +14421,7 @@
         <v>50</v>
       </c>
       <c r="H190" s="23" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I190" s="23" t="s">
         <v>26</v>
@@ -14460,31 +14451,31 @@
         <v>99.377930460443693</v>
       </c>
       <c r="R190" s="24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18" ht="52.5" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A191" s="14"/>
       <c r="B191" s="20" t="s">
         <v>653</v>
       </c>
       <c r="C191" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D191" s="22" t="s">
         <v>654</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="F191" s="23" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="G191" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H191" s="23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I191" s="23" t="s">
         <v>26</v>
@@ -14496,34 +14487,34 @@
         <v>2019</v>
       </c>
       <c r="L191" s="23">
-        <v>74.074074074074105</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="M191" s="23">
-        <v>94.728100171111805</v>
+        <v>99.153185348443003</v>
       </c>
       <c r="N191" s="23">
-        <v>97.648311280527594</v>
+        <v>99.8285571665877</v>
       </c>
       <c r="O191" s="23">
-        <v>86.330935251798607</v>
+        <v>92.086330935251794</v>
       </c>
       <c r="P191" s="23">
-        <v>99.075243835509696</v>
+        <v>98.948106609422894</v>
       </c>
       <c r="Q191" s="23">
-        <v>99.377930460443693</v>
+        <v>99.516198155947194</v>
       </c>
       <c r="R191" s="24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" ht="31.5" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A192" s="14"/>
       <c r="B192" s="20" t="s">
         <v>656</v>
       </c>
       <c r="C192" s="33" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D192" s="22" t="s">
         <v>657</v>
@@ -14532,10 +14523,10 @@
         <v>658</v>
       </c>
       <c r="F192" s="23" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="G192" s="23" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H192" s="23" t="s">
         <v>25</v>
@@ -14550,46 +14541,46 @@
         <v>2019</v>
       </c>
       <c r="L192" s="23">
-        <v>98.148148148148195</v>
+        <v>100</v>
       </c>
       <c r="M192" s="23">
-        <v>99.153185348443003</v>
+        <v>100</v>
       </c>
       <c r="N192" s="23">
-        <v>99.8285571665877</v>
+        <v>100</v>
       </c>
       <c r="O192" s="23">
-        <v>92.086330935251794</v>
+        <v>97.122302158273399</v>
       </c>
       <c r="P192" s="23">
-        <v>98.948106609422894</v>
+        <v>99.997045273968197</v>
       </c>
       <c r="Q192" s="23">
-        <v>99.516198155947194</v>
+        <v>99.994691461993796</v>
       </c>
       <c r="R192" s="24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A193" s="14"/>
       <c r="B193" s="20" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C193" s="33" t="s">
-        <v>609</v>
-      </c>
-      <c r="D193" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="E193" s="22" t="s">
         <v>661</v>
       </c>
+      <c r="D193" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E193" s="26" t="s">
+        <v>663</v>
+      </c>
       <c r="F193" s="23" t="s">
-        <v>662</v>
+        <v>39</v>
       </c>
       <c r="G193" s="23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H193" s="23" t="s">
         <v>25</v>
@@ -14598,46 +14589,46 @@
         <v>26</v>
       </c>
       <c r="J193" s="23" t="s">
-        <v>62</v>
+        <v>664</v>
       </c>
       <c r="K193" s="23">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="L193" s="23">
-        <v>100</v>
+        <v>90.740740740740804</v>
       </c>
       <c r="M193" s="23">
-        <v>100</v>
+        <v>95.485969626984996</v>
       </c>
       <c r="N193" s="23">
-        <v>100</v>
+        <v>96.152457639321497</v>
       </c>
       <c r="O193" s="23">
-        <v>97.122302158273399</v>
+        <v>89.928057553956904</v>
       </c>
       <c r="P193" s="23">
-        <v>99.997045273968197</v>
+        <v>99.955535438109806</v>
       </c>
       <c r="Q193" s="23">
-        <v>99.994691461993796</v>
+        <v>99.986758090204205</v>
       </c>
       <c r="R193" s="24" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" ht="136.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A194" s="14"/>
       <c r="B194" s="20" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C194" s="33" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D194" s="26" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="F194" s="23" t="s">
         <v>39</v>
@@ -14652,7 +14643,7 @@
         <v>26</v>
       </c>
       <c r="J194" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K194" s="23">
         <v>2015</v>
@@ -14676,16 +14667,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R194" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A195" s="14"/>
       <c r="B195" s="20" t="s">
         <v>669</v>
       </c>
       <c r="C195" s="33" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D195" s="26" t="s">
         <v>670</v>
@@ -14706,7 +14697,7 @@
         <v>26</v>
       </c>
       <c r="J195" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K195" s="23">
         <v>2015</v>
@@ -14730,7 +14721,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R195" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="196" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
@@ -14739,7 +14730,7 @@
         <v>672</v>
       </c>
       <c r="C196" s="33" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D196" s="26" t="s">
         <v>673</v>
@@ -14760,7 +14751,7 @@
         <v>26</v>
       </c>
       <c r="J196" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K196" s="23">
         <v>2015</v>
@@ -14784,22 +14775,22 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R196" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" ht="73.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="20" t="s">
         <v>675</v>
       </c>
       <c r="C197" s="33" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="D197" s="26" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F197" s="23" t="s">
         <v>39</v>
@@ -14814,7 +14805,7 @@
         <v>26</v>
       </c>
       <c r="J197" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K197" s="23">
         <v>2015</v>
@@ -14838,16 +14829,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R197" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="198" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="20" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C198" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D198" s="26" t="s">
         <v>680</v>
@@ -14868,7 +14859,7 @@
         <v>26</v>
       </c>
       <c r="J198" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K198" s="23">
         <v>2015</v>
@@ -14892,7 +14883,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R198" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="199" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -14901,7 +14892,7 @@
         <v>682</v>
       </c>
       <c r="C199" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D199" s="26" t="s">
         <v>683</v>
@@ -14922,7 +14913,7 @@
         <v>26</v>
       </c>
       <c r="J199" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K199" s="23">
         <v>2015</v>
@@ -14946,7 +14937,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R199" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="200" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -14955,7 +14946,7 @@
         <v>685</v>
       </c>
       <c r="C200" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D200" s="26" t="s">
         <v>686</v>
@@ -14976,7 +14967,7 @@
         <v>26</v>
       </c>
       <c r="J200" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K200" s="23">
         <v>2015</v>
@@ -15000,16 +14991,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R200" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A201" s="14"/>
       <c r="B201" s="20" t="s">
         <v>688</v>
       </c>
       <c r="C201" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D201" s="26" t="s">
         <v>689</v>
@@ -15030,7 +15021,7 @@
         <v>26</v>
       </c>
       <c r="J201" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K201" s="23">
         <v>2015</v>
@@ -15054,16 +15045,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R201" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A202" s="14"/>
       <c r="B202" s="20" t="s">
         <v>691</v>
       </c>
       <c r="C202" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D202" s="26" t="s">
         <v>692</v>
@@ -15084,7 +15075,7 @@
         <v>26</v>
       </c>
       <c r="J202" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K202" s="23">
         <v>2015</v>
@@ -15108,16 +15099,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R202" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A203" s="14"/>
       <c r="B203" s="20" t="s">
         <v>694</v>
       </c>
       <c r="C203" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D203" s="26" t="s">
         <v>695</v>
@@ -15138,7 +15129,7 @@
         <v>26</v>
       </c>
       <c r="J203" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K203" s="23">
         <v>2015</v>
@@ -15162,16 +15153,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R203" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="204" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A204" s="14"/>
       <c r="B204" s="20" t="s">
         <v>697</v>
       </c>
       <c r="C204" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D204" s="26" t="s">
         <v>698</v>
@@ -15192,7 +15183,7 @@
         <v>26</v>
       </c>
       <c r="J204" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K204" s="23">
         <v>2015</v>
@@ -15216,16 +15207,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R204" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="205" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="205" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A205" s="14"/>
       <c r="B205" s="20" t="s">
         <v>700</v>
       </c>
       <c r="C205" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D205" s="26" t="s">
         <v>701</v>
@@ -15246,7 +15237,7 @@
         <v>26</v>
       </c>
       <c r="J205" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K205" s="23">
         <v>2015</v>
@@ -15270,16 +15261,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R205" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="206" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="206" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A206" s="14"/>
       <c r="B206" s="20" t="s">
         <v>703</v>
       </c>
       <c r="C206" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D206" s="26" t="s">
         <v>704</v>
@@ -15300,7 +15291,7 @@
         <v>26</v>
       </c>
       <c r="J206" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K206" s="23">
         <v>2015</v>
@@ -15324,7 +15315,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R206" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="207" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -15333,7 +15324,7 @@
         <v>706</v>
       </c>
       <c r="C207" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D207" s="26" t="s">
         <v>707</v>
@@ -15354,7 +15345,7 @@
         <v>26</v>
       </c>
       <c r="J207" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K207" s="23">
         <v>2015</v>
@@ -15378,7 +15369,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R207" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="208" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -15387,7 +15378,7 @@
         <v>709</v>
       </c>
       <c r="C208" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D208" s="26" t="s">
         <v>710</v>
@@ -15408,7 +15399,7 @@
         <v>26</v>
       </c>
       <c r="J208" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K208" s="23">
         <v>2015</v>
@@ -15432,16 +15423,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R208" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="209" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A209" s="14"/>
       <c r="B209" s="20" t="s">
         <v>712</v>
       </c>
       <c r="C209" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D209" s="26" t="s">
         <v>713</v>
@@ -15462,7 +15453,7 @@
         <v>26</v>
       </c>
       <c r="J209" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K209" s="23">
         <v>2015</v>
@@ -15486,16 +15477,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R209" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="210" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A210" s="14"/>
       <c r="B210" s="20" t="s">
         <v>715</v>
       </c>
       <c r="C210" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D210" s="26" t="s">
         <v>716</v>
@@ -15516,7 +15507,7 @@
         <v>26</v>
       </c>
       <c r="J210" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K210" s="23">
         <v>2015</v>
@@ -15540,7 +15531,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R210" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="211" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -15549,7 +15540,7 @@
         <v>718</v>
       </c>
       <c r="C211" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D211" s="26" t="s">
         <v>719</v>
@@ -15570,7 +15561,7 @@
         <v>26</v>
       </c>
       <c r="J211" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K211" s="23">
         <v>2015</v>
@@ -15594,7 +15585,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R211" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="212" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -15603,7 +15594,7 @@
         <v>721</v>
       </c>
       <c r="C212" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D212" s="26" t="s">
         <v>722</v>
@@ -15624,7 +15615,7 @@
         <v>26</v>
       </c>
       <c r="J212" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K212" s="23">
         <v>2015</v>
@@ -15648,7 +15639,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R212" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="213" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -15657,7 +15648,7 @@
         <v>724</v>
       </c>
       <c r="C213" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D213" s="26" t="s">
         <v>725</v>
@@ -15678,7 +15669,7 @@
         <v>26</v>
       </c>
       <c r="J213" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K213" s="23">
         <v>2015</v>
@@ -15702,7 +15693,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R213" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="214" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -15711,7 +15702,7 @@
         <v>727</v>
       </c>
       <c r="C214" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D214" s="26" t="s">
         <v>728</v>
@@ -15732,7 +15723,7 @@
         <v>26</v>
       </c>
       <c r="J214" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K214" s="23">
         <v>2015</v>
@@ -15756,7 +15747,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R214" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="215" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -15765,7 +15756,7 @@
         <v>730</v>
       </c>
       <c r="C215" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D215" s="26" t="s">
         <v>731</v>
@@ -15786,7 +15777,7 @@
         <v>26</v>
       </c>
       <c r="J215" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K215" s="23">
         <v>2015</v>
@@ -15810,16 +15801,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R215" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A216" s="14"/>
       <c r="B216" s="20" t="s">
         <v>733</v>
       </c>
       <c r="C216" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D216" s="26" t="s">
         <v>734</v>
@@ -15840,7 +15831,7 @@
         <v>26</v>
       </c>
       <c r="J216" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K216" s="23">
         <v>2015</v>
@@ -15864,7 +15855,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R216" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="217" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -15873,7 +15864,7 @@
         <v>736</v>
       </c>
       <c r="C217" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D217" s="26" t="s">
         <v>737</v>
@@ -15894,7 +15885,7 @@
         <v>26</v>
       </c>
       <c r="J217" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K217" s="23">
         <v>2015</v>
@@ -15918,16 +15909,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R217" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A218" s="14"/>
       <c r="B218" s="20" t="s">
         <v>739</v>
       </c>
       <c r="C218" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D218" s="26" t="s">
         <v>740</v>
@@ -15948,7 +15939,7 @@
         <v>26</v>
       </c>
       <c r="J218" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K218" s="23">
         <v>2015</v>
@@ -15972,16 +15963,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R218" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A219" s="14"/>
       <c r="B219" s="20" t="s">
         <v>742</v>
       </c>
       <c r="C219" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D219" s="26" t="s">
         <v>743</v>
@@ -16002,7 +15993,7 @@
         <v>26</v>
       </c>
       <c r="J219" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K219" s="23">
         <v>2015</v>
@@ -16026,16 +16017,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R219" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A220" s="14"/>
       <c r="B220" s="20" t="s">
         <v>745</v>
       </c>
       <c r="C220" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D220" s="26" t="s">
         <v>746</v>
@@ -16056,7 +16047,7 @@
         <v>26</v>
       </c>
       <c r="J220" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K220" s="23">
         <v>2015</v>
@@ -16080,7 +16071,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R220" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="221" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -16089,7 +16080,7 @@
         <v>748</v>
       </c>
       <c r="C221" s="33" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D221" s="26" t="s">
         <v>749</v>
@@ -16110,7 +16101,7 @@
         <v>26</v>
       </c>
       <c r="J221" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K221" s="23">
         <v>2015</v>
@@ -16134,7 +16125,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R221" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="222" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -16143,13 +16134,13 @@
         <v>751</v>
       </c>
       <c r="C222" s="33" t="s">
-        <v>679</v>
+        <v>752</v>
       </c>
       <c r="D222" s="26" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E222" s="26" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F222" s="23" t="s">
         <v>39</v>
@@ -16164,7 +16155,7 @@
         <v>26</v>
       </c>
       <c r="J222" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K222" s="23">
         <v>2015</v>
@@ -16188,16 +16179,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R222" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="223" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A223" s="14"/>
       <c r="B223" s="20" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C223" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D223" s="26" t="s">
         <v>756</v>
@@ -16218,7 +16209,7 @@
         <v>26</v>
       </c>
       <c r="J223" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K223" s="23">
         <v>2015</v>
@@ -16242,7 +16233,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R223" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="224" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -16251,7 +16242,7 @@
         <v>758</v>
       </c>
       <c r="C224" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D224" s="26" t="s">
         <v>759</v>
@@ -16272,7 +16263,7 @@
         <v>26</v>
       </c>
       <c r="J224" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K224" s="23">
         <v>2015</v>
@@ -16296,7 +16287,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R224" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="225" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -16305,7 +16296,7 @@
         <v>761</v>
       </c>
       <c r="C225" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D225" s="26" t="s">
         <v>762</v>
@@ -16326,7 +16317,7 @@
         <v>26</v>
       </c>
       <c r="J225" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K225" s="23">
         <v>2015</v>
@@ -16350,7 +16341,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R225" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="226" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -16359,7 +16350,7 @@
         <v>764</v>
       </c>
       <c r="C226" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D226" s="26" t="s">
         <v>765</v>
@@ -16380,7 +16371,7 @@
         <v>26</v>
       </c>
       <c r="J226" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K226" s="23">
         <v>2015</v>
@@ -16404,16 +16395,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R226" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A227" s="14"/>
       <c r="B227" s="20" t="s">
         <v>767</v>
       </c>
       <c r="C227" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D227" s="26" t="s">
         <v>768</v>
@@ -16434,7 +16425,7 @@
         <v>26</v>
       </c>
       <c r="J227" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K227" s="23">
         <v>2015</v>
@@ -16458,16 +16449,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R227" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="228" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A228" s="14"/>
       <c r="B228" s="20" t="s">
         <v>770</v>
       </c>
       <c r="C228" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D228" s="26" t="s">
         <v>771</v>
@@ -16488,7 +16479,7 @@
         <v>26</v>
       </c>
       <c r="J228" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K228" s="23">
         <v>2015</v>
@@ -16512,16 +16503,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R228" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A229" s="14"/>
       <c r="B229" s="20" t="s">
         <v>773</v>
       </c>
       <c r="C229" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D229" s="26" t="s">
         <v>774</v>
@@ -16542,7 +16533,7 @@
         <v>26</v>
       </c>
       <c r="J229" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K229" s="23">
         <v>2015</v>
@@ -16566,16 +16557,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R229" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="230" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A230" s="14"/>
       <c r="B230" s="20" t="s">
         <v>776</v>
       </c>
       <c r="C230" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D230" s="26" t="s">
         <v>777</v>
@@ -16596,7 +16587,7 @@
         <v>26</v>
       </c>
       <c r="J230" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K230" s="23">
         <v>2015</v>
@@ -16620,16 +16611,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R230" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="231" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A231" s="14"/>
       <c r="B231" s="20" t="s">
         <v>779</v>
       </c>
       <c r="C231" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D231" s="26" t="s">
         <v>780</v>
@@ -16650,7 +16641,7 @@
         <v>26</v>
       </c>
       <c r="J231" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K231" s="23">
         <v>2015</v>
@@ -16674,16 +16665,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R231" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="232" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A232" s="14"/>
       <c r="B232" s="20" t="s">
         <v>782</v>
       </c>
       <c r="C232" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D232" s="26" t="s">
         <v>783</v>
@@ -16704,7 +16695,7 @@
         <v>26</v>
       </c>
       <c r="J232" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K232" s="23">
         <v>2015</v>
@@ -16728,7 +16719,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R232" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="233" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -16737,7 +16728,7 @@
         <v>785</v>
       </c>
       <c r="C233" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D233" s="26" t="s">
         <v>786</v>
@@ -16758,7 +16749,7 @@
         <v>26</v>
       </c>
       <c r="J233" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K233" s="23">
         <v>2015</v>
@@ -16782,7 +16773,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R233" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="234" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -16791,7 +16782,7 @@
         <v>788</v>
       </c>
       <c r="C234" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D234" s="26" t="s">
         <v>789</v>
@@ -16812,7 +16803,7 @@
         <v>26</v>
       </c>
       <c r="J234" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K234" s="23">
         <v>2015</v>
@@ -16836,16 +16827,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R234" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="235" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A235" s="14"/>
       <c r="B235" s="20" t="s">
         <v>791</v>
       </c>
       <c r="C235" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D235" s="26" t="s">
         <v>792</v>
@@ -16866,7 +16857,7 @@
         <v>26</v>
       </c>
       <c r="J235" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K235" s="23">
         <v>2015</v>
@@ -16890,16 +16881,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R235" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="236" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A236" s="14"/>
       <c r="B236" s="20" t="s">
         <v>794</v>
       </c>
       <c r="C236" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D236" s="26" t="s">
         <v>795</v>
@@ -16920,7 +16911,7 @@
         <v>26</v>
       </c>
       <c r="J236" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K236" s="23">
         <v>2015</v>
@@ -16944,7 +16935,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R236" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="237" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -16953,7 +16944,7 @@
         <v>797</v>
       </c>
       <c r="C237" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D237" s="26" t="s">
         <v>798</v>
@@ -16974,7 +16965,7 @@
         <v>26</v>
       </c>
       <c r="J237" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K237" s="23">
         <v>2015</v>
@@ -16998,7 +16989,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R237" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="238" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -17007,7 +16998,7 @@
         <v>800</v>
       </c>
       <c r="C238" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D238" s="26" t="s">
         <v>801</v>
@@ -17028,7 +17019,7 @@
         <v>26</v>
       </c>
       <c r="J238" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K238" s="23">
         <v>2015</v>
@@ -17052,7 +17043,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R238" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="239" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -17061,7 +17052,7 @@
         <v>803</v>
       </c>
       <c r="C239" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D239" s="26" t="s">
         <v>804</v>
@@ -17082,7 +17073,7 @@
         <v>26</v>
       </c>
       <c r="J239" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K239" s="23">
         <v>2015</v>
@@ -17106,7 +17097,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R239" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="240" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -17115,7 +17106,7 @@
         <v>806</v>
       </c>
       <c r="C240" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D240" s="26" t="s">
         <v>807</v>
@@ -17136,7 +17127,7 @@
         <v>26</v>
       </c>
       <c r="J240" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K240" s="23">
         <v>2015</v>
@@ -17160,7 +17151,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R240" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="241" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -17169,7 +17160,7 @@
         <v>809</v>
       </c>
       <c r="C241" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D241" s="26" t="s">
         <v>810</v>
@@ -17190,7 +17181,7 @@
         <v>26</v>
       </c>
       <c r="J241" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K241" s="23">
         <v>2015</v>
@@ -17214,16 +17205,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R241" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A242" s="14"/>
       <c r="B242" s="20" t="s">
         <v>812</v>
       </c>
       <c r="C242" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D242" s="26" t="s">
         <v>813</v>
@@ -17244,7 +17235,7 @@
         <v>26</v>
       </c>
       <c r="J242" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K242" s="23">
         <v>2015</v>
@@ -17268,7 +17259,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R242" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="243" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17277,7 +17268,7 @@
         <v>815</v>
       </c>
       <c r="C243" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D243" s="26" t="s">
         <v>816</v>
@@ -17298,7 +17289,7 @@
         <v>26</v>
       </c>
       <c r="J243" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K243" s="23">
         <v>2015</v>
@@ -17322,16 +17313,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R243" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="244" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="244" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A244" s="14"/>
       <c r="B244" s="20" t="s">
         <v>818</v>
       </c>
       <c r="C244" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D244" s="26" t="s">
         <v>819</v>
@@ -17352,7 +17343,7 @@
         <v>26</v>
       </c>
       <c r="J244" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K244" s="23">
         <v>2015</v>
@@ -17376,16 +17367,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R244" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="245" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="245" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A245" s="14"/>
       <c r="B245" s="20" t="s">
         <v>821</v>
       </c>
       <c r="C245" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D245" s="26" t="s">
         <v>822</v>
@@ -17406,7 +17397,7 @@
         <v>26</v>
       </c>
       <c r="J245" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K245" s="23">
         <v>2015</v>
@@ -17430,16 +17421,16 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R245" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="246" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="246" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A246" s="14"/>
       <c r="B246" s="20" t="s">
         <v>824</v>
       </c>
       <c r="C246" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D246" s="26" t="s">
         <v>825</v>
@@ -17460,7 +17451,7 @@
         <v>26</v>
       </c>
       <c r="J246" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K246" s="23">
         <v>2015</v>
@@ -17484,7 +17475,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R246" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="247" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -17493,7 +17484,7 @@
         <v>827</v>
       </c>
       <c r="C247" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D247" s="26" t="s">
         <v>828</v>
@@ -17514,7 +17505,7 @@
         <v>26</v>
       </c>
       <c r="J247" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K247" s="23">
         <v>2015</v>
@@ -17538,7 +17529,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R247" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="248" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -17547,7 +17538,7 @@
         <v>830</v>
       </c>
       <c r="C248" s="33" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D248" s="26" t="s">
         <v>831</v>
@@ -17568,7 +17559,7 @@
         <v>26</v>
       </c>
       <c r="J248" s="23" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K248" s="23">
         <v>2015</v>
@@ -17592,7 +17583,7 @@
         <v>99.986758090204205</v>
       </c>
       <c r="R248" s="24" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="249" spans="1:18" ht="84" x14ac:dyDescent="0.35">
@@ -17601,13 +17592,13 @@
         <v>833</v>
       </c>
       <c r="C249" s="33" t="s">
-        <v>755</v>
+        <v>834</v>
       </c>
       <c r="D249" s="26" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E249" s="26" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F249" s="23" t="s">
         <v>39</v>
@@ -17622,46 +17613,46 @@
         <v>26</v>
       </c>
       <c r="J249" s="23" t="s">
-        <v>667</v>
+        <v>837</v>
       </c>
       <c r="K249" s="23">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="L249" s="23">
-        <v>90.740740740740804</v>
+        <v>94.4444444444445</v>
       </c>
       <c r="M249" s="23">
-        <v>95.485969626984996</v>
+        <v>99.684014009388207</v>
       </c>
       <c r="N249" s="23">
-        <v>96.152457639321497</v>
+        <v>99.5068057057576</v>
       </c>
       <c r="O249" s="23">
         <v>89.928057553956904</v>
       </c>
       <c r="P249" s="23">
-        <v>99.955535438109806</v>
+        <v>99.953979407682397</v>
       </c>
       <c r="Q249" s="23">
-        <v>99.986758090204205</v>
+        <v>99.986365245283906</v>
       </c>
       <c r="R249" s="24" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="250" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="250" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A250" s="14"/>
       <c r="B250" s="20" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C250" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D250" s="26" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E250" s="26" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="F250" s="23" t="s">
         <v>39</v>
@@ -17676,7 +17667,7 @@
         <v>26</v>
       </c>
       <c r="J250" s="23" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="K250" s="23">
         <v>2019</v>
@@ -17700,7 +17691,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R250" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="251" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17709,7 +17700,7 @@
         <v>842</v>
       </c>
       <c r="C251" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D251" s="26" t="s">
         <v>843</v>
@@ -17730,7 +17721,7 @@
         <v>26</v>
       </c>
       <c r="J251" s="23" t="s">
-        <v>840</v>
+        <v>62</v>
       </c>
       <c r="K251" s="23">
         <v>2019</v>
@@ -17754,7 +17745,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R251" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="252" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17763,7 +17754,7 @@
         <v>845</v>
       </c>
       <c r="C252" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D252" s="26" t="s">
         <v>846</v>
@@ -17808,7 +17799,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R252" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="253" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17817,7 +17808,7 @@
         <v>848</v>
       </c>
       <c r="C253" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D253" s="26" t="s">
         <v>849</v>
@@ -17862,7 +17853,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R253" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="254" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -17871,7 +17862,7 @@
         <v>851</v>
       </c>
       <c r="C254" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D254" s="26" t="s">
         <v>852</v>
@@ -17916,16 +17907,16 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R254" s="24" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="255" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="255" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A255" s="27"/>
       <c r="B255" s="20" t="s">
         <v>854</v>
       </c>
       <c r="C255" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D255" s="26" t="s">
         <v>855</v>
@@ -17946,7 +17937,7 @@
         <v>26</v>
       </c>
       <c r="J255" s="23" t="s">
-        <v>62</v>
+        <v>837</v>
       </c>
       <c r="K255" s="23">
         <v>2019</v>
@@ -17970,16 +17961,16 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R255" s="24" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="256" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A256" s="27"/>
       <c r="B256" s="20" t="s">
         <v>857</v>
       </c>
       <c r="C256" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D256" s="26" t="s">
         <v>858</v>
@@ -18000,7 +17991,7 @@
         <v>26</v>
       </c>
       <c r="J256" s="23" t="s">
-        <v>840</v>
+        <v>62</v>
       </c>
       <c r="K256" s="23">
         <v>2019</v>
@@ -18024,7 +18015,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R256" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="257" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18033,7 +18024,7 @@
         <v>860</v>
       </c>
       <c r="C257" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D257" s="26" t="s">
         <v>861</v>
@@ -18078,7 +18069,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R257" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="258" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18087,7 +18078,7 @@
         <v>863</v>
       </c>
       <c r="C258" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D258" s="26" t="s">
         <v>864</v>
@@ -18132,7 +18123,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R258" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="259" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18141,7 +18132,7 @@
         <v>866</v>
       </c>
       <c r="C259" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D259" s="26" t="s">
         <v>867</v>
@@ -18186,16 +18177,16 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R259" s="24" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" ht="84" x14ac:dyDescent="0.35">
       <c r="A260" s="27"/>
       <c r="B260" s="20" t="s">
         <v>869</v>
       </c>
       <c r="C260" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D260" s="26" t="s">
         <v>870</v>
@@ -18204,16 +18195,16 @@
         <v>871</v>
       </c>
       <c r="F260" s="23" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G260" s="23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H260" s="23" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I260" s="23" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="J260" s="23" t="s">
         <v>62</v>
@@ -18231,25 +18222,25 @@
         <v>99.5068057057576</v>
       </c>
       <c r="O260" s="23">
-        <v>89.928057553956904</v>
+        <v>86.330935251798607</v>
       </c>
       <c r="P260" s="23">
-        <v>99.953979407682397</v>
+        <v>99.102961336818197</v>
       </c>
       <c r="Q260" s="23">
         <v>99.986365245283906</v>
       </c>
       <c r="R260" s="24" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" ht="84" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A261" s="27"/>
       <c r="B261" s="20" t="s">
         <v>872</v>
       </c>
       <c r="C261" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D261" s="26" t="s">
         <v>873</v>
@@ -18270,7 +18261,7 @@
         <v>46</v>
       </c>
       <c r="J261" s="23" t="s">
-        <v>62</v>
+        <v>837</v>
       </c>
       <c r="K261" s="23">
         <v>2019</v>
@@ -18294,7 +18285,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R261" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="262" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18303,7 +18294,7 @@
         <v>875</v>
       </c>
       <c r="C262" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D262" s="26" t="s">
         <v>876</v>
@@ -18324,7 +18315,7 @@
         <v>46</v>
       </c>
       <c r="J262" s="23" t="s">
-        <v>840</v>
+        <v>62</v>
       </c>
       <c r="K262" s="23">
         <v>2019</v>
@@ -18348,7 +18339,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R262" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="263" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18357,7 +18348,7 @@
         <v>878</v>
       </c>
       <c r="C263" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D263" s="26" t="s">
         <v>879</v>
@@ -18402,7 +18393,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R263" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="264" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18411,7 +18402,7 @@
         <v>881</v>
       </c>
       <c r="C264" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D264" s="26" t="s">
         <v>882</v>
@@ -18456,7 +18447,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R264" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="265" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18465,7 +18456,7 @@
         <v>884</v>
       </c>
       <c r="C265" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D265" s="26" t="s">
         <v>885</v>
@@ -18510,7 +18501,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R265" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="266" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18519,7 +18510,7 @@
         <v>887</v>
       </c>
       <c r="C266" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D266" s="26" t="s">
         <v>888</v>
@@ -18540,7 +18531,7 @@
         <v>46</v>
       </c>
       <c r="J266" s="23" t="s">
-        <v>62</v>
+        <v>837</v>
       </c>
       <c r="K266" s="23">
         <v>2019</v>
@@ -18564,7 +18555,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R266" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="267" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18572,7 +18563,7 @@
         <v>890</v>
       </c>
       <c r="C267" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D267" s="26" t="s">
         <v>891</v>
@@ -18593,7 +18584,7 @@
         <v>46</v>
       </c>
       <c r="J267" s="23" t="s">
-        <v>840</v>
+        <v>62</v>
       </c>
       <c r="K267" s="23">
         <v>2019</v>
@@ -18617,7 +18608,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R267" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="268" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18625,7 +18616,7 @@
         <v>893</v>
       </c>
       <c r="C268" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D268" s="26" t="s">
         <v>894</v>
@@ -18670,7 +18661,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R268" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="269" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18678,7 +18669,7 @@
         <v>896</v>
       </c>
       <c r="C269" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D269" s="26" t="s">
         <v>897</v>
@@ -18723,7 +18714,7 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R269" s="24" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="270" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
@@ -18731,7 +18722,7 @@
         <v>899</v>
       </c>
       <c r="C270" s="33" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D270" s="26" t="s">
         <v>900</v>
@@ -18776,33 +18767,33 @@
         <v>99.986365245283906</v>
       </c>
       <c r="R270" s="24" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18" ht="94.5" x14ac:dyDescent="0.35">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B271" s="20" t="s">
         <v>902</v>
       </c>
       <c r="C271" s="33" t="s">
-        <v>837</v>
+        <v>903</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E271" s="26" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F271" s="23" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G271" s="23" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="H271" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I271" s="23" t="s">
-        <v>46</v>
+        <v>906</v>
       </c>
       <c r="J271" s="23" t="s">
         <v>62</v>
@@ -18810,40 +18801,40 @@
       <c r="K271" s="23">
         <v>2019</v>
       </c>
-      <c r="L271" s="23">
-        <v>94.4444444444445</v>
-      </c>
-      <c r="M271" s="23">
-        <v>99.684014009388207</v>
-      </c>
-      <c r="N271" s="23">
-        <v>99.5068057057576</v>
-      </c>
-      <c r="O271" s="23">
-        <v>86.330935251798607</v>
-      </c>
-      <c r="P271" s="23">
-        <v>99.102961336818197</v>
-      </c>
-      <c r="Q271" s="23">
-        <v>99.986365245283906</v>
+      <c r="L271" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="M271" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="N271" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="O271" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="P271" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q271" s="23" t="s">
+        <v>505</v>
       </c>
       <c r="R271" s="24" t="s">
-        <v>841</v>
+        <v>907</v>
       </c>
     </row>
     <row r="272" spans="1:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B272" s="20" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C272" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D272" s="26" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E272" s="26" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="F272" s="23" t="s">
         <v>61</v>
@@ -18855,7 +18846,7 @@
         <v>45</v>
       </c>
       <c r="I272" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J272" s="23" t="s">
         <v>62</v>
@@ -18864,25 +18855,25 @@
         <v>2019</v>
       </c>
       <c r="L272" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M272" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N272" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O272" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P272" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q272" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R272" s="24" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="273" spans="2:18" ht="126" x14ac:dyDescent="0.35">
@@ -18890,7 +18881,7 @@
         <v>911</v>
       </c>
       <c r="C273" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D273" s="26" t="s">
         <v>912</v>
@@ -18908,7 +18899,7 @@
         <v>45</v>
       </c>
       <c r="I273" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J273" s="23" t="s">
         <v>62</v>
@@ -18917,33 +18908,33 @@
         <v>2019</v>
       </c>
       <c r="L273" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M273" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N273" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O273" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P273" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q273" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R273" s="24" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="274" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="274" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B274" s="20" t="s">
         <v>914</v>
       </c>
       <c r="C274" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D274" s="26" t="s">
         <v>915</v>
@@ -18961,7 +18952,7 @@
         <v>45</v>
       </c>
       <c r="I274" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J274" s="23" t="s">
         <v>62</v>
@@ -18970,25 +18961,25 @@
         <v>2019</v>
       </c>
       <c r="L274" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M274" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N274" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O274" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P274" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q274" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R274" s="24" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="275" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
@@ -18996,7 +18987,7 @@
         <v>917</v>
       </c>
       <c r="C275" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D275" s="26" t="s">
         <v>918</v>
@@ -19014,7 +19005,7 @@
         <v>45</v>
       </c>
       <c r="I275" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J275" s="23" t="s">
         <v>62</v>
@@ -19023,33 +19014,33 @@
         <v>2019</v>
       </c>
       <c r="L275" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M275" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N275" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O275" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P275" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q275" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R275" s="24" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="276" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="276" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B276" s="20" t="s">
         <v>920</v>
       </c>
       <c r="C276" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D276" s="26" t="s">
         <v>921</v>
@@ -19067,7 +19058,7 @@
         <v>45</v>
       </c>
       <c r="I276" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J276" s="23" t="s">
         <v>62</v>
@@ -19076,25 +19067,25 @@
         <v>2019</v>
       </c>
       <c r="L276" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M276" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N276" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O276" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P276" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q276" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R276" s="24" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="277" spans="2:18" ht="126" x14ac:dyDescent="0.35">
@@ -19102,7 +19093,7 @@
         <v>923</v>
       </c>
       <c r="C277" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D277" s="26" t="s">
         <v>924</v>
@@ -19120,7 +19111,7 @@
         <v>45</v>
       </c>
       <c r="I277" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J277" s="23" t="s">
         <v>62</v>
@@ -19129,25 +19120,25 @@
         <v>2019</v>
       </c>
       <c r="L277" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M277" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N277" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O277" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P277" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q277" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R277" s="24" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="278" spans="2:18" ht="126" x14ac:dyDescent="0.35">
@@ -19155,7 +19146,7 @@
         <v>926</v>
       </c>
       <c r="C278" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D278" s="26" t="s">
         <v>927</v>
@@ -19173,7 +19164,7 @@
         <v>45</v>
       </c>
       <c r="I278" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J278" s="23" t="s">
         <v>62</v>
@@ -19182,25 +19173,25 @@
         <v>2019</v>
       </c>
       <c r="L278" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M278" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N278" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O278" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P278" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q278" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R278" s="24" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="279" spans="2:18" ht="126" x14ac:dyDescent="0.35">
@@ -19208,7 +19199,7 @@
         <v>929</v>
       </c>
       <c r="C279" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D279" s="26" t="s">
         <v>930</v>
@@ -19226,7 +19217,7 @@
         <v>45</v>
       </c>
       <c r="I279" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J279" s="23" t="s">
         <v>62</v>
@@ -19235,33 +19226,33 @@
         <v>2019</v>
       </c>
       <c r="L279" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M279" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N279" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O279" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P279" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q279" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R279" s="24" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="280" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="280" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
       <c r="B280" s="20" t="s">
         <v>932</v>
       </c>
       <c r="C280" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D280" s="26" t="s">
         <v>933</v>
@@ -19279,7 +19270,7 @@
         <v>45</v>
       </c>
       <c r="I280" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J280" s="23" t="s">
         <v>62</v>
@@ -19288,25 +19279,25 @@
         <v>2019</v>
       </c>
       <c r="L280" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M280" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N280" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O280" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P280" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q280" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R280" s="24" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="281" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
@@ -19314,7 +19305,7 @@
         <v>935</v>
       </c>
       <c r="C281" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D281" s="26" t="s">
         <v>936</v>
@@ -19332,7 +19323,7 @@
         <v>45</v>
       </c>
       <c r="I281" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J281" s="23" t="s">
         <v>62</v>
@@ -19341,33 +19332,33 @@
         <v>2019</v>
       </c>
       <c r="L281" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M281" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N281" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O281" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P281" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q281" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R281" s="24" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="282" spans="2:18" ht="115.5" x14ac:dyDescent="0.35">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="282" spans="2:18" ht="126" x14ac:dyDescent="0.35">
       <c r="B282" s="20" t="s">
         <v>938</v>
       </c>
       <c r="C282" s="33" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="D282" s="26" t="s">
         <v>939</v>
@@ -19385,7 +19376,7 @@
         <v>45</v>
       </c>
       <c r="I282" s="23" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="J282" s="23" t="s">
         <v>62</v>
@@ -19394,95 +19385,95 @@
         <v>2019</v>
       </c>
       <c r="L282" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M282" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N282" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O282" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P282" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="Q282" s="23" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="R282" s="24" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="283" spans="2:18" ht="126" x14ac:dyDescent="0.35">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="283" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B283" s="20" t="s">
         <v>941</v>
       </c>
       <c r="C283" s="33" t="s">
-        <v>906</v>
+        <v>942</v>
       </c>
       <c r="D283" s="26" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E283" s="26" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F283" s="23" t="s">
-        <v>61</v>
+        <v>945</v>
       </c>
       <c r="G283" s="23" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H283" s="23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="I283" s="23" t="s">
-        <v>909</v>
+        <v>26</v>
       </c>
       <c r="J283" s="23" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K283" s="23">
-        <v>2019</v>
-      </c>
-      <c r="L283" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="M283" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="N283" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="O283" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="P283" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q283" s="23" t="s">
-        <v>508</v>
+        <v>2020</v>
+      </c>
+      <c r="L283" s="23">
+        <v>96.296296296296305</v>
+      </c>
+      <c r="M283" s="23">
+        <v>99.147545314925694</v>
+      </c>
+      <c r="N283" s="23">
+        <v>99.822191544570202</v>
+      </c>
+      <c r="O283" s="23">
+        <v>93.525179856115102</v>
+      </c>
+      <c r="P283" s="23">
+        <v>99.960474892320093</v>
+      </c>
+      <c r="Q283" s="23">
+        <v>99.992295382983102</v>
       </c>
       <c r="R283" s="24" t="s">
-        <v>910</v>
+        <v>946</v>
       </c>
     </row>
     <row r="284" spans="2:18" ht="42" x14ac:dyDescent="0.35">
       <c r="B284" s="20" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C284" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="D284" s="26" t="s">
+        <v>948</v>
+      </c>
+      <c r="E284" s="26" t="s">
+        <v>949</v>
+      </c>
+      <c r="F284" s="23" t="s">
         <v>945</v>
-      </c>
-      <c r="D284" s="26" t="s">
-        <v>946</v>
-      </c>
-      <c r="E284" s="26" t="s">
-        <v>947</v>
-      </c>
-      <c r="F284" s="23" t="s">
-        <v>948</v>
       </c>
       <c r="G284" s="23" t="s">
         <v>50</v>
@@ -19500,33 +19491,33 @@
         <v>2020</v>
       </c>
       <c r="L284" s="23">
-        <v>96.296296296296305</v>
+        <v>87.037037037037095</v>
       </c>
       <c r="M284" s="23">
-        <v>99.147545314925694</v>
+        <v>97.598589076723798</v>
       </c>
       <c r="N284" s="23">
-        <v>99.822191544570202</v>
+        <v>99.298851333225898</v>
       </c>
       <c r="O284" s="23">
-        <v>93.525179856115102</v>
+        <v>87.050359712230204</v>
       </c>
       <c r="P284" s="23">
-        <v>99.960474892320093</v>
+        <v>99.538714220897404</v>
       </c>
       <c r="Q284" s="23">
-        <v>99.992295382983102</v>
+        <v>99.984094045866996</v>
       </c>
       <c r="R284" s="24" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="285" spans="2:18" ht="42" x14ac:dyDescent="0.35">
-      <c r="B285" s="20" t="s">
+      <c r="B285" s="28" t="s">
         <v>950</v>
       </c>
       <c r="C285" s="33" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D285" s="26" t="s">
         <v>951</v>
@@ -19535,7 +19526,7 @@
         <v>952</v>
       </c>
       <c r="F285" s="23" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G285" s="23" t="s">
         <v>50</v>
@@ -19547,91 +19538,59 @@
         <v>26</v>
       </c>
       <c r="J285" s="23" t="s">
-        <v>55</v>
+        <v>953</v>
       </c>
       <c r="K285" s="23">
         <v>2020</v>
       </c>
       <c r="L285" s="23">
-        <v>87.037037037037095</v>
+        <v>18.518518518518501</v>
       </c>
       <c r="M285" s="23">
-        <v>97.598589076723798</v>
+        <v>24.603350666494201</v>
       </c>
       <c r="N285" s="23">
-        <v>99.298851333225898</v>
+        <v>50.370183806678398</v>
       </c>
       <c r="O285" s="23">
-        <v>87.050359712230204</v>
+        <v>62.589928057553998</v>
       </c>
       <c r="P285" s="23">
-        <v>99.538714220897404</v>
+        <v>93.026850148479497</v>
       </c>
       <c r="Q285" s="23">
-        <v>99.984094045866996</v>
+        <v>97.736540452902105</v>
       </c>
       <c r="R285" s="24" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="286" spans="2:18" ht="42" x14ac:dyDescent="0.35">
-      <c r="B286" s="28" t="s">
-        <v>953</v>
-      </c>
-      <c r="C286" s="33" t="s">
-        <v>945</v>
-      </c>
-      <c r="D286" s="26" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="286" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B286" s="28"/>
+      <c r="C286" s="25"/>
+      <c r="D286" s="26"/>
+      <c r="E286" s="26"/>
+      <c r="F286" s="29"/>
+      <c r="G286" s="29"/>
+      <c r="H286" s="29"/>
+      <c r="I286" s="29"/>
+      <c r="J286" s="29"/>
+      <c r="K286" s="29"/>
+      <c r="L286" s="23"/>
+      <c r="M286" s="23"/>
+      <c r="N286" s="23"/>
+      <c r="O286" s="23"/>
+      <c r="P286" s="23"/>
+      <c r="Q286" s="23"/>
+      <c r="R286" s="22"/>
+    </row>
+    <row r="287" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B287" s="30" t="s">
         <v>954</v>
       </c>
-      <c r="E286" s="26" t="s">
-        <v>955</v>
-      </c>
-      <c r="F286" s="23" t="s">
-        <v>948</v>
-      </c>
-      <c r="G286" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H286" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I286" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J286" s="23" t="s">
-        <v>956</v>
-      </c>
-      <c r="K286" s="23">
-        <v>2020</v>
-      </c>
-      <c r="L286" s="23">
-        <v>18.518518518518501</v>
-      </c>
-      <c r="M286" s="23">
-        <v>24.603350666494201</v>
-      </c>
-      <c r="N286" s="23">
-        <v>50.370183806678398</v>
-      </c>
-      <c r="O286" s="23">
-        <v>62.589928057553998</v>
-      </c>
-      <c r="P286" s="23">
-        <v>93.026850148479497</v>
-      </c>
-      <c r="Q286" s="23">
-        <v>97.736540452902105</v>
-      </c>
-      <c r="R286" s="24" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="287" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B287" s="28"/>
-      <c r="C287" s="25"/>
-      <c r="D287" s="26"/>
-      <c r="E287" s="26"/>
+      <c r="C287" s="21"/>
+      <c r="D287" s="22"/>
+      <c r="E287" s="22"/>
       <c r="F287" s="29"/>
       <c r="G287" s="29"/>
       <c r="H287" s="29"/>
@@ -19646,10 +19605,8 @@
       <c r="Q287" s="23"/>
       <c r="R287" s="22"/>
     </row>
-    <row r="288" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B288" s="30" t="s">
-        <v>957</v>
-      </c>
+    <row r="288" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B288" s="2"/>
       <c r="C288" s="21"/>
       <c r="D288" s="22"/>
       <c r="E288" s="22"/>
@@ -19668,27 +19625,29 @@
       <c r="R288" s="22"/>
     </row>
     <row r="289" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B289" s="2"/>
-      <c r="C289" s="21"/>
-      <c r="D289" s="22"/>
-      <c r="E289" s="22"/>
-      <c r="F289" s="29"/>
-      <c r="G289" s="29"/>
-      <c r="H289" s="29"/>
-      <c r="I289" s="29"/>
-      <c r="J289" s="29"/>
-      <c r="K289" s="29"/>
-      <c r="L289" s="23"/>
-      <c r="M289" s="23"/>
-      <c r="N289" s="23"/>
-      <c r="O289" s="23"/>
-      <c r="P289" s="23"/>
-      <c r="Q289" s="23"/>
-      <c r="R289" s="22"/>
+      <c r="B289" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C289" s="31"/>
+      <c r="D289"/>
+      <c r="E289"/>
+      <c r="F289"/>
+      <c r="G289"/>
+      <c r="H289"/>
+      <c r="I289"/>
+      <c r="J289"/>
+      <c r="K289"/>
+      <c r="L289"/>
+      <c r="M289"/>
+      <c r="N289"/>
+      <c r="O289"/>
+      <c r="P289"/>
+      <c r="Q289"/>
+      <c r="R289"/>
     </row>
     <row r="290" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B290" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C290" s="31"/>
       <c r="D290"/>
@@ -19708,9 +19667,7 @@
       <c r="R290"/>
     </row>
     <row r="291" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B291" s="2" t="s">
-        <v>959</v>
-      </c>
+      <c r="B291" s="32"/>
       <c r="C291" s="31"/>
       <c r="D291"/>
       <c r="E291"/>
@@ -19729,7 +19686,7 @@
       <c r="R291"/>
     </row>
     <row r="292" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B292" s="32"/>
+      <c r="B292"/>
       <c r="C292" s="31"/>
       <c r="D292"/>
       <c r="E292"/>
@@ -19804,31 +19761,12 @@
       <c r="Q295"/>
       <c r="R295"/>
     </row>
-    <row r="296" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B296"/>
-      <c r="C296" s="31"/>
-      <c r="D296"/>
-      <c r="E296"/>
-      <c r="F296"/>
-      <c r="G296"/>
-      <c r="H296"/>
-      <c r="I296"/>
-      <c r="J296"/>
-      <c r="K296"/>
-      <c r="L296"/>
-      <c r="M296"/>
-      <c r="N296"/>
-      <c r="O296"/>
-      <c r="P296"/>
-      <c r="Q296"/>
-      <c r="R296"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
-    <hyperlink ref="B288" r:id="rId1"/>
-    <hyperlink ref="B291" r:id="rId2"/>
-    <hyperlink ref="B290" r:id="rId3"/>
+    <hyperlink ref="B287" r:id="rId1"/>
+    <hyperlink ref="B290" r:id="rId2"/>
+    <hyperlink ref="B289" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/AfDD_2022_List_of_indicators.xlsx
+++ b/AfDD_2022_List_of_indicators.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
